--- a/django_AFL_ML/Data/Richmond_stats.xlsx
+++ b/django_AFL_ML/Data/Richmond_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HW102"/>
+  <dimension ref="A1:HX102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1049,6 +1049,9 @@
       <c r="HW1" t="n">
         <v>10326</v>
       </c>
+      <c r="HX1" t="n">
+        <v>10327</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1746,6 +1749,9 @@
       <c r="HW2" t="n">
         <v>2020</v>
       </c>
+      <c r="HX2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2443,6 +2449,9 @@
       <c r="HW3" t="n">
         <v>28</v>
       </c>
+      <c r="HX3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3140,6 +3149,9 @@
       <c r="HW4" t="n">
         <v>0</v>
       </c>
+      <c r="HX4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3837,6 +3849,9 @@
       <c r="HW5" t="n">
         <v>0</v>
       </c>
+      <c r="HX5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4534,6 +4549,9 @@
       <c r="HW6" t="n">
         <v>81</v>
       </c>
+      <c r="HX6" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5231,6 +5249,9 @@
       <c r="HW7" t="n">
         <v>50</v>
       </c>
+      <c r="HX7" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5928,6 +5949,9 @@
       <c r="HW8" t="n">
         <v>31</v>
       </c>
+      <c r="HX8" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6625,6 +6649,9 @@
       <c r="HW9" t="n">
         <v>1</v>
       </c>
+      <c r="HX9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7322,6 +7349,9 @@
       <c r="HW10" t="n">
         <v>7</v>
       </c>
+      <c r="HX10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8019,6 +8049,9 @@
       <c r="HW11" t="n">
         <v>174</v>
       </c>
+      <c r="HX11" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8716,6 +8749,9 @@
       <c r="HW12" t="n">
         <v>104</v>
       </c>
+      <c r="HX12" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9413,6 +9449,9 @@
       <c r="HW13" t="n">
         <v>278</v>
       </c>
+      <c r="HX13" t="n">
+        <v>376</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10110,6 +10149,9 @@
       <c r="HW14" t="n">
         <v>1.67</v>
       </c>
+      <c r="HX14" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10807,6 +10849,9 @@
       <c r="HW15" t="n">
         <v>36</v>
       </c>
+      <c r="HX15" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11504,6 +11549,9 @@
       <c r="HW16" t="n">
         <v>73</v>
       </c>
+      <c r="HX16" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12201,6 +12249,9 @@
       <c r="HW17" t="n">
         <v>27</v>
       </c>
+      <c r="HX17" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12898,6 +12949,9 @@
       <c r="HW18" t="n">
         <v>11</v>
       </c>
+      <c r="HX18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13595,6 +13649,9 @@
       <c r="HW19" t="n">
         <v>16</v>
       </c>
+      <c r="HX19" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14292,6 +14349,9 @@
       <c r="HW20" t="n">
         <v>12</v>
       </c>
+      <c r="HX20" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14989,6 +15049,9 @@
       <c r="HW21" t="n">
         <v>10</v>
       </c>
+      <c r="HX21" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15686,6 +15749,9 @@
       <c r="HW22" t="n">
         <v>6</v>
       </c>
+      <c r="HX22" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16383,6 +16449,9 @@
       <c r="HW23" t="n">
         <v>3</v>
       </c>
+      <c r="HX23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17080,6 +17149,9 @@
       <c r="HW24" t="n">
         <v>21</v>
       </c>
+      <c r="HX24" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17777,6 +17849,9 @@
       <c r="HW25" t="n">
         <v>57.1</v>
       </c>
+      <c r="HX25" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18474,6 +18549,9 @@
       <c r="HW26" t="n">
         <v>23.17</v>
       </c>
+      <c r="HX26" t="n">
+        <v>25.07</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19171,6 +19249,9 @@
       <c r="HW27" t="n">
         <v>13.24</v>
       </c>
+      <c r="HX27" t="n">
+        <v>12.53</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19868,6 +19949,9 @@
       <c r="HW28" t="n">
         <v>40</v>
       </c>
+      <c r="HX28" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20565,6 +20649,9 @@
       <c r="HW29" t="n">
         <v>59</v>
       </c>
+      <c r="HX29" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21262,6 +21349,9 @@
       <c r="HW30" t="n">
         <v>33</v>
       </c>
+      <c r="HX30" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21959,6 +22049,9 @@
       <c r="HW31" t="n">
         <v>49</v>
       </c>
+      <c r="HX31" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22656,6 +22749,9 @@
       <c r="HW32" t="n">
         <v>2.33</v>
       </c>
+      <c r="HX32" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23353,6 +23449,9 @@
       <c r="HW33" t="n">
         <v>4.08</v>
       </c>
+      <c r="HX33" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24050,6 +24149,9 @@
       <c r="HW34" t="n">
         <v>36.7</v>
       </c>
+      <c r="HX34" t="n">
+        <v>38.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24747,6 +24849,9 @@
       <c r="HW35" t="n">
         <v>24.5</v>
       </c>
+      <c r="HX35" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25444,6 +25549,9 @@
       <c r="HW36" t="n">
         <v>185.5</v>
       </c>
+      <c r="HX36" t="n">
+        <v>185.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26141,6 +26249,9 @@
       <c r="HW37" t="n">
         <v>86.2</v>
       </c>
+      <c r="HX37" t="n">
+        <v>85.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26838,6 +26949,9 @@
       <c r="HW38" t="n">
         <v>27.8</v>
       </c>
+      <c r="HX38" t="n">
+        <v>26.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27535,6 +27649,9 @@
       <c r="HW39" t="n">
         <v>133</v>
       </c>
+      <c r="HX39" t="n">
+        <v>116.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28232,6 +28349,9 @@
       <c r="HW40" t="n">
         <v>4</v>
       </c>
+      <c r="HX40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28929,6 +29049,9 @@
       <c r="HW41" t="n">
         <v>6</v>
       </c>
+      <c r="HX41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29626,6 +29749,9 @@
       <c r="HW42" t="n">
         <v>3</v>
       </c>
+      <c r="HX42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30323,6 +30449,9 @@
       <c r="HW43" t="n">
         <v>9</v>
       </c>
+      <c r="HX43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31020,6 +31149,9 @@
       <c r="HW44" t="n">
         <v>124</v>
       </c>
+      <c r="HX44" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31717,6 +31849,9 @@
       <c r="HW45" t="n">
         <v>128</v>
       </c>
+      <c r="HX45" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32414,6 +32549,9 @@
       <c r="HW46" t="n">
         <v>173</v>
       </c>
+      <c r="HX46" t="n">
+        <v>268</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33111,6 +33249,9 @@
       <c r="HW47" t="n">
         <v>62.2</v>
       </c>
+      <c r="HX47" t="n">
+        <v>71.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33808,6 +33949,9 @@
       <c r="HW48" t="n">
         <v>59</v>
       </c>
+      <c r="HX48" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34505,6 +34649,9 @@
       <c r="HW49" t="n">
         <v>5</v>
       </c>
+      <c r="HX49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35202,6 +35349,9 @@
       <c r="HW50" t="n">
         <v>8</v>
       </c>
+      <c r="HX50" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35899,6 +36049,9 @@
       <c r="HW51" t="n">
         <v>40</v>
       </c>
+      <c r="HX51" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36596,6 +36749,9 @@
       <c r="HW52" t="n">
         <v>33</v>
       </c>
+      <c r="HX52" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37293,6 +37449,9 @@
       <c r="HW53" t="n">
         <v>52</v>
       </c>
+      <c r="HX53" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37990,6 +38149,9 @@
       <c r="HW54" t="n">
         <v>2</v>
       </c>
+      <c r="HX54" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38687,6 +38849,9 @@
       <c r="HW55" t="n">
         <v>10</v>
       </c>
+      <c r="HX55" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39384,6 +39549,9 @@
       <c r="HW56" t="n">
         <v>83.3</v>
       </c>
+      <c r="HX56" t="n">
+        <v>73.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40081,6 +40249,9 @@
       <c r="HW57" t="n">
         <v>161</v>
       </c>
+      <c r="HX57" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40778,6 +40949,9 @@
       <c r="HW58" t="n">
         <v>113</v>
       </c>
+      <c r="HX58" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -41475,6 +41649,9 @@
       <c r="HW59" t="n">
         <v>274</v>
       </c>
+      <c r="HX59" t="n">
+        <v>377</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42172,6 +42349,9 @@
       <c r="HW60" t="n">
         <v>1.42</v>
       </c>
+      <c r="HX60" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42869,6 +43049,9 @@
       <c r="HW61" t="n">
         <v>51</v>
       </c>
+      <c r="HX61" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43566,6 +43749,9 @@
       <c r="HW62" t="n">
         <v>51</v>
       </c>
+      <c r="HX62" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -44263,6 +44449,9 @@
       <c r="HW63" t="n">
         <v>43</v>
       </c>
+      <c r="HX63" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44960,6 +45149,9 @@
       <c r="HW64" t="n">
         <v>16</v>
       </c>
+      <c r="HX64" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45657,6 +45849,9 @@
       <c r="HW65" t="n">
         <v>11</v>
       </c>
+      <c r="HX65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -46354,6 +46549,9 @@
       <c r="HW66" t="n">
         <v>7</v>
       </c>
+      <c r="HX66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -47051,6 +47249,9 @@
       <c r="HW67" t="n">
         <v>6</v>
       </c>
+      <c r="HX67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47748,6 +47949,9 @@
       <c r="HW68" t="n">
         <v>7</v>
       </c>
+      <c r="HX68" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -48445,6 +48649,9 @@
       <c r="HW69" t="n">
         <v>1</v>
       </c>
+      <c r="HX69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49142,6 +49349,9 @@
       <c r="HW70" t="n">
         <v>15</v>
       </c>
+      <c r="HX70" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -49839,6 +50049,9 @@
       <c r="HW71" t="n">
         <v>46.7</v>
       </c>
+      <c r="HX71" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -50536,6 +50749,9 @@
       <c r="HW72" t="n">
         <v>39.14</v>
       </c>
+      <c r="HX72" t="n">
+        <v>34.27</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -51233,6 +51449,9 @@
       <c r="HW73" t="n">
         <v>18.27</v>
       </c>
+      <c r="HX73" t="n">
+        <v>15.08</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51930,6 +52149,9 @@
       <c r="HW74" t="n">
         <v>36</v>
       </c>
+      <c r="HX74" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -52627,6 +52849,9 @@
       <c r="HW75" t="n">
         <v>50</v>
       </c>
+      <c r="HX75" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -53324,6 +53549,9 @@
       <c r="HW76" t="n">
         <v>35</v>
       </c>
+      <c r="HX76" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -54021,6 +54249,9 @@
       <c r="HW77" t="n">
         <v>40</v>
       </c>
+      <c r="HX77" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -54718,6 +54949,9 @@
       <c r="HW78" t="n">
         <v>2.67</v>
       </c>
+      <c r="HX78" t="n">
+        <v>1.64</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -55415,6 +55649,9 @@
       <c r="HW79" t="n">
         <v>5.71</v>
       </c>
+      <c r="HX79" t="n">
+        <v>3.73</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -56112,6 +56349,9 @@
       <c r="HW80" t="n">
         <v>35</v>
       </c>
+      <c r="HX80" t="n">
+        <v>56.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -56809,6 +57049,9 @@
       <c r="HW81" t="n">
         <v>17.5</v>
       </c>
+      <c r="HX81" t="n">
+        <v>26.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -57506,6 +57749,9 @@
       <c r="HW82" t="n">
         <v>188.6</v>
       </c>
+      <c r="HX82" t="n">
+        <v>188.8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -58203,6 +58449,9 @@
       <c r="HW83" t="n">
         <v>89.3</v>
       </c>
+      <c r="HX83" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -58900,6 +59149,9 @@
       <c r="HW84" t="n">
         <v>28.33</v>
       </c>
+      <c r="HX84" t="n">
+        <v>25.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -59597,6 +59849,9 @@
       <c r="HW85" t="n">
         <v>162.9</v>
       </c>
+      <c r="HX85" t="n">
+        <v>90.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -60294,6 +60549,9 @@
       <c r="HW86" t="n">
         <v>2</v>
       </c>
+      <c r="HX86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -60991,6 +61249,9 @@
       <c r="HW87" t="n">
         <v>5</v>
       </c>
+      <c r="HX87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -61688,6 +61949,9 @@
       <c r="HW88" t="n">
         <v>4</v>
       </c>
+      <c r="HX88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -62385,6 +62649,9 @@
       <c r="HW89" t="n">
         <v>11</v>
       </c>
+      <c r="HX89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -63082,6 +63349,9 @@
       <c r="HW90" t="n">
         <v>124</v>
       </c>
+      <c r="HX90" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -63779,6 +64049,9 @@
       <c r="HW91" t="n">
         <v>145</v>
       </c>
+      <c r="HX91" t="n">
+        <v>225</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -64476,6 +64749,9 @@
       <c r="HW92" t="n">
         <v>169</v>
       </c>
+      <c r="HX92" t="n">
+        <v>281</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -65173,6 +65449,9 @@
       <c r="HW93" t="n">
         <v>61.7</v>
       </c>
+      <c r="HX93" t="n">
+        <v>74.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -65870,6 +66149,9 @@
       <c r="HW94" t="n">
         <v>50</v>
       </c>
+      <c r="HX94" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -66567,6 +66849,9 @@
       <c r="HW95" t="n">
         <v>4</v>
       </c>
+      <c r="HX95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -67264,6 +67549,9 @@
       <c r="HW96" t="n">
         <v>9</v>
       </c>
+      <c r="HX96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -67961,6 +68249,9 @@
       <c r="HW97" t="n">
         <v>36</v>
       </c>
+      <c r="HX97" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -68658,6 +68949,9 @@
       <c r="HW98" t="n">
         <v>35</v>
       </c>
+      <c r="HX98" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -69355,6 +69649,9 @@
       <c r="HW99" t="n">
         <v>56</v>
       </c>
+      <c r="HX99" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -70052,6 +70349,9 @@
       <c r="HW100" t="n">
         <v>1</v>
       </c>
+      <c r="HX100" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -70749,6 +71049,9 @@
       <c r="HW101" t="n">
         <v>6</v>
       </c>
+      <c r="HX101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -71446,8 +71749,11 @@
       <c r="HW102" t="n">
         <v>85.7</v>
       </c>
+      <c r="HX102" t="n">
+        <v>90.90000000000001</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/django_AFL_ML/Data/Richmond_stats.xlsx
+++ b/django_AFL_ML/Data/Richmond_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HX102"/>
+  <dimension ref="A1:HY102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1052,6 +1052,9 @@
       <c r="HX1" t="n">
         <v>10327</v>
       </c>
+      <c r="HY1" t="n">
+        <v>10342</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1752,6 +1755,9 @@
       <c r="HX2" t="n">
         <v>2021</v>
       </c>
+      <c r="HY2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2452,6 +2458,9 @@
       <c r="HX3" t="n">
         <v>1</v>
       </c>
+      <c r="HY3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3152,6 +3161,9 @@
       <c r="HX4" t="n">
         <v>0</v>
       </c>
+      <c r="HY4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3852,6 +3864,9 @@
       <c r="HX5" t="n">
         <v>0</v>
       </c>
+      <c r="HY5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4552,6 +4567,9 @@
       <c r="HX6" t="n">
         <v>105</v>
       </c>
+      <c r="HY6" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5252,6 +5270,9 @@
       <c r="HX7" t="n">
         <v>80</v>
       </c>
+      <c r="HY7" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5952,6 +5973,9 @@
       <c r="HX8" t="n">
         <v>25</v>
       </c>
+      <c r="HY8" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6652,6 +6676,9 @@
       <c r="HX9" t="n">
         <v>1</v>
       </c>
+      <c r="HY9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7352,6 +7379,9 @@
       <c r="HX10" t="n">
         <v>3</v>
       </c>
+      <c r="HY10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8052,6 +8082,9 @@
       <c r="HX11" t="n">
         <v>216</v>
       </c>
+      <c r="HY11" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8752,6 +8785,9 @@
       <c r="HX12" t="n">
         <v>160</v>
       </c>
+      <c r="HY12" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9452,6 +9488,9 @@
       <c r="HX13" t="n">
         <v>376</v>
       </c>
+      <c r="HY13" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10152,6 +10191,9 @@
       <c r="HX14" t="n">
         <v>1.35</v>
       </c>
+      <c r="HY14" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10852,6 +10894,9 @@
       <c r="HX15" t="n">
         <v>77</v>
       </c>
+      <c r="HY15" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11552,6 +11597,9 @@
       <c r="HX16" t="n">
         <v>43</v>
       </c>
+      <c r="HY16" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12252,6 +12300,9 @@
       <c r="HX17" t="n">
         <v>32</v>
       </c>
+      <c r="HY17" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12952,6 +13003,9 @@
       <c r="HX18" t="n">
         <v>15</v>
       </c>
+      <c r="HY18" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13652,6 +13706,9 @@
       <c r="HX19" t="n">
         <v>25</v>
       </c>
+      <c r="HY19" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14352,6 +14409,9 @@
       <c r="HX20" t="n">
         <v>15</v>
       </c>
+      <c r="HY20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15052,6 +15112,9 @@
       <c r="HX21" t="n">
         <v>11</v>
       </c>
+      <c r="HY21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15752,6 +15815,9 @@
       <c r="HX22" t="n">
         <v>14</v>
       </c>
+      <c r="HY22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16452,6 +16518,9 @@
       <c r="HX23" t="n">
         <v>1</v>
       </c>
+      <c r="HY23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17152,6 +17221,9 @@
       <c r="HX24" t="n">
         <v>30</v>
       </c>
+      <c r="HY24" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17852,6 +17924,9 @@
       <c r="HX25" t="n">
         <v>50</v>
       </c>
+      <c r="HY25" t="n">
+        <v>47.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18552,6 +18627,9 @@
       <c r="HX26" t="n">
         <v>25.07</v>
       </c>
+      <c r="HY26" t="n">
+        <v>33.18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19252,6 +19330,9 @@
       <c r="HX27" t="n">
         <v>12.53</v>
       </c>
+      <c r="HY27" t="n">
+        <v>15.87</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19952,6 +20033,9 @@
       <c r="HX28" t="n">
         <v>40</v>
       </c>
+      <c r="HY28" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20652,6 +20736,9 @@
       <c r="HX29" t="n">
         <v>69</v>
       </c>
+      <c r="HY29" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21352,6 +21439,9 @@
       <c r="HX30" t="n">
         <v>30</v>
       </c>
+      <c r="HY30" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22052,6 +22142,9 @@
       <c r="HX31" t="n">
         <v>75</v>
       </c>
+      <c r="HY31" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22752,6 +22845,9 @@
       <c r="HX32" t="n">
         <v>2.5</v>
       </c>
+      <c r="HY32" t="n">
+        <v>2.52</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23452,6 +23548,9 @@
       <c r="HX33" t="n">
         <v>5</v>
       </c>
+      <c r="HY33" t="n">
+        <v>5.27</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24152,6 +24251,9 @@
       <c r="HX34" t="n">
         <v>38.7</v>
       </c>
+      <c r="HY34" t="n">
+        <v>37.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24852,6 +24954,9 @@
       <c r="HX35" t="n">
         <v>20</v>
       </c>
+      <c r="HY35" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25552,6 +25657,9 @@
       <c r="HX36" t="n">
         <v>185.5</v>
       </c>
+      <c r="HY36" t="n">
+        <v>185.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26252,6 +26360,9 @@
       <c r="HX37" t="n">
         <v>85.90000000000001</v>
       </c>
+      <c r="HY37" t="n">
+        <v>85.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26952,6 +27063,9 @@
       <c r="HX38" t="n">
         <v>26.8</v>
       </c>
+      <c r="HY38" t="n">
+        <v>27.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27652,6 +27766,9 @@
       <c r="HX39" t="n">
         <v>116.1</v>
       </c>
+      <c r="HY39" t="n">
+        <v>125.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28352,6 +28469,9 @@
       <c r="HX40" t="n">
         <v>6</v>
       </c>
+      <c r="HY40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29052,6 +29172,9 @@
       <c r="HX41" t="n">
         <v>6</v>
       </c>
+      <c r="HY41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29752,6 +29875,9 @@
       <c r="HX42" t="n">
         <v>3</v>
       </c>
+      <c r="HY42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30452,6 +30578,9 @@
       <c r="HX43" t="n">
         <v>8</v>
       </c>
+      <c r="HY43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31152,6 +31281,9 @@
       <c r="HX44" t="n">
         <v>146</v>
       </c>
+      <c r="HY44" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31852,6 +31984,9 @@
       <c r="HX45" t="n">
         <v>216</v>
       </c>
+      <c r="HY45" t="n">
+        <v>236</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32552,6 +32687,9 @@
       <c r="HX46" t="n">
         <v>268</v>
       </c>
+      <c r="HY46" t="n">
+        <v>284</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33252,6 +33390,9 @@
       <c r="HX47" t="n">
         <v>71.3</v>
       </c>
+      <c r="HY47" t="n">
+        <v>77.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33952,6 +34093,9 @@
       <c r="HX48" t="n">
         <v>69</v>
       </c>
+      <c r="HY48" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34652,6 +34796,9 @@
       <c r="HX49" t="n">
         <v>7</v>
       </c>
+      <c r="HY49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35352,6 +35499,9 @@
       <c r="HX50" t="n">
         <v>16</v>
       </c>
+      <c r="HY50" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36052,6 +36202,9 @@
       <c r="HX51" t="n">
         <v>40</v>
       </c>
+      <c r="HY51" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36752,6 +36905,9 @@
       <c r="HX52" t="n">
         <v>30</v>
       </c>
+      <c r="HY52" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37452,6 +37608,9 @@
       <c r="HX53" t="n">
         <v>57</v>
       </c>
+      <c r="HY53" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38152,6 +38311,9 @@
       <c r="HX54" t="n">
         <v>11</v>
       </c>
+      <c r="HY54" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38852,6 +39014,9 @@
       <c r="HX55" t="n">
         <v>11</v>
       </c>
+      <c r="HY55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39552,6 +39717,9 @@
       <c r="HX56" t="n">
         <v>73.3</v>
       </c>
+      <c r="HY56" t="n">
+        <v>72.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40252,6 +40420,9 @@
       <c r="HX57" t="n">
         <v>235</v>
       </c>
+      <c r="HY57" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40952,6 +41123,9 @@
       <c r="HX58" t="n">
         <v>142</v>
       </c>
+      <c r="HY58" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -41652,6 +41826,9 @@
       <c r="HX59" t="n">
         <v>377</v>
       </c>
+      <c r="HY59" t="n">
+        <v>398</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42352,6 +42529,9 @@
       <c r="HX60" t="n">
         <v>1.65</v>
       </c>
+      <c r="HY60" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43052,6 +43232,9 @@
       <c r="HX61" t="n">
         <v>94</v>
       </c>
+      <c r="HY61" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43752,6 +43935,9 @@
       <c r="HX62" t="n">
         <v>38</v>
       </c>
+      <c r="HY62" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -44452,6 +44638,9 @@
       <c r="HX63" t="n">
         <v>35</v>
       </c>
+      <c r="HY63" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45152,6 +45341,9 @@
       <c r="HX64" t="n">
         <v>25</v>
       </c>
+      <c r="HY64" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45852,6 +46044,9 @@
       <c r="HX65" t="n">
         <v>15</v>
       </c>
+      <c r="HY65" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -46552,6 +46747,9 @@
       <c r="HX66" t="n">
         <v>11</v>
       </c>
+      <c r="HY66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -47252,6 +47450,9 @@
       <c r="HX67" t="n">
         <v>10</v>
       </c>
+      <c r="HY67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47952,6 +48153,9 @@
       <c r="HX68" t="n">
         <v>12</v>
       </c>
+      <c r="HY68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -48652,6 +48856,9 @@
       <c r="HX69" t="n">
         <v>2</v>
       </c>
+      <c r="HY69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49352,6 +49559,9 @@
       <c r="HX70" t="n">
         <v>25</v>
       </c>
+      <c r="HY70" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50052,6 +50262,9 @@
       <c r="HX71" t="n">
         <v>44</v>
       </c>
+      <c r="HY71" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -50752,6 +50965,9 @@
       <c r="HX72" t="n">
         <v>34.27</v>
       </c>
+      <c r="HY72" t="n">
+        <v>56.86</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -51452,6 +51668,9 @@
       <c r="HX73" t="n">
         <v>15.08</v>
       </c>
+      <c r="HY73" t="n">
+        <v>28.43</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -52152,6 +52371,9 @@
       <c r="HX74" t="n">
         <v>34</v>
       </c>
+      <c r="HY74" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -52852,6 +53074,9 @@
       <c r="HX75" t="n">
         <v>54</v>
       </c>
+      <c r="HY75" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -53552,6 +53777,9 @@
       <c r="HX76" t="n">
         <v>59</v>
       </c>
+      <c r="HY76" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -54252,6 +54480,9 @@
       <c r="HX77" t="n">
         <v>41</v>
       </c>
+      <c r="HY77" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -54952,6 +55183,9 @@
       <c r="HX78" t="n">
         <v>1.64</v>
       </c>
+      <c r="HY78" t="n">
+        <v>3.21</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -55652,6 +55886,9 @@
       <c r="HX79" t="n">
         <v>3.73</v>
       </c>
+      <c r="HY79" t="n">
+        <v>6.43</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -56352,6 +56589,9 @@
       <c r="HX80" t="n">
         <v>56.1</v>
       </c>
+      <c r="HY80" t="n">
+        <v>28.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -57052,6 +57292,9 @@
       <c r="HX81" t="n">
         <v>26.8</v>
       </c>
+      <c r="HY81" t="n">
+        <v>15.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -57752,6 +57995,9 @@
       <c r="HX82" t="n">
         <v>188.8</v>
       </c>
+      <c r="HY82" t="n">
+        <v>187.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -58452,6 +58698,9 @@
       <c r="HX83" t="n">
         <v>87</v>
       </c>
+      <c r="HY83" t="n">
+        <v>84.59999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -59152,6 +59401,9 @@
       <c r="HX84" t="n">
         <v>25.33</v>
       </c>
+      <c r="HY84" t="n">
+        <v>25.74</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -59852,6 +60104,9 @@
       <c r="HX85" t="n">
         <v>90.5</v>
       </c>
+      <c r="HY85" t="n">
+        <v>97.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -60552,6 +60807,9 @@
       <c r="HX86" t="n">
         <v>9</v>
       </c>
+      <c r="HY86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -61252,6 +61510,9 @@
       <c r="HX87" t="n">
         <v>5</v>
       </c>
+      <c r="HY87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -61952,6 +62213,9 @@
       <c r="HX88" t="n">
         <v>6</v>
       </c>
+      <c r="HY88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -62652,6 +62916,9 @@
       <c r="HX89" t="n">
         <v>3</v>
       </c>
+      <c r="HY89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -63352,6 +63619,9 @@
       <c r="HX90" t="n">
         <v>139</v>
       </c>
+      <c r="HY90" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -64052,6 +64322,9 @@
       <c r="HX91" t="n">
         <v>225</v>
       </c>
+      <c r="HY91" t="n">
+        <v>288</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -64752,6 +65025,9 @@
       <c r="HX92" t="n">
         <v>281</v>
       </c>
+      <c r="HY92" t="n">
+        <v>308</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -65452,6 +65728,9 @@
       <c r="HX93" t="n">
         <v>74.5</v>
       </c>
+      <c r="HY93" t="n">
+        <v>77.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -66152,6 +66431,9 @@
       <c r="HX94" t="n">
         <v>54</v>
       </c>
+      <c r="HY94" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -66852,6 +67134,9 @@
       <c r="HX95" t="n">
         <v>10</v>
       </c>
+      <c r="HY95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -67552,6 +67837,9 @@
       <c r="HX96" t="n">
         <v>10</v>
       </c>
+      <c r="HY96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -68252,6 +68540,9 @@
       <c r="HX97" t="n">
         <v>34</v>
       </c>
+      <c r="HY97" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -68952,6 +69243,9 @@
       <c r="HX98" t="n">
         <v>59</v>
       </c>
+      <c r="HY98" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -69652,6 +69946,9 @@
       <c r="HX99" t="n">
         <v>52</v>
       </c>
+      <c r="HY99" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -70352,6 +70649,9 @@
       <c r="HX100" t="n">
         <v>10</v>
       </c>
+      <c r="HY100" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -71052,6 +71352,9 @@
       <c r="HX101" t="n">
         <v>10</v>
       </c>
+      <c r="HY101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -71752,6 +72055,9 @@
       <c r="HX102" t="n">
         <v>90.90000000000001</v>
       </c>
+      <c r="HY102" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Richmond_stats.xlsx
+++ b/django_AFL_ML/Data/Richmond_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HY102"/>
+  <dimension ref="A1:HZ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1055,6 +1055,9 @@
       <c r="HY1" t="n">
         <v>10342</v>
       </c>
+      <c r="HZ1" t="n">
+        <v>10348</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1758,6 +1761,9 @@
       <c r="HY2" t="n">
         <v>2021</v>
       </c>
+      <c r="HZ2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2461,6 +2467,9 @@
       <c r="HY3" t="n">
         <v>2</v>
       </c>
+      <c r="HZ3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3164,6 +3173,9 @@
       <c r="HY4" t="n">
         <v>1</v>
       </c>
+      <c r="HZ4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3867,6 +3879,9 @@
       <c r="HY5" t="n">
         <v>1</v>
       </c>
+      <c r="HZ5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4570,6 +4585,9 @@
       <c r="HY6" t="n">
         <v>78</v>
       </c>
+      <c r="HZ6" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5273,6 +5291,9 @@
       <c r="HY7" t="n">
         <v>49</v>
       </c>
+      <c r="HZ7" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5976,6 +5997,9 @@
       <c r="HY8" t="n">
         <v>29</v>
       </c>
+      <c r="HZ8" t="n">
+        <v>-45</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6679,6 +6703,9 @@
       <c r="HY9" t="n">
         <v>1</v>
       </c>
+      <c r="HZ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7382,6 +7409,9 @@
       <c r="HY10" t="n">
         <v>10</v>
       </c>
+      <c r="HZ10" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8085,6 +8115,9 @@
       <c r="HY11" t="n">
         <v>222</v>
       </c>
+      <c r="HZ11" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8788,6 +8821,9 @@
       <c r="HY12" t="n">
         <v>143</v>
       </c>
+      <c r="HZ12" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9491,6 +9527,9 @@
       <c r="HY13" t="n">
         <v>365</v>
       </c>
+      <c r="HZ13" t="n">
+        <v>340</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10194,6 +10233,9 @@
       <c r="HY14" t="n">
         <v>1.55</v>
       </c>
+      <c r="HZ14" t="n">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10897,6 +10939,9 @@
       <c r="HY15" t="n">
         <v>116</v>
       </c>
+      <c r="HZ15" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11600,6 +11645,9 @@
       <c r="HY16" t="n">
         <v>42</v>
       </c>
+      <c r="HZ16" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12303,6 +12351,9 @@
       <c r="HY17" t="n">
         <v>24</v>
       </c>
+      <c r="HZ17" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13006,6 +13057,9 @@
       <c r="HY18" t="n">
         <v>25</v>
       </c>
+      <c r="HZ18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13709,6 +13763,9 @@
       <c r="HY19" t="n">
         <v>22</v>
       </c>
+      <c r="HZ19" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14412,6 +14469,9 @@
       <c r="HY20" t="n">
         <v>11</v>
       </c>
+      <c r="HZ20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15115,6 +15175,9 @@
       <c r="HY21" t="n">
         <v>8</v>
       </c>
+      <c r="HZ21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15818,6 +15881,9 @@
       <c r="HY22" t="n">
         <v>11</v>
       </c>
+      <c r="HZ22" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16521,6 +16587,9 @@
       <c r="HY23" t="n">
         <v>1</v>
       </c>
+      <c r="HZ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17224,6 +17293,9 @@
       <c r="HY24" t="n">
         <v>23</v>
       </c>
+      <c r="HZ24" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17927,6 +17999,9 @@
       <c r="HY25" t="n">
         <v>47.8</v>
       </c>
+      <c r="HZ25" t="n">
+        <v>45.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18630,6 +18705,9 @@
       <c r="HY26" t="n">
         <v>33.18</v>
       </c>
+      <c r="HZ26" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19333,6 +19411,9 @@
       <c r="HY27" t="n">
         <v>15.87</v>
       </c>
+      <c r="HZ27" t="n">
+        <v>15.45</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20036,6 +20117,9 @@
       <c r="HY28" t="n">
         <v>26</v>
       </c>
+      <c r="HZ28" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20739,6 +20823,9 @@
       <c r="HY29" t="n">
         <v>59</v>
       </c>
+      <c r="HZ29" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21442,6 +21529,9 @@
       <c r="HY30" t="n">
         <v>38</v>
       </c>
+      <c r="HZ30" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22145,6 +22235,9 @@
       <c r="HY31" t="n">
         <v>58</v>
       </c>
+      <c r="HZ31" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22848,6 +22941,9 @@
       <c r="HY32" t="n">
         <v>2.52</v>
       </c>
+      <c r="HZ32" t="n">
+        <v>2.14</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23551,6 +23647,9 @@
       <c r="HY33" t="n">
         <v>5.27</v>
       </c>
+      <c r="HZ33" t="n">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24254,6 +24353,9 @@
       <c r="HY34" t="n">
         <v>37.9</v>
       </c>
+      <c r="HZ34" t="n">
+        <v>46.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24957,6 +25059,9 @@
       <c r="HY35" t="n">
         <v>19</v>
       </c>
+      <c r="HZ35" t="n">
+        <v>21.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25660,6 +25765,9 @@
       <c r="HY36" t="n">
         <v>185.3</v>
       </c>
+      <c r="HZ36" t="n">
+        <v>185.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26363,6 +26471,9 @@
       <c r="HY37" t="n">
         <v>85.8</v>
       </c>
+      <c r="HZ37" t="n">
+        <v>85.59999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27066,6 +27177,9 @@
       <c r="HY38" t="n">
         <v>27.33</v>
       </c>
+      <c r="HZ38" t="n">
+        <v>27.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27769,6 +27883,9 @@
       <c r="HY39" t="n">
         <v>125.7</v>
       </c>
+      <c r="HZ39" t="n">
+        <v>121.6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28472,6 +28589,9 @@
       <c r="HY40" t="n">
         <v>5</v>
       </c>
+      <c r="HZ40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29175,6 +29295,9 @@
       <c r="HY41" t="n">
         <v>6</v>
       </c>
+      <c r="HZ41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29878,6 +30001,9 @@
       <c r="HY42" t="n">
         <v>3</v>
       </c>
+      <c r="HZ42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30581,6 +30707,9 @@
       <c r="HY43" t="n">
         <v>8</v>
       </c>
+      <c r="HZ43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31284,6 +31413,9 @@
       <c r="HY44" t="n">
         <v>128</v>
       </c>
+      <c r="HZ44" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31987,6 +32119,9 @@
       <c r="HY45" t="n">
         <v>236</v>
       </c>
+      <c r="HZ45" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32690,6 +32825,9 @@
       <c r="HY46" t="n">
         <v>284</v>
       </c>
+      <c r="HZ46" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33393,6 +33531,9 @@
       <c r="HY47" t="n">
         <v>77.8</v>
       </c>
+      <c r="HZ47" t="n">
+        <v>70.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34096,6 +34237,9 @@
       <c r="HY48" t="n">
         <v>59</v>
       </c>
+      <c r="HZ48" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34799,6 +34943,9 @@
       <c r="HY49" t="n">
         <v>13</v>
       </c>
+      <c r="HZ49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35502,6 +35649,9 @@
       <c r="HY50" t="n">
         <v>16</v>
       </c>
+      <c r="HZ50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36205,6 +36355,9 @@
       <c r="HY51" t="n">
         <v>26</v>
       </c>
+      <c r="HZ51" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36908,6 +37061,9 @@
       <c r="HY52" t="n">
         <v>38</v>
       </c>
+      <c r="HZ52" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37611,6 +37767,9 @@
       <c r="HY53" t="n">
         <v>43</v>
       </c>
+      <c r="HZ53" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38314,6 +38473,9 @@
       <c r="HY54" t="n">
         <v>14</v>
       </c>
+      <c r="HZ54" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39017,6 +39179,9 @@
       <c r="HY55" t="n">
         <v>8</v>
       </c>
+      <c r="HZ55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39720,6 +39885,9 @@
       <c r="HY56" t="n">
         <v>72.7</v>
       </c>
+      <c r="HZ56" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40423,6 +40591,9 @@
       <c r="HY57" t="n">
         <v>231</v>
       </c>
+      <c r="HZ57" t="n">
+        <v>253</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41126,6 +41297,9 @@
       <c r="HY58" t="n">
         <v>167</v>
       </c>
+      <c r="HZ58" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -41829,6 +42003,9 @@
       <c r="HY59" t="n">
         <v>398</v>
       </c>
+      <c r="HZ59" t="n">
+        <v>387</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42532,6 +42709,9 @@
       <c r="HY60" t="n">
         <v>1.38</v>
       </c>
+      <c r="HZ60" t="n">
+        <v>1.89</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43235,6 +43415,9 @@
       <c r="HY61" t="n">
         <v>137</v>
       </c>
+      <c r="HZ61" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43938,6 +44121,9 @@
       <c r="HY62" t="n">
         <v>36</v>
       </c>
+      <c r="HZ62" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -44641,6 +44827,9 @@
       <c r="HY63" t="n">
         <v>25</v>
       </c>
+      <c r="HZ63" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45344,6 +45533,9 @@
       <c r="HY64" t="n">
         <v>22</v>
       </c>
+      <c r="HZ64" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46047,6 +46239,9 @@
       <c r="HY65" t="n">
         <v>25</v>
       </c>
+      <c r="HZ65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -46750,6 +46945,9 @@
       <c r="HY66" t="n">
         <v>7</v>
       </c>
+      <c r="HZ66" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -47453,6 +47651,9 @@
       <c r="HY67" t="n">
         <v>5</v>
       </c>
+      <c r="HZ67" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48156,6 +48357,9 @@
       <c r="HY68" t="n">
         <v>6</v>
       </c>
+      <c r="HZ68" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -48859,6 +49063,9 @@
       <c r="HY69" t="n">
         <v>1</v>
       </c>
+      <c r="HZ69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49562,6 +49769,9 @@
       <c r="HY70" t="n">
         <v>14</v>
       </c>
+      <c r="HZ70" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50265,6 +50475,9 @@
       <c r="HY71" t="n">
         <v>50</v>
       </c>
+      <c r="HZ71" t="n">
+        <v>53.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -50968,6 +51181,9 @@
       <c r="HY72" t="n">
         <v>56.86</v>
       </c>
+      <c r="HZ72" t="n">
+        <v>22.76</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -51671,6 +51887,9 @@
       <c r="HY73" t="n">
         <v>28.43</v>
       </c>
+      <c r="HZ73" t="n">
+        <v>12.09</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -52374,6 +52593,9 @@
       <c r="HY74" t="n">
         <v>23</v>
       </c>
+      <c r="HZ74" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53077,6 +53299,9 @@
       <c r="HY75" t="n">
         <v>67</v>
       </c>
+      <c r="HZ75" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -53780,6 +54005,9 @@
       <c r="HY76" t="n">
         <v>46</v>
       </c>
+      <c r="HZ76" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -54483,6 +54711,9 @@
       <c r="HY77" t="n">
         <v>45</v>
       </c>
+      <c r="HZ77" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -55186,6 +55417,9 @@
       <c r="HY78" t="n">
         <v>3.21</v>
       </c>
+      <c r="HZ78" t="n">
+        <v>1.94</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -55889,6 +56123,9 @@
       <c r="HY79" t="n">
         <v>6.43</v>
       </c>
+      <c r="HZ79" t="n">
+        <v>3.65</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -56592,6 +56829,9 @@
       <c r="HY80" t="n">
         <v>28.9</v>
       </c>
+      <c r="HZ80" t="n">
+        <v>48.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -57295,6 +57535,9 @@
       <c r="HY81" t="n">
         <v>15.6</v>
       </c>
+      <c r="HZ81" t="n">
+        <v>27.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -57998,6 +58241,9 @@
       <c r="HY82" t="n">
         <v>187.1</v>
       </c>
+      <c r="HZ82" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -58701,6 +58947,9 @@
       <c r="HY83" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="HZ83" t="n">
+        <v>83.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -59404,6 +59653,9 @@
       <c r="HY84" t="n">
         <v>25.74</v>
       </c>
+      <c r="HZ84" t="n">
+        <v>24.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -60107,6 +60359,9 @@
       <c r="HY85" t="n">
         <v>97.2</v>
       </c>
+      <c r="HZ85" t="n">
+        <v>84.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -60810,6 +61065,9 @@
       <c r="HY86" t="n">
         <v>8</v>
       </c>
+      <c r="HZ86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -61513,6 +61771,9 @@
       <c r="HY87" t="n">
         <v>6</v>
       </c>
+      <c r="HZ87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -62216,6 +62477,9 @@
       <c r="HY88" t="n">
         <v>5</v>
       </c>
+      <c r="HZ88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -62919,6 +63183,9 @@
       <c r="HY89" t="n">
         <v>4</v>
       </c>
+      <c r="HZ89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -63622,6 +63889,9 @@
       <c r="HY90" t="n">
         <v>117</v>
       </c>
+      <c r="HZ90" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -64325,6 +64595,9 @@
       <c r="HY91" t="n">
         <v>288</v>
       </c>
+      <c r="HZ91" t="n">
+        <v>253</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -65028,6 +65301,9 @@
       <c r="HY92" t="n">
         <v>308</v>
       </c>
+      <c r="HZ92" t="n">
+        <v>293</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -65731,6 +66007,9 @@
       <c r="HY93" t="n">
         <v>77.40000000000001</v>
       </c>
+      <c r="HZ93" t="n">
+        <v>75.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -66434,6 +66713,9 @@
       <c r="HY94" t="n">
         <v>67</v>
       </c>
+      <c r="HZ94" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -67137,6 +67419,9 @@
       <c r="HY95" t="n">
         <v>10</v>
       </c>
+      <c r="HZ95" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -67840,6 +68125,9 @@
       <c r="HY96" t="n">
         <v>11</v>
       </c>
+      <c r="HZ96" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -68543,6 +68831,9 @@
       <c r="HY97" t="n">
         <v>23</v>
       </c>
+      <c r="HZ97" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -69246,6 +69537,9 @@
       <c r="HY98" t="n">
         <v>46</v>
       </c>
+      <c r="HZ98" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -69949,6 +70243,9 @@
       <c r="HY99" t="n">
         <v>55</v>
       </c>
+      <c r="HZ99" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -70652,6 +70949,9 @@
       <c r="HY100" t="n">
         <v>9</v>
       </c>
+      <c r="HZ100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -71355,6 +71655,9 @@
       <c r="HY101" t="n">
         <v>5</v>
       </c>
+      <c r="HZ101" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -72058,6 +72361,9 @@
       <c r="HY102" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="HZ102" t="n">
+        <v>70.59999999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Richmond_stats.xlsx
+++ b/django_AFL_ML/Data/Richmond_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HZ102"/>
+  <dimension ref="A1:IA102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1058,6 +1058,9 @@
       <c r="HZ1" t="n">
         <v>10348</v>
       </c>
+      <c r="IA1" t="n">
+        <v>10355</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1764,6 +1767,9 @@
       <c r="HZ2" t="n">
         <v>2021</v>
       </c>
+      <c r="IA2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2470,6 +2476,9 @@
       <c r="HZ3" t="n">
         <v>3</v>
       </c>
+      <c r="IA3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3176,6 +3185,9 @@
       <c r="HZ4" t="n">
         <v>0</v>
       </c>
+      <c r="IA4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3882,6 +3894,9 @@
       <c r="HZ5" t="n">
         <v>1</v>
       </c>
+      <c r="IA5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4588,6 +4603,9 @@
       <c r="HZ6" t="n">
         <v>72</v>
       </c>
+      <c r="IA6" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5294,6 +5312,9 @@
       <c r="HZ7" t="n">
         <v>117</v>
       </c>
+      <c r="IA7" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6000,6 +6021,9 @@
       <c r="HZ8" t="n">
         <v>-45</v>
       </c>
+      <c r="IA8" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6706,6 +6730,9 @@
       <c r="HZ9" t="n">
         <v>0</v>
       </c>
+      <c r="IA9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7412,6 +7439,9 @@
       <c r="HZ10" t="n">
         <v>16</v>
       </c>
+      <c r="IA10" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8118,6 +8148,9 @@
       <c r="HZ11" t="n">
         <v>188</v>
       </c>
+      <c r="IA11" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8824,6 +8857,9 @@
       <c r="HZ12" t="n">
         <v>152</v>
       </c>
+      <c r="IA12" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9530,6 +9566,9 @@
       <c r="HZ13" t="n">
         <v>340</v>
       </c>
+      <c r="IA13" t="n">
+        <v>366</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10236,6 +10275,9 @@
       <c r="HZ14" t="n">
         <v>1.24</v>
       </c>
+      <c r="IA14" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10942,6 +10984,9 @@
       <c r="HZ15" t="n">
         <v>79</v>
       </c>
+      <c r="IA15" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11648,6 +11693,9 @@
       <c r="HZ16" t="n">
         <v>55</v>
       </c>
+      <c r="IA16" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12354,6 +12402,9 @@
       <c r="HZ17" t="n">
         <v>21</v>
       </c>
+      <c r="IA17" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13060,6 +13111,9 @@
       <c r="HZ18" t="n">
         <v>15</v>
       </c>
+      <c r="IA18" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13766,6 +13820,9 @@
       <c r="HZ19" t="n">
         <v>25</v>
       </c>
+      <c r="IA19" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14472,6 +14529,9 @@
       <c r="HZ20" t="n">
         <v>10</v>
       </c>
+      <c r="IA20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15178,6 +15238,9 @@
       <c r="HZ21" t="n">
         <v>6</v>
       </c>
+      <c r="IA21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15884,6 +15947,9 @@
       <c r="HZ22" t="n">
         <v>12</v>
       </c>
+      <c r="IA22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16590,6 +16656,9 @@
       <c r="HZ23" t="n">
         <v>0</v>
       </c>
+      <c r="IA23" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17296,6 +17365,9 @@
       <c r="HZ24" t="n">
         <v>22</v>
       </c>
+      <c r="IA24" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18002,6 +18074,9 @@
       <c r="HZ25" t="n">
         <v>45.5</v>
       </c>
+      <c r="IA25" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18708,6 +18783,9 @@
       <c r="HZ26" t="n">
         <v>34</v>
       </c>
+      <c r="IA26" t="n">
+        <v>33.27</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19414,6 +19492,9 @@
       <c r="HZ27" t="n">
         <v>15.45</v>
       </c>
+      <c r="IA27" t="n">
+        <v>16.64</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20120,6 +20201,9 @@
       <c r="HZ28" t="n">
         <v>25</v>
       </c>
+      <c r="IA28" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20826,6 +20910,9 @@
       <c r="HZ29" t="n">
         <v>69</v>
       </c>
+      <c r="IA29" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21532,6 +21619,9 @@
       <c r="HZ30" t="n">
         <v>43</v>
       </c>
+      <c r="IA30" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22238,6 +22328,9 @@
       <c r="HZ31" t="n">
         <v>47</v>
       </c>
+      <c r="IA31" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22944,6 +23037,9 @@
       <c r="HZ32" t="n">
         <v>2.14</v>
       </c>
+      <c r="IA32" t="n">
+        <v>2.23</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23650,6 +23746,9 @@
       <c r="HZ33" t="n">
         <v>4.7</v>
       </c>
+      <c r="IA33" t="n">
+        <v>4.45</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24356,6 +24455,9 @@
       <c r="HZ34" t="n">
         <v>46.8</v>
       </c>
+      <c r="IA34" t="n">
+        <v>34.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25062,6 +25164,9 @@
       <c r="HZ35" t="n">
         <v>21.3</v>
       </c>
+      <c r="IA35" t="n">
+        <v>22.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25768,6 +25873,9 @@
       <c r="HZ36" t="n">
         <v>185.1</v>
       </c>
+      <c r="IA36" t="n">
+        <v>185.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26474,6 +26582,9 @@
       <c r="HZ37" t="n">
         <v>85.59999999999999</v>
       </c>
+      <c r="IA37" t="n">
+        <v>84.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27180,6 +27291,9 @@
       <c r="HZ38" t="n">
         <v>27.16</v>
       </c>
+      <c r="IA38" t="n">
+        <v>26.74</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27886,6 +28000,9 @@
       <c r="HZ39" t="n">
         <v>121.6</v>
       </c>
+      <c r="IA39" t="n">
+        <v>113.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28592,6 +28709,9 @@
       <c r="HZ40" t="n">
         <v>5</v>
       </c>
+      <c r="IA40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29298,6 +29418,9 @@
       <c r="HZ41" t="n">
         <v>6</v>
       </c>
+      <c r="IA41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30004,6 +30127,9 @@
       <c r="HZ42" t="n">
         <v>4</v>
       </c>
+      <c r="IA42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30710,6 +30836,9 @@
       <c r="HZ43" t="n">
         <v>8</v>
       </c>
+      <c r="IA43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31416,6 +31545,9 @@
       <c r="HZ44" t="n">
         <v>122</v>
       </c>
+      <c r="IA44" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32122,6 +32254,9 @@
       <c r="HZ45" t="n">
         <v>216</v>
       </c>
+      <c r="IA45" t="n">
+        <v>229</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32828,6 +32963,9 @@
       <c r="HZ46" t="n">
         <v>240</v>
       </c>
+      <c r="IA46" t="n">
+        <v>277</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33534,6 +33672,9 @@
       <c r="HZ47" t="n">
         <v>70.59999999999999</v>
       </c>
+      <c r="IA47" t="n">
+        <v>75.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34240,6 +34381,9 @@
       <c r="HZ48" t="n">
         <v>69</v>
       </c>
+      <c r="IA48" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34946,6 +35090,9 @@
       <c r="HZ49" t="n">
         <v>9</v>
       </c>
+      <c r="IA49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35652,6 +35799,9 @@
       <c r="HZ50" t="n">
         <v>10</v>
       </c>
+      <c r="IA50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36358,6 +36508,9 @@
       <c r="HZ51" t="n">
         <v>25</v>
       </c>
+      <c r="IA51" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37064,6 +37217,9 @@
       <c r="HZ52" t="n">
         <v>43</v>
       </c>
+      <c r="IA52" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37770,6 +37926,9 @@
       <c r="HZ53" t="n">
         <v>48</v>
       </c>
+      <c r="IA53" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38476,6 +38635,9 @@
       <c r="HZ54" t="n">
         <v>10</v>
       </c>
+      <c r="IA54" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39182,6 +39344,9 @@
       <c r="HZ55" t="n">
         <v>6</v>
       </c>
+      <c r="IA55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39888,6 +40053,9 @@
       <c r="HZ56" t="n">
         <v>60</v>
       </c>
+      <c r="IA56" t="n">
+        <v>72.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40594,6 +40762,9 @@
       <c r="HZ57" t="n">
         <v>253</v>
       </c>
+      <c r="IA57" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41300,6 +41471,9 @@
       <c r="HZ58" t="n">
         <v>134</v>
       </c>
+      <c r="IA58" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42006,6 +42180,9 @@
       <c r="HZ59" t="n">
         <v>387</v>
       </c>
+      <c r="IA59" t="n">
+        <v>381</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42712,6 +42889,9 @@
       <c r="HZ60" t="n">
         <v>1.89</v>
       </c>
+      <c r="IA60" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43418,6 +43598,9 @@
       <c r="HZ61" t="n">
         <v>124</v>
       </c>
+      <c r="IA61" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44124,6 +44307,9 @@
       <c r="HZ62" t="n">
         <v>38</v>
       </c>
+      <c r="IA62" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -44830,6 +45016,9 @@
       <c r="HZ63" t="n">
         <v>25</v>
       </c>
+      <c r="IA63" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45536,6 +45725,9 @@
       <c r="HZ64" t="n">
         <v>25</v>
       </c>
+      <c r="IA64" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46242,6 +46434,9 @@
       <c r="HZ65" t="n">
         <v>15</v>
       </c>
+      <c r="IA65" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -46948,6 +47143,9 @@
       <c r="HZ66" t="n">
         <v>17</v>
       </c>
+      <c r="IA66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -47654,6 +47852,9 @@
       <c r="HZ67" t="n">
         <v>12</v>
       </c>
+      <c r="IA67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48360,6 +48561,9 @@
       <c r="HZ68" t="n">
         <v>13</v>
       </c>
+      <c r="IA68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49066,6 +49270,9 @@
       <c r="HZ69" t="n">
         <v>2</v>
       </c>
+      <c r="IA69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49772,6 +49979,9 @@
       <c r="HZ70" t="n">
         <v>32</v>
       </c>
+      <c r="IA70" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50478,6 +50688,9 @@
       <c r="HZ71" t="n">
         <v>53.1</v>
       </c>
+      <c r="IA71" t="n">
+        <v>45.8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -51184,6 +51397,9 @@
       <c r="HZ72" t="n">
         <v>22.76</v>
       </c>
+      <c r="IA72" t="n">
+        <v>34.64</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -51890,6 +52106,9 @@
       <c r="HZ73" t="n">
         <v>12.09</v>
       </c>
+      <c r="IA73" t="n">
+        <v>15.88</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -52596,6 +52815,9 @@
       <c r="HZ74" t="n">
         <v>31</v>
       </c>
+      <c r="IA74" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53302,6 +53524,9 @@
       <c r="HZ75" t="n">
         <v>50</v>
       </c>
+      <c r="IA75" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54008,6 +54233,9 @@
       <c r="HZ76" t="n">
         <v>36</v>
       </c>
+      <c r="IA76" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -54714,6 +54942,9 @@
       <c r="HZ77" t="n">
         <v>62</v>
       </c>
+      <c r="IA77" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -55420,6 +55651,9 @@
       <c r="HZ78" t="n">
         <v>1.94</v>
       </c>
+      <c r="IA78" t="n">
+        <v>2.54</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -56126,6 +56360,9 @@
       <c r="HZ79" t="n">
         <v>3.65</v>
       </c>
+      <c r="IA79" t="n">
+        <v>5.55</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -56832,6 +57069,9 @@
       <c r="HZ80" t="n">
         <v>48.4</v>
       </c>
+      <c r="IA80" t="n">
+        <v>34.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -57538,6 +57778,9 @@
       <c r="HZ81" t="n">
         <v>27.4</v>
       </c>
+      <c r="IA81" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -58244,6 +58487,9 @@
       <c r="HZ82" t="n">
         <v>187.3</v>
       </c>
+      <c r="IA82" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -58950,6 +59196,9 @@
       <c r="HZ83" t="n">
         <v>83.7</v>
       </c>
+      <c r="IA83" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -59656,6 +59905,9 @@
       <c r="HZ84" t="n">
         <v>24.33</v>
       </c>
+      <c r="IA84" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -60362,6 +60614,9 @@
       <c r="HZ85" t="n">
         <v>84.8</v>
       </c>
+      <c r="IA85" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -61068,6 +61323,9 @@
       <c r="HZ86" t="n">
         <v>9</v>
       </c>
+      <c r="IA86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -61774,6 +62032,9 @@
       <c r="HZ87" t="n">
         <v>3</v>
       </c>
+      <c r="IA87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -62480,6 +62741,9 @@
       <c r="HZ88" t="n">
         <v>5</v>
       </c>
+      <c r="IA88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -63186,6 +63450,9 @@
       <c r="HZ89" t="n">
         <v>5</v>
       </c>
+      <c r="IA89" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -63892,6 +64159,9 @@
       <c r="HZ90" t="n">
         <v>129</v>
       </c>
+      <c r="IA90" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -64598,6 +64868,9 @@
       <c r="HZ91" t="n">
         <v>253</v>
       </c>
+      <c r="IA91" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -65304,6 +65577,9 @@
       <c r="HZ92" t="n">
         <v>293</v>
       </c>
+      <c r="IA92" t="n">
+        <v>264</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -66010,6 +66286,9 @@
       <c r="HZ93" t="n">
         <v>75.7</v>
       </c>
+      <c r="IA93" t="n">
+        <v>69.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -66716,6 +66995,9 @@
       <c r="HZ94" t="n">
         <v>50</v>
       </c>
+      <c r="IA94" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -67422,6 +67704,9 @@
       <c r="HZ95" t="n">
         <v>7</v>
       </c>
+      <c r="IA95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -68128,6 +68413,9 @@
       <c r="HZ96" t="n">
         <v>15</v>
       </c>
+      <c r="IA96" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -68834,6 +69122,9 @@
       <c r="HZ97" t="n">
         <v>31</v>
       </c>
+      <c r="IA97" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -69540,6 +69831,9 @@
       <c r="HZ98" t="n">
         <v>36</v>
       </c>
+      <c r="IA98" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -70246,6 +70540,9 @@
       <c r="HZ99" t="n">
         <v>36</v>
       </c>
+      <c r="IA99" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -70952,6 +71249,9 @@
       <c r="HZ100" t="n">
         <v>3</v>
       </c>
+      <c r="IA100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -71658,6 +71958,9 @@
       <c r="HZ101" t="n">
         <v>12</v>
       </c>
+      <c r="IA101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -72364,6 +72667,9 @@
       <c r="HZ102" t="n">
         <v>70.59999999999999</v>
       </c>
+      <c r="IA102" t="n">
+        <v>54.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Richmond_stats.xlsx
+++ b/django_AFL_ML/Data/Richmond_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IA102"/>
+  <dimension ref="A1:IB102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1061,6 +1061,9 @@
       <c r="IA1" t="n">
         <v>10355</v>
       </c>
+      <c r="IB1" t="n">
+        <v>10363</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1770,6 +1773,9 @@
       <c r="IA2" t="n">
         <v>2021</v>
       </c>
+      <c r="IB2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2479,6 +2485,9 @@
       <c r="IA3" t="n">
         <v>4</v>
       </c>
+      <c r="IB3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3188,6 +3197,9 @@
       <c r="IA4" t="n">
         <v>1</v>
       </c>
+      <c r="IB4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3897,6 +3909,9 @@
       <c r="IA5" t="n">
         <v>0</v>
       </c>
+      <c r="IB5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4606,6 +4621,9 @@
       <c r="IA6" t="n">
         <v>77</v>
       </c>
+      <c r="IB6" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5315,6 +5333,9 @@
       <c r="IA7" t="n">
         <v>79</v>
       </c>
+      <c r="IB7" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6024,6 +6045,9 @@
       <c r="IA8" t="n">
         <v>-2</v>
       </c>
+      <c r="IB8" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6733,6 +6757,9 @@
       <c r="IA9" t="n">
         <v>0</v>
       </c>
+      <c r="IB9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7442,6 +7469,9 @@
       <c r="IA10" t="n">
         <v>13</v>
       </c>
+      <c r="IB10" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8151,6 +8181,9 @@
       <c r="IA11" t="n">
         <v>201</v>
       </c>
+      <c r="IB11" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8860,6 +8893,9 @@
       <c r="IA12" t="n">
         <v>165</v>
       </c>
+      <c r="IB12" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9569,6 +9605,9 @@
       <c r="IA13" t="n">
         <v>366</v>
       </c>
+      <c r="IB13" t="n">
+        <v>389</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10278,6 +10317,9 @@
       <c r="IA14" t="n">
         <v>1.22</v>
       </c>
+      <c r="IB14" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10987,6 +11029,9 @@
       <c r="IA15" t="n">
         <v>73</v>
       </c>
+      <c r="IB15" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11696,6 +11741,9 @@
       <c r="IA16" t="n">
         <v>52</v>
       </c>
+      <c r="IB16" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12405,6 +12453,9 @@
       <c r="IA17" t="n">
         <v>27</v>
       </c>
+      <c r="IB17" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13114,6 +13165,9 @@
       <c r="IA18" t="n">
         <v>12</v>
       </c>
+      <c r="IB18" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13823,6 +13877,9 @@
       <c r="IA19" t="n">
         <v>21</v>
       </c>
+      <c r="IB19" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14532,6 +14589,9 @@
       <c r="IA20" t="n">
         <v>11</v>
       </c>
+      <c r="IB20" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15241,6 +15301,9 @@
       <c r="IA21" t="n">
         <v>8</v>
       </c>
+      <c r="IB21" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15950,6 +16013,9 @@
       <c r="IA22" t="n">
         <v>6</v>
       </c>
+      <c r="IB22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16659,6 +16725,9 @@
       <c r="IA23" t="n">
         <v>5</v>
       </c>
+      <c r="IB23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17368,6 +17437,9 @@
       <c r="IA24" t="n">
         <v>22</v>
       </c>
+      <c r="IB24" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18077,6 +18149,9 @@
       <c r="IA25" t="n">
         <v>50</v>
       </c>
+      <c r="IB25" t="n">
+        <v>58.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18786,6 +18861,9 @@
       <c r="IA26" t="n">
         <v>33.27</v>
       </c>
+      <c r="IB26" t="n">
+        <v>19.45</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19495,6 +19573,9 @@
       <c r="IA27" t="n">
         <v>16.64</v>
       </c>
+      <c r="IB27" t="n">
+        <v>11.44</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20204,6 +20285,9 @@
       <c r="IA28" t="n">
         <v>24</v>
       </c>
+      <c r="IB28" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20913,6 +20997,9 @@
       <c r="IA29" t="n">
         <v>65</v>
       </c>
+      <c r="IB29" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21622,6 +21709,9 @@
       <c r="IA30" t="n">
         <v>47</v>
       </c>
+      <c r="IB30" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22331,6 +22421,9 @@
       <c r="IA31" t="n">
         <v>49</v>
       </c>
+      <c r="IB31" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23040,6 +23133,9 @@
       <c r="IA32" t="n">
         <v>2.23</v>
       </c>
+      <c r="IB32" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23749,6 +23845,9 @@
       <c r="IA33" t="n">
         <v>4.45</v>
       </c>
+      <c r="IB33" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24458,6 +24557,9 @@
       <c r="IA34" t="n">
         <v>34.7</v>
       </c>
+      <c r="IB34" t="n">
+        <v>46.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25167,6 +25269,9 @@
       <c r="IA35" t="n">
         <v>22.4</v>
       </c>
+      <c r="IB35" t="n">
+        <v>31.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25876,6 +25981,9 @@
       <c r="IA36" t="n">
         <v>185.3</v>
       </c>
+      <c r="IB36" t="n">
+        <v>185.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26585,6 +26693,9 @@
       <c r="IA37" t="n">
         <v>84.7</v>
       </c>
+      <c r="IB37" t="n">
+        <v>85.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27294,6 +27405,9 @@
       <c r="IA38" t="n">
         <v>26.74</v>
       </c>
+      <c r="IB38" t="n">
+        <v>27.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28003,6 +28117,9 @@
       <c r="IA39" t="n">
         <v>113.7</v>
       </c>
+      <c r="IB39" t="n">
+        <v>123.4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28712,6 +28829,9 @@
       <c r="IA40" t="n">
         <v>7</v>
       </c>
+      <c r="IB40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29421,6 +29541,9 @@
       <c r="IA41" t="n">
         <v>5</v>
       </c>
+      <c r="IB41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30130,6 +30253,9 @@
       <c r="IA42" t="n">
         <v>3</v>
       </c>
+      <c r="IB42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30839,6 +30965,9 @@
       <c r="IA43" t="n">
         <v>7</v>
       </c>
+      <c r="IB43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31548,6 +31677,9 @@
       <c r="IA44" t="n">
         <v>119</v>
       </c>
+      <c r="IB44" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32257,6 +32389,9 @@
       <c r="IA45" t="n">
         <v>229</v>
       </c>
+      <c r="IB45" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32966,6 +33101,9 @@
       <c r="IA46" t="n">
         <v>277</v>
       </c>
+      <c r="IB46" t="n">
+        <v>275</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33675,6 +33813,9 @@
       <c r="IA47" t="n">
         <v>75.7</v>
       </c>
+      <c r="IB47" t="n">
+        <v>70.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34384,6 +34525,9 @@
       <c r="IA48" t="n">
         <v>65</v>
       </c>
+      <c r="IB48" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35093,6 +35237,9 @@
       <c r="IA49" t="n">
         <v>6</v>
       </c>
+      <c r="IB49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35802,6 +35949,9 @@
       <c r="IA50" t="n">
         <v>6</v>
       </c>
+      <c r="IB50" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36511,6 +36661,9 @@
       <c r="IA51" t="n">
         <v>24</v>
       </c>
+      <c r="IB51" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37220,6 +37373,9 @@
       <c r="IA52" t="n">
         <v>47</v>
       </c>
+      <c r="IB52" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37929,6 +38085,9 @@
       <c r="IA53" t="n">
         <v>40</v>
       </c>
+      <c r="IB53" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38638,6 +38797,9 @@
       <c r="IA54" t="n">
         <v>9</v>
       </c>
+      <c r="IB54" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39347,6 +39509,9 @@
       <c r="IA55" t="n">
         <v>8</v>
       </c>
+      <c r="IB55" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40056,6 +40221,9 @@
       <c r="IA56" t="n">
         <v>72.7</v>
       </c>
+      <c r="IB56" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40765,6 +40933,9 @@
       <c r="IA57" t="n">
         <v>232</v>
       </c>
+      <c r="IB57" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41474,6 +41645,9 @@
       <c r="IA58" t="n">
         <v>149</v>
       </c>
+      <c r="IB58" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42183,6 +42357,9 @@
       <c r="IA59" t="n">
         <v>381</v>
       </c>
+      <c r="IB59" t="n">
+        <v>353</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42892,6 +43069,9 @@
       <c r="IA60" t="n">
         <v>1.56</v>
       </c>
+      <c r="IB60" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43601,6 +43781,9 @@
       <c r="IA61" t="n">
         <v>95</v>
       </c>
+      <c r="IB61" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44310,6 +44493,9 @@
       <c r="IA62" t="n">
         <v>54</v>
       </c>
+      <c r="IB62" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45019,6 +45205,9 @@
       <c r="IA63" t="n">
         <v>25</v>
       </c>
+      <c r="IB63" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45728,6 +45917,9 @@
       <c r="IA64" t="n">
         <v>22</v>
       </c>
+      <c r="IB64" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46437,6 +46629,9 @@
       <c r="IA65" t="n">
         <v>12</v>
       </c>
+      <c r="IB65" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47146,6 +47341,9 @@
       <c r="IA66" t="n">
         <v>11</v>
       </c>
+      <c r="IB66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -47855,6 +48053,9 @@
       <c r="IA67" t="n">
         <v>6</v>
       </c>
+      <c r="IB67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48564,6 +48765,9 @@
       <c r="IA68" t="n">
         <v>10</v>
       </c>
+      <c r="IB68" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49273,6 +49477,9 @@
       <c r="IA69" t="n">
         <v>3</v>
       </c>
+      <c r="IB69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49982,6 +50189,9 @@
       <c r="IA70" t="n">
         <v>24</v>
       </c>
+      <c r="IB70" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50691,6 +50901,9 @@
       <c r="IA71" t="n">
         <v>45.8</v>
       </c>
+      <c r="IB71" t="n">
+        <v>53.8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -51400,6 +51613,9 @@
       <c r="IA72" t="n">
         <v>34.64</v>
       </c>
+      <c r="IB72" t="n">
+        <v>50.43</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52109,6 +52325,9 @@
       <c r="IA73" t="n">
         <v>15.88</v>
       </c>
+      <c r="IB73" t="n">
+        <v>27.15</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -52818,6 +53037,9 @@
       <c r="IA74" t="n">
         <v>36</v>
       </c>
+      <c r="IB74" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53527,6 +53749,9 @@
       <c r="IA75" t="n">
         <v>63</v>
       </c>
+      <c r="IB75" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54236,6 +54461,9 @@
       <c r="IA76" t="n">
         <v>38</v>
       </c>
+      <c r="IB76" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -54945,6 +55173,9 @@
       <c r="IA77" t="n">
         <v>61</v>
       </c>
+      <c r="IB77" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -55654,6 +55885,9 @@
       <c r="IA78" t="n">
         <v>2.54</v>
       </c>
+      <c r="IB78" t="n">
+        <v>2.54</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -56363,6 +56597,9 @@
       <c r="IA79" t="n">
         <v>5.55</v>
       </c>
+      <c r="IB79" t="n">
+        <v>4.71</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57072,6 +57309,9 @@
       <c r="IA80" t="n">
         <v>34.4</v>
       </c>
+      <c r="IB80" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -57781,6 +58021,9 @@
       <c r="IA81" t="n">
         <v>18</v>
       </c>
+      <c r="IB81" t="n">
+        <v>21.2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -58490,6 +58733,9 @@
       <c r="IA82" t="n">
         <v>188</v>
       </c>
+      <c r="IB82" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59199,6 +59445,9 @@
       <c r="IA83" t="n">
         <v>84</v>
       </c>
+      <c r="IB83" t="n">
+        <v>85.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -59908,6 +60157,9 @@
       <c r="IA84" t="n">
         <v>25.8</v>
       </c>
+      <c r="IB84" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -60617,6 +60869,9 @@
       <c r="IA85" t="n">
         <v>103</v>
       </c>
+      <c r="IB85" t="n">
+        <v>78.40000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -61326,6 +61581,9 @@
       <c r="IA86" t="n">
         <v>7</v>
       </c>
+      <c r="IB86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62035,6 +62293,9 @@
       <c r="IA87" t="n">
         <v>5</v>
       </c>
+      <c r="IB87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -62744,6 +63005,9 @@
       <c r="IA88" t="n">
         <v>4</v>
       </c>
+      <c r="IB88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -63453,6 +63717,9 @@
       <c r="IA89" t="n">
         <v>7</v>
       </c>
+      <c r="IB89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64162,6 +64429,9 @@
       <c r="IA90" t="n">
         <v>154</v>
       </c>
+      <c r="IB90" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -64871,6 +65141,9 @@
       <c r="IA91" t="n">
         <v>228</v>
       </c>
+      <c r="IB91" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -65580,6 +65853,9 @@
       <c r="IA92" t="n">
         <v>264</v>
       </c>
+      <c r="IB92" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -66289,6 +66565,9 @@
       <c r="IA93" t="n">
         <v>69.3</v>
       </c>
+      <c r="IB93" t="n">
+        <v>72.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -66998,6 +67277,9 @@
       <c r="IA94" t="n">
         <v>63</v>
       </c>
+      <c r="IB94" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -67707,6 +67989,9 @@
       <c r="IA95" t="n">
         <v>9</v>
       </c>
+      <c r="IB95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -68416,6 +68701,9 @@
       <c r="IA96" t="n">
         <v>16</v>
       </c>
+      <c r="IB96" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69125,6 +69413,9 @@
       <c r="IA97" t="n">
         <v>36</v>
       </c>
+      <c r="IB97" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -69834,6 +70125,9 @@
       <c r="IA98" t="n">
         <v>38</v>
       </c>
+      <c r="IB98" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -70543,6 +70837,9 @@
       <c r="IA99" t="n">
         <v>62</v>
       </c>
+      <c r="IB99" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -71252,6 +71549,9 @@
       <c r="IA100" t="n">
         <v>2</v>
       </c>
+      <c r="IB100" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -71961,6 +72261,9 @@
       <c r="IA101" t="n">
         <v>6</v>
       </c>
+      <c r="IB101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -72670,6 +72973,9 @@
       <c r="IA102" t="n">
         <v>54.5</v>
       </c>
+      <c r="IB102" t="n">
+        <v>85.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Richmond_stats.xlsx
+++ b/django_AFL_ML/Data/Richmond_stats.xlsx
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -345,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IB102"/>
+  <dimension ref="A1:IC102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1064,6 +1132,9 @@
       <c r="IB1" t="n">
         <v>10363</v>
       </c>
+      <c r="IC1" t="n">
+        <v>10376</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1776,6 +1847,9 @@
       <c r="IB2" t="n">
         <v>2021</v>
       </c>
+      <c r="IC2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2488,6 +2562,9 @@
       <c r="IB3" t="n">
         <v>5</v>
       </c>
+      <c r="IC3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3200,6 +3277,9 @@
       <c r="IB4" t="n">
         <v>1</v>
       </c>
+      <c r="IC4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3912,6 +3992,9 @@
       <c r="IB5" t="n">
         <v>1</v>
       </c>
+      <c r="IC5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4624,6 +4707,9 @@
       <c r="IB6" t="n">
         <v>134</v>
       </c>
+      <c r="IC6" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5336,6 +5422,9 @@
       <c r="IB7" t="n">
         <v>48</v>
       </c>
+      <c r="IC7" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6048,6 +6137,9 @@
       <c r="IB8" t="n">
         <v>86</v>
       </c>
+      <c r="IC8" t="n">
+        <v>-34</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6760,6 +6852,9 @@
       <c r="IB9" t="n">
         <v>1</v>
       </c>
+      <c r="IC9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7472,6 +7567,9 @@
       <c r="IB10" t="n">
         <v>15</v>
       </c>
+      <c r="IC10" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8184,6 +8282,9 @@
       <c r="IB11" t="n">
         <v>204</v>
       </c>
+      <c r="IC11" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8896,6 +8997,9 @@
       <c r="IB12" t="n">
         <v>185</v>
       </c>
+      <c r="IC12" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9608,6 +9712,9 @@
       <c r="IB13" t="n">
         <v>389</v>
       </c>
+      <c r="IC13" t="n">
+        <v>354</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10320,6 +10427,9 @@
       <c r="IB14" t="n">
         <v>1.1</v>
       </c>
+      <c r="IC14" t="n">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11032,6 +11142,9 @@
       <c r="IB15" t="n">
         <v>77</v>
       </c>
+      <c r="IC15" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11744,6 +11857,9 @@
       <c r="IB16" t="n">
         <v>66</v>
       </c>
+      <c r="IC16" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12456,6 +12572,9 @@
       <c r="IB17" t="n">
         <v>45</v>
       </c>
+      <c r="IC17" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13168,6 +13287,9 @@
       <c r="IB18" t="n">
         <v>13</v>
       </c>
+      <c r="IC18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13880,6 +14002,9 @@
       <c r="IB19" t="n">
         <v>23</v>
       </c>
+      <c r="IC19" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14592,6 +14717,9 @@
       <c r="IB20" t="n">
         <v>20</v>
       </c>
+      <c r="IC20" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15304,6 +15432,9 @@
       <c r="IB21" t="n">
         <v>14</v>
       </c>
+      <c r="IC21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16016,6 +16147,9 @@
       <c r="IB22" t="n">
         <v>10</v>
       </c>
+      <c r="IC22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16728,6 +16862,9 @@
       <c r="IB23" t="n">
         <v>4</v>
       </c>
+      <c r="IC23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17440,6 +17577,9 @@
       <c r="IB24" t="n">
         <v>34</v>
       </c>
+      <c r="IC24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18152,6 +18292,9 @@
       <c r="IB25" t="n">
         <v>58.8</v>
       </c>
+      <c r="IC25" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18864,6 +19007,9 @@
       <c r="IB26" t="n">
         <v>19.45</v>
       </c>
+      <c r="IC26" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19576,6 +19722,9 @@
       <c r="IB27" t="n">
         <v>11.44</v>
       </c>
+      <c r="IC27" t="n">
+        <v>19.67</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20288,6 +20437,9 @@
       <c r="IB28" t="n">
         <v>44</v>
       </c>
+      <c r="IC28" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21000,6 +21152,9 @@
       <c r="IB29" t="n">
         <v>63</v>
       </c>
+      <c r="IC29" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21712,6 +21867,9 @@
       <c r="IB30" t="n">
         <v>25</v>
       </c>
+      <c r="IC30" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22424,6 +22582,9 @@
       <c r="IB31" t="n">
         <v>64</v>
       </c>
+      <c r="IC31" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23136,6 +23297,9 @@
       <c r="IB32" t="n">
         <v>1.88</v>
       </c>
+      <c r="IC32" t="n">
+        <v>3.33</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23848,6 +24012,9 @@
       <c r="IB33" t="n">
         <v>3.2</v>
       </c>
+      <c r="IC33" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24560,6 +24727,9 @@
       <c r="IB34" t="n">
         <v>46.9</v>
       </c>
+      <c r="IC34" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25272,6 +25442,9 @@
       <c r="IB35" t="n">
         <v>31.2</v>
       </c>
+      <c r="IC35" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25984,6 +26157,9 @@
       <c r="IB36" t="n">
         <v>185.3</v>
       </c>
+      <c r="IC36" t="n">
+        <v>185.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26696,6 +26872,9 @@
       <c r="IB37" t="n">
         <v>85.09999999999999</v>
       </c>
+      <c r="IC37" t="n">
+        <v>85.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27408,6 +27587,9 @@
       <c r="IB38" t="n">
         <v>27.24</v>
       </c>
+      <c r="IC38" t="n">
+        <v>26.91</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28120,6 +28302,9 @@
       <c r="IB39" t="n">
         <v>123.4</v>
       </c>
+      <c r="IC39" t="n">
+        <v>119.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28832,6 +29017,9 @@
       <c r="IB40" t="n">
         <v>5</v>
       </c>
+      <c r="IC40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29544,6 +29732,9 @@
       <c r="IB41" t="n">
         <v>6</v>
       </c>
+      <c r="IC41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30256,6 +30447,9 @@
       <c r="IB42" t="n">
         <v>4</v>
       </c>
+      <c r="IC42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30968,6 +31162,9 @@
       <c r="IB43" t="n">
         <v>7</v>
       </c>
+      <c r="IC43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31680,6 +31877,9 @@
       <c r="IB44" t="n">
         <v>142</v>
       </c>
+      <c r="IC44" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32392,6 +32592,9 @@
       <c r="IB45" t="n">
         <v>235</v>
       </c>
+      <c r="IC45" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33104,6 +33307,9 @@
       <c r="IB46" t="n">
         <v>275</v>
       </c>
+      <c r="IC46" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33816,6 +34022,9 @@
       <c r="IB47" t="n">
         <v>70.7</v>
       </c>
+      <c r="IC47" t="n">
+        <v>62.4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34528,6 +34737,9 @@
       <c r="IB48" t="n">
         <v>63</v>
       </c>
+      <c r="IC48" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35240,6 +35452,9 @@
       <c r="IB49" t="n">
         <v>6</v>
       </c>
+      <c r="IC49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35952,6 +36167,9 @@
       <c r="IB50" t="n">
         <v>17</v>
       </c>
+      <c r="IC50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36664,6 +36882,9 @@
       <c r="IB51" t="n">
         <v>44</v>
       </c>
+      <c r="IC51" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37376,6 +37597,9 @@
       <c r="IB52" t="n">
         <v>25</v>
       </c>
+      <c r="IC52" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38088,6 +38312,9 @@
       <c r="IB53" t="n">
         <v>50</v>
       </c>
+      <c r="IC53" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38800,6 +39027,9 @@
       <c r="IB54" t="n">
         <v>7</v>
       </c>
+      <c r="IC54" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39512,6 +39742,9 @@
       <c r="IB55" t="n">
         <v>14</v>
       </c>
+      <c r="IC55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40224,6 +40457,9 @@
       <c r="IB56" t="n">
         <v>70</v>
       </c>
+      <c r="IC56" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40936,6 +41172,9 @@
       <c r="IB57" t="n">
         <v>203</v>
       </c>
+      <c r="IC57" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41648,6 +41887,9 @@
       <c r="IB58" t="n">
         <v>150</v>
       </c>
+      <c r="IC58" t="n">
+        <v>226</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42360,6 +42602,9 @@
       <c r="IB59" t="n">
         <v>353</v>
       </c>
+      <c r="IC59" t="n">
+        <v>449</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43072,6 +43317,9 @@
       <c r="IB60" t="n">
         <v>1.35</v>
       </c>
+      <c r="IC60" t="n">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43784,6 +44032,9 @@
       <c r="IB61" t="n">
         <v>109</v>
       </c>
+      <c r="IC61" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44496,6 +44747,9 @@
       <c r="IB62" t="n">
         <v>52</v>
       </c>
+      <c r="IC62" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45208,6 +45462,9 @@
       <c r="IB63" t="n">
         <v>27</v>
       </c>
+      <c r="IC63" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45920,6 +46177,9 @@
       <c r="IB64" t="n">
         <v>23</v>
       </c>
+      <c r="IC64" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46632,6 +46892,9 @@
       <c r="IB65" t="n">
         <v>13</v>
       </c>
+      <c r="IC65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47344,6 +47607,9 @@
       <c r="IB66" t="n">
         <v>7</v>
       </c>
+      <c r="IC66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48056,6 +48322,9 @@
       <c r="IB67" t="n">
         <v>6</v>
       </c>
+      <c r="IC67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48768,6 +49037,9 @@
       <c r="IB68" t="n">
         <v>4</v>
       </c>
+      <c r="IC68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49480,6 +49752,9 @@
       <c r="IB69" t="n">
         <v>2</v>
       </c>
+      <c r="IC69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50192,6 +50467,9 @@
       <c r="IB70" t="n">
         <v>13</v>
       </c>
+      <c r="IC70" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50904,6 +51182,9 @@
       <c r="IB71" t="n">
         <v>53.8</v>
       </c>
+      <c r="IC71" t="n">
+        <v>54.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -51616,6 +51897,9 @@
       <c r="IB72" t="n">
         <v>50.43</v>
       </c>
+      <c r="IC72" t="n">
+        <v>37.42</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52328,6 +52612,9 @@
       <c r="IB73" t="n">
         <v>27.15</v>
       </c>
+      <c r="IC73" t="n">
+        <v>20.41</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53040,6 +53327,9 @@
       <c r="IB74" t="n">
         <v>28</v>
       </c>
+      <c r="IC74" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53752,6 +54042,9 @@
       <c r="IB75" t="n">
         <v>60</v>
       </c>
+      <c r="IC75" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54464,6 +54757,9 @@
       <c r="IB76" t="n">
         <v>41</v>
       </c>
+      <c r="IC76" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55176,6 +55472,9 @@
       <c r="IB77" t="n">
         <v>33</v>
       </c>
+      <c r="IC77" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -55888,6 +56187,9 @@
       <c r="IB78" t="n">
         <v>2.54</v>
       </c>
+      <c r="IC78" t="n">
+        <v>2.55</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -56600,6 +56902,9 @@
       <c r="IB79" t="n">
         <v>4.71</v>
       </c>
+      <c r="IC79" t="n">
+        <v>4.67</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57312,6 +57617,9 @@
       <c r="IB80" t="n">
         <v>33.3</v>
       </c>
+      <c r="IC80" t="n">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58024,6 +58332,9 @@
       <c r="IB81" t="n">
         <v>21.2</v>
       </c>
+      <c r="IC81" t="n">
+        <v>21.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -58736,6 +59047,9 @@
       <c r="IB82" t="n">
         <v>188</v>
       </c>
+      <c r="IC82" t="n">
+        <v>186.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59448,6 +59762,9 @@
       <c r="IB83" t="n">
         <v>85.40000000000001</v>
       </c>
+      <c r="IC83" t="n">
+        <v>86.2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60160,6 +60477,9 @@
       <c r="IB84" t="n">
         <v>25.8</v>
       </c>
+      <c r="IC84" t="n">
+        <v>25.58</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -60872,6 +61192,9 @@
       <c r="IB85" t="n">
         <v>78.40000000000001</v>
       </c>
+      <c r="IC85" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -61584,6 +61907,9 @@
       <c r="IB86" t="n">
         <v>8</v>
       </c>
+      <c r="IC86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62296,6 +62622,9 @@
       <c r="IB87" t="n">
         <v>7</v>
       </c>
+      <c r="IC87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63008,6 +63337,9 @@
       <c r="IB88" t="n">
         <v>6</v>
       </c>
+      <c r="IC88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -63720,6 +64052,9 @@
       <c r="IB89" t="n">
         <v>2</v>
       </c>
+      <c r="IC89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64432,6 +64767,9 @@
       <c r="IB90" t="n">
         <v>123</v>
       </c>
+      <c r="IC90" t="n">
+        <v>164</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65144,6 +65482,9 @@
       <c r="IB91" t="n">
         <v>227</v>
       </c>
+      <c r="IC91" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -65856,6 +66197,9 @@
       <c r="IB92" t="n">
         <v>255</v>
       </c>
+      <c r="IC92" t="n">
+        <v>314</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -66568,6 +66912,9 @@
       <c r="IB93" t="n">
         <v>72.2</v>
       </c>
+      <c r="IC93" t="n">
+        <v>69.90000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -67280,6 +67627,9 @@
       <c r="IB94" t="n">
         <v>60</v>
       </c>
+      <c r="IC94" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -67992,6 +68342,9 @@
       <c r="IB95" t="n">
         <v>9</v>
       </c>
+      <c r="IC95" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -68704,6 +69057,9 @@
       <c r="IB96" t="n">
         <v>5</v>
       </c>
+      <c r="IC96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69416,6 +69772,9 @@
       <c r="IB97" t="n">
         <v>28</v>
       </c>
+      <c r="IC97" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -70128,6 +70487,9 @@
       <c r="IB98" t="n">
         <v>41</v>
       </c>
+      <c r="IC98" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -70840,6 +71202,9 @@
       <c r="IB99" t="n">
         <v>42</v>
       </c>
+      <c r="IC99" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -71552,6 +71917,9 @@
       <c r="IB100" t="n">
         <v>6</v>
       </c>
+      <c r="IC100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -72264,6 +72632,9 @@
       <c r="IB101" t="n">
         <v>6</v>
       </c>
+      <c r="IC101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -72976,6 +73347,9 @@
       <c r="IB102" t="n">
         <v>85.7</v>
       </c>
+      <c r="IC102" t="n">
+        <v>58.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Richmond_stats.xlsx
+++ b/django_AFL_ML/Data/Richmond_stats.xlsx
@@ -53,74 +53,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -413,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IC102"/>
+  <dimension ref="A1:ID102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1135,6 +1067,9 @@
       <c r="IC1" t="n">
         <v>10376</v>
       </c>
+      <c r="ID1" t="n">
+        <v>10385</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1850,6 +1785,9 @@
       <c r="IC2" t="n">
         <v>2021</v>
       </c>
+      <c r="ID2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2565,6 +2503,9 @@
       <c r="IC3" t="n">
         <v>6</v>
       </c>
+      <c r="ID3" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3280,6 +3221,9 @@
       <c r="IC4" t="n">
         <v>1</v>
       </c>
+      <c r="ID4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3995,6 +3939,9 @@
       <c r="IC5" t="n">
         <v>0</v>
       </c>
+      <c r="ID5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4710,6 +4657,9 @@
       <c r="IC6" t="n">
         <v>48</v>
       </c>
+      <c r="ID6" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5425,6 +5375,9 @@
       <c r="IC7" t="n">
         <v>82</v>
       </c>
+      <c r="ID7" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6140,6 +6093,9 @@
       <c r="IC8" t="n">
         <v>-34</v>
       </c>
+      <c r="ID8" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6855,6 +6811,9 @@
       <c r="IC9" t="n">
         <v>0</v>
       </c>
+      <c r="ID9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7570,6 +7529,9 @@
       <c r="IC10" t="n">
         <v>11</v>
       </c>
+      <c r="ID10" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8285,6 +8247,9 @@
       <c r="IC11" t="n">
         <v>196</v>
       </c>
+      <c r="ID11" t="n">
+        <v>236</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9000,6 +8965,9 @@
       <c r="IC12" t="n">
         <v>158</v>
       </c>
+      <c r="ID12" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9715,6 +9683,9 @@
       <c r="IC13" t="n">
         <v>354</v>
       </c>
+      <c r="ID13" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10430,6 +10401,9 @@
       <c r="IC14" t="n">
         <v>1.24</v>
       </c>
+      <c r="ID14" t="n">
+        <v>1.87</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11145,6 +11119,9 @@
       <c r="IC15" t="n">
         <v>55</v>
       </c>
+      <c r="ID15" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11860,6 +11837,9 @@
       <c r="IC16" t="n">
         <v>80</v>
       </c>
+      <c r="ID16" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12575,6 +12555,9 @@
       <c r="IC17" t="n">
         <v>20</v>
       </c>
+      <c r="ID17" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13290,6 +13273,9 @@
       <c r="IC18" t="n">
         <v>17</v>
       </c>
+      <c r="ID18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14005,6 +13991,9 @@
       <c r="IC19" t="n">
         <v>24</v>
       </c>
+      <c r="ID19" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14720,6 +14709,9 @@
       <c r="IC20" t="n">
         <v>6</v>
       </c>
+      <c r="ID20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15435,6 +15427,9 @@
       <c r="IC21" t="n">
         <v>4</v>
       </c>
+      <c r="ID21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16150,6 +16145,9 @@
       <c r="IC22" t="n">
         <v>9</v>
       </c>
+      <c r="ID22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16865,6 +16863,9 @@
       <c r="IC23" t="n">
         <v>3</v>
       </c>
+      <c r="ID23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17580,6 +17581,9 @@
       <c r="IC24" t="n">
         <v>18</v>
       </c>
+      <c r="ID24" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18295,6 +18299,9 @@
       <c r="IC25" t="n">
         <v>33.3</v>
       </c>
+      <c r="ID25" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19010,6 +19017,9 @@
       <c r="IC26" t="n">
         <v>59</v>
       </c>
+      <c r="ID26" t="n">
+        <v>32.91</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19725,6 +19735,9 @@
       <c r="IC27" t="n">
         <v>19.67</v>
       </c>
+      <c r="ID27" t="n">
+        <v>16.45</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20440,6 +20453,9 @@
       <c r="IC28" t="n">
         <v>33</v>
       </c>
+      <c r="ID28" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21155,6 +21171,9 @@
       <c r="IC29" t="n">
         <v>64</v>
       </c>
+      <c r="ID29" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21870,6 +21889,9 @@
       <c r="IC30" t="n">
         <v>42</v>
       </c>
+      <c r="ID30" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22585,6 +22607,9 @@
       <c r="IC31" t="n">
         <v>60</v>
       </c>
+      <c r="ID31" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23300,6 +23325,9 @@
       <c r="IC32" t="n">
         <v>3.33</v>
       </c>
+      <c r="ID32" t="n">
+        <v>2.59</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24015,6 +24043,9 @@
       <c r="IC33" t="n">
         <v>10</v>
       </c>
+      <c r="ID33" t="n">
+        <v>5.18</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24730,6 +24761,9 @@
       <c r="IC34" t="n">
         <v>25</v>
       </c>
+      <c r="ID34" t="n">
+        <v>36.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25445,6 +25479,9 @@
       <c r="IC35" t="n">
         <v>10</v>
       </c>
+      <c r="ID35" t="n">
+        <v>19.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26160,6 +26197,9 @@
       <c r="IC36" t="n">
         <v>185.3</v>
       </c>
+      <c r="ID36" t="n">
+        <v>185.6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26875,6 +26915,9 @@
       <c r="IC37" t="n">
         <v>85.09999999999999</v>
       </c>
+      <c r="ID37" t="n">
+        <v>84.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27590,6 +27633,9 @@
       <c r="IC38" t="n">
         <v>26.91</v>
       </c>
+      <c r="ID38" t="n">
+        <v>26.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28305,6 +28351,9 @@
       <c r="IC39" t="n">
         <v>119.7</v>
       </c>
+      <c r="ID39" t="n">
+        <v>104.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29020,6 +29069,9 @@
       <c r="IC40" t="n">
         <v>6</v>
       </c>
+      <c r="ID40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29735,6 +29787,9 @@
       <c r="IC41" t="n">
         <v>5</v>
       </c>
+      <c r="ID41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30450,6 +30505,9 @@
       <c r="IC42" t="n">
         <v>5</v>
       </c>
+      <c r="ID42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31165,6 +31223,9 @@
       <c r="IC43" t="n">
         <v>7</v>
       </c>
+      <c r="ID43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31880,6 +31941,9 @@
       <c r="IC44" t="n">
         <v>155</v>
       </c>
+      <c r="ID44" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32595,6 +32659,9 @@
       <c r="IC45" t="n">
         <v>188</v>
       </c>
+      <c r="ID45" t="n">
+        <v>219</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33310,6 +33377,9 @@
       <c r="IC46" t="n">
         <v>221</v>
       </c>
+      <c r="ID46" t="n">
+        <v>269</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34025,6 +34095,9 @@
       <c r="IC47" t="n">
         <v>62.4</v>
       </c>
+      <c r="ID47" t="n">
+        <v>74.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34740,6 +34813,9 @@
       <c r="IC48" t="n">
         <v>64</v>
       </c>
+      <c r="ID48" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35455,6 +35531,9 @@
       <c r="IC49" t="n">
         <v>7</v>
       </c>
+      <c r="ID49" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36170,6 +36249,9 @@
       <c r="IC50" t="n">
         <v>11</v>
       </c>
+      <c r="ID50" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36885,6 +36967,9 @@
       <c r="IC51" t="n">
         <v>33</v>
       </c>
+      <c r="ID51" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37600,6 +37685,9 @@
       <c r="IC52" t="n">
         <v>42</v>
       </c>
+      <c r="ID52" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38315,6 +38403,9 @@
       <c r="IC53" t="n">
         <v>51</v>
       </c>
+      <c r="ID53" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39030,6 +39121,9 @@
       <c r="IC54" t="n">
         <v>10</v>
       </c>
+      <c r="ID54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39745,6 +39839,9 @@
       <c r="IC55" t="n">
         <v>4</v>
       </c>
+      <c r="ID55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40460,6 +40557,9 @@
       <c r="IC56" t="n">
         <v>66.7</v>
       </c>
+      <c r="ID56" t="n">
+        <v>81.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41175,6 +41275,9 @@
       <c r="IC57" t="n">
         <v>223</v>
       </c>
+      <c r="ID57" t="n">
+        <v>206</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41890,6 +41993,9 @@
       <c r="IC58" t="n">
         <v>226</v>
       </c>
+      <c r="ID58" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42605,6 +42711,9 @@
       <c r="IC59" t="n">
         <v>449</v>
       </c>
+      <c r="ID59" t="n">
+        <v>366</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43320,6 +43429,9 @@
       <c r="IC60" t="n">
         <v>0.99</v>
       </c>
+      <c r="ID60" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44035,6 +44147,9 @@
       <c r="IC61" t="n">
         <v>80</v>
       </c>
+      <c r="ID61" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44750,6 +44865,9 @@
       <c r="IC62" t="n">
         <v>71</v>
       </c>
+      <c r="ID62" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45465,6 +45583,9 @@
       <c r="IC63" t="n">
         <v>42</v>
       </c>
+      <c r="ID63" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46180,6 +46301,9 @@
       <c r="IC64" t="n">
         <v>24</v>
       </c>
+      <c r="ID64" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46895,6 +47019,9 @@
       <c r="IC65" t="n">
         <v>17</v>
       </c>
+      <c r="ID65" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47610,6 +47737,9 @@
       <c r="IC66" t="n">
         <v>12</v>
       </c>
+      <c r="ID66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48325,6 +48455,9 @@
       <c r="IC67" t="n">
         <v>7</v>
       </c>
+      <c r="ID67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49040,6 +49173,9 @@
       <c r="IC68" t="n">
         <v>9</v>
       </c>
+      <c r="ID68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49755,6 +49891,9 @@
       <c r="IC69" t="n">
         <v>1</v>
       </c>
+      <c r="ID69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50470,6 +50609,9 @@
       <c r="IC70" t="n">
         <v>22</v>
       </c>
+      <c r="ID70" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51185,6 +51327,9 @@
       <c r="IC71" t="n">
         <v>54.5</v>
       </c>
+      <c r="ID71" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -51900,6 +52045,9 @@
       <c r="IC72" t="n">
         <v>37.42</v>
       </c>
+      <c r="ID72" t="n">
+        <v>52.29</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52615,6 +52763,9 @@
       <c r="IC73" t="n">
         <v>20.41</v>
       </c>
+      <c r="ID73" t="n">
+        <v>18.3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53330,6 +53481,9 @@
       <c r="IC74" t="n">
         <v>36</v>
       </c>
+      <c r="ID74" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54045,6 +54199,9 @@
       <c r="IC75" t="n">
         <v>72</v>
       </c>
+      <c r="ID75" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54760,6 +54917,9 @@
       <c r="IC76" t="n">
         <v>53</v>
       </c>
+      <c r="ID76" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55475,6 +55635,9 @@
       <c r="IC77" t="n">
         <v>56</v>
       </c>
+      <c r="ID77" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56190,6 +56353,9 @@
       <c r="IC78" t="n">
         <v>2.55</v>
       </c>
+      <c r="ID78" t="n">
+        <v>2.15</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -56905,6 +57071,9 @@
       <c r="IC79" t="n">
         <v>4.67</v>
       </c>
+      <c r="ID79" t="n">
+        <v>6.14</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57620,6 +57789,9 @@
       <c r="IC80" t="n">
         <v>37.5</v>
       </c>
+      <c r="ID80" t="n">
+        <v>37.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58335,6 +58507,9 @@
       <c r="IC81" t="n">
         <v>21.4</v>
       </c>
+      <c r="ID81" t="n">
+        <v>16.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59050,6 +59225,9 @@
       <c r="IC82" t="n">
         <v>186.9</v>
       </c>
+      <c r="ID82" t="n">
+        <v>187.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59765,6 +59943,9 @@
       <c r="IC83" t="n">
         <v>86.2</v>
       </c>
+      <c r="ID83" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60480,6 +60661,9 @@
       <c r="IC84" t="n">
         <v>25.58</v>
       </c>
+      <c r="ID84" t="n">
+        <v>26.49</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61195,6 +61379,9 @@
       <c r="IC85" t="n">
         <v>107</v>
       </c>
+      <c r="ID85" t="n">
+        <v>105.9</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -61910,6 +62097,9 @@
       <c r="IC86" t="n">
         <v>5</v>
       </c>
+      <c r="ID86" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62625,6 +62815,9 @@
       <c r="IC87" t="n">
         <v>5</v>
       </c>
+      <c r="ID87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63340,6 +63533,9 @@
       <c r="IC88" t="n">
         <v>6</v>
       </c>
+      <c r="ID88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -64055,6 +64251,9 @@
       <c r="IC89" t="n">
         <v>6</v>
       </c>
+      <c r="ID89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64770,6 +64969,9 @@
       <c r="IC90" t="n">
         <v>164</v>
       </c>
+      <c r="ID90" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65485,6 +65687,9 @@
       <c r="IC91" t="n">
         <v>267</v>
       </c>
+      <c r="ID91" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66200,6 +66405,9 @@
       <c r="IC92" t="n">
         <v>314</v>
       </c>
+      <c r="ID92" t="n">
+        <v>284</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -66915,6 +67123,9 @@
       <c r="IC93" t="n">
         <v>69.90000000000001</v>
       </c>
+      <c r="ID93" t="n">
+        <v>77.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -67630,6 +67841,9 @@
       <c r="IC94" t="n">
         <v>72</v>
       </c>
+      <c r="ID94" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -68345,6 +68559,9 @@
       <c r="IC95" t="n">
         <v>14</v>
       </c>
+      <c r="ID95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -69060,6 +69277,9 @@
       <c r="IC96" t="n">
         <v>8</v>
       </c>
+      <c r="ID96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69775,6 +69995,9 @@
       <c r="IC97" t="n">
         <v>36</v>
       </c>
+      <c r="ID97" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -70490,6 +70713,9 @@
       <c r="IC98" t="n">
         <v>53</v>
       </c>
+      <c r="ID98" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -71205,6 +71431,9 @@
       <c r="IC99" t="n">
         <v>50</v>
       </c>
+      <c r="ID99" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -71920,6 +72149,9 @@
       <c r="IC100" t="n">
         <v>1</v>
       </c>
+      <c r="ID100" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -72635,6 +72867,9 @@
       <c r="IC101" t="n">
         <v>7</v>
       </c>
+      <c r="ID101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -73350,6 +73585,9 @@
       <c r="IC102" t="n">
         <v>58.3</v>
       </c>
+      <c r="ID102" t="n">
+        <v>57.1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Richmond_stats.xlsx
+++ b/django_AFL_ML/Data/Richmond_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ID102"/>
+  <dimension ref="A1:IE102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1070,6 +1070,9 @@
       <c r="ID1" t="n">
         <v>10385</v>
       </c>
+      <c r="IE1" t="n">
+        <v>10395</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1788,6 +1791,9 @@
       <c r="ID2" t="n">
         <v>2021</v>
       </c>
+      <c r="IE2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2506,6 +2512,9 @@
       <c r="ID3" t="n">
         <v>7</v>
       </c>
+      <c r="IE3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3224,6 +3233,9 @@
       <c r="ID4" t="n">
         <v>0</v>
       </c>
+      <c r="IE4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3942,6 +3954,9 @@
       <c r="ID5" t="n">
         <v>0</v>
       </c>
+      <c r="IE5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4660,6 +4675,9 @@
       <c r="ID6" t="n">
         <v>77</v>
       </c>
+      <c r="IE6" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5378,6 +5396,9 @@
       <c r="ID7" t="n">
         <v>55</v>
       </c>
+      <c r="IE7" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6096,6 +6117,9 @@
       <c r="ID8" t="n">
         <v>22</v>
       </c>
+      <c r="IE8" t="n">
+        <v>-63</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6814,6 +6838,9 @@
       <c r="ID9" t="n">
         <v>1</v>
       </c>
+      <c r="IE9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7532,6 +7559,9 @@
       <c r="ID10" t="n">
         <v>18</v>
       </c>
+      <c r="IE10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8250,6 +8280,9 @@
       <c r="ID11" t="n">
         <v>236</v>
       </c>
+      <c r="IE11" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8968,6 +9001,9 @@
       <c r="ID12" t="n">
         <v>126</v>
       </c>
+      <c r="IE12" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9686,6 +9722,9 @@
       <c r="ID13" t="n">
         <v>362</v>
       </c>
+      <c r="IE13" t="n">
+        <v>308</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10404,6 +10443,9 @@
       <c r="ID14" t="n">
         <v>1.87</v>
       </c>
+      <c r="IE14" t="n">
+        <v>1.08</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11122,6 +11164,9 @@
       <c r="ID15" t="n">
         <v>130</v>
       </c>
+      <c r="IE15" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11840,6 +11885,9 @@
       <c r="ID16" t="n">
         <v>51</v>
       </c>
+      <c r="IE16" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12558,6 +12606,9 @@
       <c r="ID17" t="n">
         <v>23</v>
       </c>
+      <c r="IE17" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13276,6 +13327,9 @@
       <c r="ID18" t="n">
         <v>21</v>
       </c>
+      <c r="IE18" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13994,6 +14048,9 @@
       <c r="ID19" t="n">
         <v>17</v>
       </c>
+      <c r="IE19" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14712,6 +14769,9 @@
       <c r="ID20" t="n">
         <v>11</v>
       </c>
+      <c r="IE20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15430,6 +15490,9 @@
       <c r="ID21" t="n">
         <v>9</v>
       </c>
+      <c r="IE21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16148,6 +16211,9 @@
       <c r="ID22" t="n">
         <v>10</v>
       </c>
+      <c r="IE22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16866,6 +16932,9 @@
       <c r="ID23" t="n">
         <v>1</v>
       </c>
+      <c r="IE23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17584,6 +17653,9 @@
       <c r="ID24" t="n">
         <v>22</v>
       </c>
+      <c r="IE24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18302,6 +18374,9 @@
       <c r="ID25" t="n">
         <v>50</v>
       </c>
+      <c r="IE25" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19020,6 +19095,9 @@
       <c r="ID26" t="n">
         <v>32.91</v>
       </c>
+      <c r="IE26" t="n">
+        <v>34.22</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19738,6 +19816,9 @@
       <c r="ID27" t="n">
         <v>16.45</v>
       </c>
+      <c r="IE27" t="n">
+        <v>17.11</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20456,6 +20537,9 @@
       <c r="ID28" t="n">
         <v>31</v>
       </c>
+      <c r="IE28" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21174,6 +21258,9 @@
       <c r="ID29" t="n">
         <v>44</v>
       </c>
+      <c r="IE29" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21892,6 +21979,9 @@
       <c r="ID30" t="n">
         <v>34</v>
       </c>
+      <c r="IE30" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22610,6 +22700,9 @@
       <c r="ID31" t="n">
         <v>57</v>
       </c>
+      <c r="IE31" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23328,6 +23421,9 @@
       <c r="ID32" t="n">
         <v>2.59</v>
       </c>
+      <c r="IE32" t="n">
+        <v>2.39</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24046,6 +24142,9 @@
       <c r="ID33" t="n">
         <v>5.18</v>
       </c>
+      <c r="IE33" t="n">
+        <v>4.78</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24764,6 +24863,9 @@
       <c r="ID34" t="n">
         <v>36.8</v>
       </c>
+      <c r="IE34" t="n">
+        <v>34.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25482,6 +25584,9 @@
       <c r="ID35" t="n">
         <v>19.3</v>
       </c>
+      <c r="IE35" t="n">
+        <v>20.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26200,6 +26305,9 @@
       <c r="ID36" t="n">
         <v>185.6</v>
       </c>
+      <c r="IE36" t="n">
+        <v>185.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26918,6 +27026,9 @@
       <c r="ID37" t="n">
         <v>84.8</v>
       </c>
+      <c r="IE37" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27636,6 +27747,9 @@
       <c r="ID38" t="n">
         <v>26.24</v>
       </c>
+      <c r="IE38" t="n">
+        <v>26.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28354,6 +28468,9 @@
       <c r="ID39" t="n">
         <v>104.7</v>
       </c>
+      <c r="IE39" t="n">
+        <v>104.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29072,6 +29189,9 @@
       <c r="ID40" t="n">
         <v>8</v>
       </c>
+      <c r="IE40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29790,6 +29910,9 @@
       <c r="ID41" t="n">
         <v>5</v>
       </c>
+      <c r="IE41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30508,6 +30631,9 @@
       <c r="ID42" t="n">
         <v>4</v>
       </c>
+      <c r="IE42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31226,6 +31352,9 @@
       <c r="ID43" t="n">
         <v>6</v>
       </c>
+      <c r="IE43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31944,6 +32073,9 @@
       <c r="ID44" t="n">
         <v>135</v>
       </c>
+      <c r="IE44" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32662,6 +32794,9 @@
       <c r="ID45" t="n">
         <v>219</v>
       </c>
+      <c r="IE45" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33380,6 +33515,9 @@
       <c r="ID46" t="n">
         <v>269</v>
       </c>
+      <c r="IE46" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34098,6 +34236,9 @@
       <c r="ID47" t="n">
         <v>74.3</v>
       </c>
+      <c r="IE47" t="n">
+        <v>71.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34816,6 +34957,9 @@
       <c r="ID48" t="n">
         <v>44</v>
       </c>
+      <c r="IE48" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35534,6 +35678,9 @@
       <c r="ID49" t="n">
         <v>16</v>
       </c>
+      <c r="IE49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36252,6 +36399,9 @@
       <c r="ID50" t="n">
         <v>16</v>
       </c>
+      <c r="IE50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36970,6 +37120,9 @@
       <c r="ID51" t="n">
         <v>31</v>
       </c>
+      <c r="IE51" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37688,6 +37841,9 @@
       <c r="ID52" t="n">
         <v>34</v>
       </c>
+      <c r="IE52" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38406,6 +38562,9 @@
       <c r="ID53" t="n">
         <v>44</v>
       </c>
+      <c r="IE53" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39124,6 +39283,9 @@
       <c r="ID54" t="n">
         <v>4</v>
       </c>
+      <c r="IE54" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39842,6 +40004,9 @@
       <c r="ID55" t="n">
         <v>9</v>
       </c>
+      <c r="IE55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40560,6 +40725,9 @@
       <c r="ID56" t="n">
         <v>81.8</v>
       </c>
+      <c r="IE56" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41278,6 +41446,9 @@
       <c r="ID57" t="n">
         <v>206</v>
       </c>
+      <c r="IE57" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41996,6 +42167,9 @@
       <c r="ID58" t="n">
         <v>160</v>
       </c>
+      <c r="IE58" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42714,6 +42888,9 @@
       <c r="ID59" t="n">
         <v>366</v>
       </c>
+      <c r="IE59" t="n">
+        <v>439</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43432,6 +43609,9 @@
       <c r="ID60" t="n">
         <v>1.29</v>
       </c>
+      <c r="IE60" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44150,6 +44330,9 @@
       <c r="ID61" t="n">
         <v>98</v>
       </c>
+      <c r="IE61" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44868,6 +45051,9 @@
       <c r="ID62" t="n">
         <v>52</v>
       </c>
+      <c r="IE62" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45586,6 +45772,9 @@
       <c r="ID63" t="n">
         <v>30</v>
       </c>
+      <c r="IE63" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46304,6 +46493,9 @@
       <c r="ID64" t="n">
         <v>17</v>
       </c>
+      <c r="IE64" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47022,6 +47214,9 @@
       <c r="ID65" t="n">
         <v>21</v>
       </c>
+      <c r="IE65" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47740,6 +47935,9 @@
       <c r="ID66" t="n">
         <v>7</v>
       </c>
+      <c r="IE66" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48458,6 +48656,9 @@
       <c r="ID67" t="n">
         <v>4</v>
       </c>
+      <c r="IE67" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49176,6 +49377,9 @@
       <c r="ID68" t="n">
         <v>9</v>
       </c>
+      <c r="IE68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49894,6 +50098,9 @@
       <c r="ID69" t="n">
         <v>4</v>
       </c>
+      <c r="IE69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50612,6 +50819,9 @@
       <c r="ID70" t="n">
         <v>20</v>
       </c>
+      <c r="IE70" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51330,6 +51540,9 @@
       <c r="ID71" t="n">
         <v>35</v>
       </c>
+      <c r="IE71" t="n">
+        <v>61.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52048,6 +52261,9 @@
       <c r="ID72" t="n">
         <v>52.29</v>
       </c>
+      <c r="IE72" t="n">
+        <v>23.11</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52766,6 +52982,9 @@
       <c r="ID73" t="n">
         <v>18.3</v>
       </c>
+      <c r="IE73" t="n">
+        <v>14.16</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53484,6 +53703,9 @@
       <c r="ID74" t="n">
         <v>36</v>
       </c>
+      <c r="IE74" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54202,6 +54424,9 @@
       <c r="ID75" t="n">
         <v>59</v>
       </c>
+      <c r="IE75" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54920,6 +55145,9 @@
       <c r="ID76" t="n">
         <v>45</v>
       </c>
+      <c r="IE76" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55638,6 +55866,9 @@
       <c r="ID77" t="n">
         <v>43</v>
       </c>
+      <c r="IE77" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56356,6 +56587,9 @@
       <c r="ID78" t="n">
         <v>2.15</v>
       </c>
+      <c r="IE78" t="n">
+        <v>1.77</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57074,6 +57308,9 @@
       <c r="ID79" t="n">
         <v>6.14</v>
       </c>
+      <c r="IE79" t="n">
+        <v>2.89</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57792,6 +58029,9 @@
       <c r="ID80" t="n">
         <v>37.2</v>
       </c>
+      <c r="IE80" t="n">
+        <v>50.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58510,6 +58750,9 @@
       <c r="ID81" t="n">
         <v>16.3</v>
       </c>
+      <c r="IE81" t="n">
+        <v>34.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59228,6 +59471,9 @@
       <c r="ID82" t="n">
         <v>187.1</v>
       </c>
+      <c r="IE82" t="n">
+        <v>187.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59946,6 +60192,9 @@
       <c r="ID83" t="n">
         <v>86</v>
       </c>
+      <c r="IE83" t="n">
+        <v>87.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60664,6 +60913,9 @@
       <c r="ID84" t="n">
         <v>26.49</v>
       </c>
+      <c r="IE84" t="n">
+        <v>27.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61382,6 +61634,9 @@
       <c r="ID85" t="n">
         <v>105.9</v>
       </c>
+      <c r="IE85" t="n">
+        <v>139.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62100,6 +62355,9 @@
       <c r="ID86" t="n">
         <v>3</v>
       </c>
+      <c r="IE86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62818,6 +63076,9 @@
       <c r="ID87" t="n">
         <v>7</v>
       </c>
+      <c r="IE87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63536,6 +63797,9 @@
       <c r="ID88" t="n">
         <v>6</v>
       </c>
+      <c r="IE88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -64254,6 +64518,9 @@
       <c r="ID89" t="n">
         <v>6</v>
       </c>
+      <c r="IE89" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64972,6 +65239,9 @@
       <c r="ID90" t="n">
         <v>127</v>
       </c>
+      <c r="IE90" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65690,6 +65960,9 @@
       <c r="ID91" t="n">
         <v>235</v>
       </c>
+      <c r="IE91" t="n">
+        <v>284</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66408,6 +66681,9 @@
       <c r="ID92" t="n">
         <v>284</v>
       </c>
+      <c r="IE92" t="n">
+        <v>341</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67126,6 +67402,9 @@
       <c r="ID93" t="n">
         <v>77.59999999999999</v>
       </c>
+      <c r="IE93" t="n">
+        <v>77.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -67844,6 +68123,9 @@
       <c r="ID94" t="n">
         <v>59</v>
       </c>
+      <c r="IE94" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -68562,6 +68844,9 @@
       <c r="ID95" t="n">
         <v>11</v>
       </c>
+      <c r="IE95" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -69280,6 +69565,9 @@
       <c r="ID96" t="n">
         <v>10</v>
       </c>
+      <c r="IE96" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69998,6 +70286,9 @@
       <c r="ID97" t="n">
         <v>36</v>
       </c>
+      <c r="IE97" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -70716,6 +71007,9 @@
       <c r="ID98" t="n">
         <v>45</v>
       </c>
+      <c r="IE98" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -71434,6 +71728,9 @@
       <c r="ID99" t="n">
         <v>49</v>
       </c>
+      <c r="IE99" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -72152,6 +72449,9 @@
       <c r="ID100" t="n">
         <v>10</v>
       </c>
+      <c r="IE100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -72870,6 +73170,9 @@
       <c r="ID101" t="n">
         <v>4</v>
       </c>
+      <c r="IE101" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -73588,6 +73891,9 @@
       <c r="ID102" t="n">
         <v>57.1</v>
       </c>
+      <c r="IE102" t="n">
+        <v>89.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Richmond_stats.xlsx
+++ b/django_AFL_ML/Data/Richmond_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IE102"/>
+  <dimension ref="A1:IF102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1073,6 +1073,9 @@
       <c r="IE1" t="n">
         <v>10395</v>
       </c>
+      <c r="IF1" t="n">
+        <v>10403</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1794,6 +1797,9 @@
       <c r="IE2" t="n">
         <v>2021</v>
       </c>
+      <c r="IF2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2515,6 +2521,9 @@
       <c r="IE3" t="n">
         <v>8</v>
       </c>
+      <c r="IF3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3236,6 +3245,9 @@
       <c r="IE4" t="n">
         <v>0</v>
       </c>
+      <c r="IF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3957,6 +3969,9 @@
       <c r="IE5" t="n">
         <v>1</v>
       </c>
+      <c r="IF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4678,6 +4693,9 @@
       <c r="IE6" t="n">
         <v>63</v>
       </c>
+      <c r="IF6" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5399,6 +5417,9 @@
       <c r="IE7" t="n">
         <v>126</v>
       </c>
+      <c r="IF7" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6120,6 +6141,9 @@
       <c r="IE8" t="n">
         <v>-63</v>
       </c>
+      <c r="IF8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6841,6 +6865,9 @@
       <c r="IE9" t="n">
         <v>0</v>
       </c>
+      <c r="IF9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7562,6 +7589,9 @@
       <c r="IE10" t="n">
         <v>7</v>
       </c>
+      <c r="IF10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8283,6 +8313,9 @@
       <c r="IE11" t="n">
         <v>160</v>
       </c>
+      <c r="IF11" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9004,6 +9037,9 @@
       <c r="IE12" t="n">
         <v>148</v>
       </c>
+      <c r="IF12" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9725,6 +9761,9 @@
       <c r="IE13" t="n">
         <v>308</v>
       </c>
+      <c r="IF13" t="n">
+        <v>344</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10446,6 +10485,9 @@
       <c r="IE14" t="n">
         <v>1.08</v>
       </c>
+      <c r="IF14" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11167,6 +11209,9 @@
       <c r="IE15" t="n">
         <v>70</v>
       </c>
+      <c r="IF15" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11888,6 +11933,9 @@
       <c r="IE16" t="n">
         <v>60</v>
       </c>
+      <c r="IF16" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12609,6 +12657,9 @@
       <c r="IE17" t="n">
         <v>39</v>
       </c>
+      <c r="IF17" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13330,6 +13381,9 @@
       <c r="IE18" t="n">
         <v>11</v>
       </c>
+      <c r="IF18" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14051,6 +14105,9 @@
       <c r="IE19" t="n">
         <v>21</v>
       </c>
+      <c r="IF19" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14772,6 +14829,9 @@
       <c r="IE20" t="n">
         <v>9</v>
       </c>
+      <c r="IF20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15493,6 +15553,9 @@
       <c r="IE21" t="n">
         <v>6</v>
       </c>
+      <c r="IF21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16214,6 +16277,9 @@
       <c r="IE22" t="n">
         <v>6</v>
       </c>
+      <c r="IF22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16935,6 +17001,9 @@
       <c r="IE23" t="n">
         <v>3</v>
       </c>
+      <c r="IF23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17656,6 +17725,9 @@
       <c r="IE24" t="n">
         <v>18</v>
       </c>
+      <c r="IF24" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18377,6 +18449,9 @@
       <c r="IE25" t="n">
         <v>50</v>
       </c>
+      <c r="IF25" t="n">
+        <v>59.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19098,6 +19173,9 @@
       <c r="IE26" t="n">
         <v>34.22</v>
       </c>
+      <c r="IF26" t="n">
+        <v>26.46</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19819,6 +19897,9 @@
       <c r="IE27" t="n">
         <v>17.11</v>
       </c>
+      <c r="IF27" t="n">
+        <v>15.64</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20540,6 +20621,9 @@
       <c r="IE28" t="n">
         <v>30</v>
       </c>
+      <c r="IF28" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21261,6 +21345,9 @@
       <c r="IE29" t="n">
         <v>56</v>
       </c>
+      <c r="IF29" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21982,6 +22069,9 @@
       <c r="IE30" t="n">
         <v>36</v>
       </c>
+      <c r="IF30" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22703,6 +22793,9 @@
       <c r="IE31" t="n">
         <v>43</v>
       </c>
+      <c r="IF31" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23424,6 +23517,9 @@
       <c r="IE32" t="n">
         <v>2.39</v>
       </c>
+      <c r="IF32" t="n">
+        <v>2.09</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24145,6 +24241,9 @@
       <c r="IE33" t="n">
         <v>4.78</v>
       </c>
+      <c r="IF33" t="n">
+        <v>3.54</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24866,6 +24965,9 @@
       <c r="IE34" t="n">
         <v>34.9</v>
       </c>
+      <c r="IF34" t="n">
+        <v>45.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25587,6 +25689,9 @@
       <c r="IE35" t="n">
         <v>20.9</v>
       </c>
+      <c r="IF35" t="n">
+        <v>28.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26308,6 +26413,9 @@
       <c r="IE36" t="n">
         <v>185.4</v>
       </c>
+      <c r="IF36" t="n">
+        <v>186.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27029,6 +27137,9 @@
       <c r="IE37" t="n">
         <v>85</v>
       </c>
+      <c r="IF37" t="n">
+        <v>85.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27750,6 +27861,9 @@
       <c r="IE38" t="n">
         <v>26.16</v>
       </c>
+      <c r="IF38" t="n">
+        <v>26.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28471,6 +28585,9 @@
       <c r="IE39" t="n">
         <v>104.7</v>
       </c>
+      <c r="IF39" t="n">
+        <v>102.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29192,6 +29309,9 @@
       <c r="IE40" t="n">
         <v>7</v>
       </c>
+      <c r="IF40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29913,6 +30033,9 @@
       <c r="IE41" t="n">
         <v>5</v>
       </c>
+      <c r="IF41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30634,6 +30757,9 @@
       <c r="IE42" t="n">
         <v>5</v>
       </c>
+      <c r="IF42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31355,6 +31481,9 @@
       <c r="IE43" t="n">
         <v>6</v>
       </c>
+      <c r="IF43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32076,6 +32205,9 @@
       <c r="IE44" t="n">
         <v>115</v>
       </c>
+      <c r="IF44" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32797,6 +32929,9 @@
       <c r="IE45" t="n">
         <v>193</v>
       </c>
+      <c r="IF45" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33518,6 +33653,9 @@
       <c r="IE46" t="n">
         <v>221</v>
       </c>
+      <c r="IF46" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34239,6 +34377,9 @@
       <c r="IE47" t="n">
         <v>71.8</v>
       </c>
+      <c r="IF47" t="n">
+        <v>68.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34960,6 +35101,9 @@
       <c r="IE48" t="n">
         <v>56</v>
       </c>
+      <c r="IF48" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35681,6 +35825,9 @@
       <c r="IE49" t="n">
         <v>6</v>
       </c>
+      <c r="IF49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36402,6 +36549,9 @@
       <c r="IE50" t="n">
         <v>6</v>
       </c>
+      <c r="IF50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37123,6 +37273,9 @@
       <c r="IE51" t="n">
         <v>30</v>
       </c>
+      <c r="IF51" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37844,6 +37997,9 @@
       <c r="IE52" t="n">
         <v>36</v>
       </c>
+      <c r="IF52" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38565,6 +38721,9 @@
       <c r="IE53" t="n">
         <v>37</v>
       </c>
+      <c r="IF53" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39286,6 +39445,9 @@
       <c r="IE54" t="n">
         <v>12</v>
       </c>
+      <c r="IF54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40007,6 +40169,9 @@
       <c r="IE55" t="n">
         <v>6</v>
       </c>
+      <c r="IF55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40728,6 +40893,9 @@
       <c r="IE56" t="n">
         <v>66.7</v>
       </c>
+      <c r="IF56" t="n">
+        <v>46.2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41449,6 +41617,9 @@
       <c r="IE57" t="n">
         <v>248</v>
       </c>
+      <c r="IF57" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42170,6 +42341,9 @@
       <c r="IE58" t="n">
         <v>191</v>
       </c>
+      <c r="IF58" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42891,6 +43065,9 @@
       <c r="IE59" t="n">
         <v>439</v>
       </c>
+      <c r="IF59" t="n">
+        <v>373</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43612,6 +43789,9 @@
       <c r="IE60" t="n">
         <v>1.3</v>
       </c>
+      <c r="IF60" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44333,6 +44513,9 @@
       <c r="IE61" t="n">
         <v>122</v>
       </c>
+      <c r="IF61" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45054,6 +45237,9 @@
       <c r="IE62" t="n">
         <v>75</v>
       </c>
+      <c r="IF62" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45775,6 +45961,9 @@
       <c r="IE63" t="n">
         <v>25</v>
       </c>
+      <c r="IF63" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46496,6 +46685,9 @@
       <c r="IE64" t="n">
         <v>21</v>
       </c>
+      <c r="IF64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47217,6 +47409,9 @@
       <c r="IE65" t="n">
         <v>11</v>
       </c>
+      <c r="IF65" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47938,6 +48133,9 @@
       <c r="IE66" t="n">
         <v>19</v>
       </c>
+      <c r="IF66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48659,6 +48857,9 @@
       <c r="IE67" t="n">
         <v>17</v>
       </c>
+      <c r="IF67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49380,6 +49581,9 @@
       <c r="IE68" t="n">
         <v>9</v>
       </c>
+      <c r="IF68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50101,6 +50305,9 @@
       <c r="IE69" t="n">
         <v>3</v>
       </c>
+      <c r="IF69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50822,6 +51029,9 @@
       <c r="IE70" t="n">
         <v>31</v>
       </c>
+      <c r="IF70" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51543,6 +51753,9 @@
       <c r="IE71" t="n">
         <v>61.3</v>
       </c>
+      <c r="IF71" t="n">
+        <v>52.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52264,6 +52477,9 @@
       <c r="IE72" t="n">
         <v>23.11</v>
       </c>
+      <c r="IF72" t="n">
+        <v>31.08</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52985,6 +53201,9 @@
       <c r="IE73" t="n">
         <v>14.16</v>
       </c>
+      <c r="IF73" t="n">
+        <v>16.22</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53706,6 +53925,9 @@
       <c r="IE74" t="n">
         <v>39</v>
       </c>
+      <c r="IF74" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54427,6 +54649,9 @@
       <c r="IE75" t="n">
         <v>41</v>
       </c>
+      <c r="IF75" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55148,6 +55373,9 @@
       <c r="IE76" t="n">
         <v>34</v>
       </c>
+      <c r="IF76" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55869,6 +56097,9 @@
       <c r="IE77" t="n">
         <v>55</v>
       </c>
+      <c r="IF77" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56590,6 +56821,9 @@
       <c r="IE78" t="n">
         <v>1.77</v>
       </c>
+      <c r="IF78" t="n">
+        <v>1.91</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57311,6 +57545,9 @@
       <c r="IE79" t="n">
         <v>2.89</v>
       </c>
+      <c r="IF79" t="n">
+        <v>3.67</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58032,6 +58269,9 @@
       <c r="IE80" t="n">
         <v>50.9</v>
       </c>
+      <c r="IF80" t="n">
+        <v>45.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58753,6 +58993,9 @@
       <c r="IE81" t="n">
         <v>34.5</v>
       </c>
+      <c r="IF81" t="n">
+        <v>27.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59474,6 +59717,9 @@
       <c r="IE82" t="n">
         <v>187.6</v>
       </c>
+      <c r="IF82" t="n">
+        <v>188.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60195,6 +60441,9 @@
       <c r="IE83" t="n">
         <v>87.40000000000001</v>
       </c>
+      <c r="IF83" t="n">
+        <v>86.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60916,6 +61165,9 @@
       <c r="IE84" t="n">
         <v>27.8</v>
       </c>
+      <c r="IF84" t="n">
+        <v>23.74</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61637,6 +61889,9 @@
       <c r="IE85" t="n">
         <v>139.3</v>
       </c>
+      <c r="IF85" t="n">
+        <v>60.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62358,6 +62613,9 @@
       <c r="IE86" t="n">
         <v>6</v>
       </c>
+      <c r="IF86" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63079,6 +63337,9 @@
       <c r="IE87" t="n">
         <v>4</v>
       </c>
+      <c r="IF87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63800,6 +64061,9 @@
       <c r="IE88" t="n">
         <v>1</v>
       </c>
+      <c r="IF88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -64521,6 +64785,9 @@
       <c r="IE89" t="n">
         <v>12</v>
       </c>
+      <c r="IF89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -65242,6 +65509,9 @@
       <c r="IE90" t="n">
         <v>147</v>
       </c>
+      <c r="IF90" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65963,6 +66233,9 @@
       <c r="IE91" t="n">
         <v>284</v>
       </c>
+      <c r="IF91" t="n">
+        <v>219</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66684,6 +66957,9 @@
       <c r="IE92" t="n">
         <v>341</v>
       </c>
+      <c r="IF92" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67405,6 +67681,9 @@
       <c r="IE93" t="n">
         <v>77.7</v>
       </c>
+      <c r="IF93" t="n">
+        <v>66.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -68126,6 +68405,9 @@
       <c r="IE94" t="n">
         <v>41</v>
       </c>
+      <c r="IF94" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -68847,6 +69129,9 @@
       <c r="IE95" t="n">
         <v>6</v>
       </c>
+      <c r="IF95" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -69568,6 +69853,9 @@
       <c r="IE96" t="n">
         <v>20</v>
       </c>
+      <c r="IF96" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -70289,6 +70577,9 @@
       <c r="IE97" t="n">
         <v>39</v>
       </c>
+      <c r="IF97" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71010,6 +71301,9 @@
       <c r="IE98" t="n">
         <v>34</v>
       </c>
+      <c r="IF98" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -71731,6 +72025,9 @@
       <c r="IE99" t="n">
         <v>46</v>
       </c>
+      <c r="IF99" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -72452,6 +72749,9 @@
       <c r="IE100" t="n">
         <v>4</v>
       </c>
+      <c r="IF100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -73173,6 +73473,9 @@
       <c r="IE101" t="n">
         <v>17</v>
       </c>
+      <c r="IF101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -73894,6 +74197,9 @@
       <c r="IE102" t="n">
         <v>89.5</v>
       </c>
+      <c r="IF102" t="n">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Richmond_stats.xlsx
+++ b/django_AFL_ML/Data/Richmond_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IG102"/>
+  <dimension ref="A1:IH102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1079,6 +1079,9 @@
       <c r="IG1" t="n">
         <v>10408</v>
       </c>
+      <c r="IH1" t="n">
+        <v>10419</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1806,6 +1809,9 @@
       <c r="IG2" t="n">
         <v>2021</v>
       </c>
+      <c r="IH2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2533,6 +2539,9 @@
       <c r="IG3" t="n">
         <v>10</v>
       </c>
+      <c r="IH3" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3260,6 +3269,9 @@
       <c r="IG4" t="n">
         <v>1</v>
       </c>
+      <c r="IH4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3987,6 +3999,9 @@
       <c r="IG5" t="n">
         <v>0</v>
       </c>
+      <c r="IH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4714,6 +4729,9 @@
       <c r="IG6" t="n">
         <v>74</v>
       </c>
+      <c r="IH6" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5441,6 +5459,9 @@
       <c r="IG7" t="n">
         <v>102</v>
       </c>
+      <c r="IH7" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6168,6 +6189,9 @@
       <c r="IG8" t="n">
         <v>-28</v>
       </c>
+      <c r="IH8" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6895,6 +6919,9 @@
       <c r="IG9" t="n">
         <v>0</v>
       </c>
+      <c r="IH9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7622,6 +7649,9 @@
       <c r="IG10" t="n">
         <v>2</v>
       </c>
+      <c r="IH10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8349,6 +8379,9 @@
       <c r="IG11" t="n">
         <v>176</v>
       </c>
+      <c r="IH11" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9076,6 +9109,9 @@
       <c r="IG12" t="n">
         <v>153</v>
       </c>
+      <c r="IH12" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9803,6 +9839,9 @@
       <c r="IG13" t="n">
         <v>329</v>
       </c>
+      <c r="IH13" t="n">
+        <v>390</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10530,6 +10569,9 @@
       <c r="IG14" t="n">
         <v>1.15</v>
       </c>
+      <c r="IH14" t="n">
+        <v>1.73</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11257,6 +11299,9 @@
       <c r="IG15" t="n">
         <v>85</v>
       </c>
+      <c r="IH15" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11984,6 +12029,9 @@
       <c r="IG16" t="n">
         <v>63</v>
       </c>
+      <c r="IH16" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12711,6 +12759,9 @@
       <c r="IG17" t="n">
         <v>28</v>
       </c>
+      <c r="IH17" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13438,6 +13489,9 @@
       <c r="IG18" t="n">
         <v>16</v>
       </c>
+      <c r="IH18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14165,6 +14219,9 @@
       <c r="IG19" t="n">
         <v>28</v>
       </c>
+      <c r="IH19" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14892,6 +14949,9 @@
       <c r="IG20" t="n">
         <v>11</v>
       </c>
+      <c r="IH20" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15619,6 +15679,9 @@
       <c r="IG21" t="n">
         <v>9</v>
       </c>
+      <c r="IH21" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16346,6 +16409,9 @@
       <c r="IG22" t="n">
         <v>6</v>
       </c>
+      <c r="IH22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17073,6 +17139,9 @@
       <c r="IG23" t="n">
         <v>2</v>
       </c>
+      <c r="IH23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17800,6 +17869,9 @@
       <c r="IG24" t="n">
         <v>19</v>
       </c>
+      <c r="IH24" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18527,6 +18599,9 @@
       <c r="IG25" t="n">
         <v>57.9</v>
       </c>
+      <c r="IH25" t="n">
+        <v>65.40000000000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19254,6 +19329,9 @@
       <c r="IG26" t="n">
         <v>29.91</v>
       </c>
+      <c r="IH26" t="n">
+        <v>22.94</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19981,6 +20059,9 @@
       <c r="IG27" t="n">
         <v>17.32</v>
       </c>
+      <c r="IH27" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20708,6 +20789,9 @@
       <c r="IG28" t="n">
         <v>24</v>
       </c>
+      <c r="IH28" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21435,6 +21519,9 @@
       <c r="IG29" t="n">
         <v>64</v>
       </c>
+      <c r="IH29" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22162,6 +22249,9 @@
       <c r="IG30" t="n">
         <v>40</v>
       </c>
+      <c r="IH30" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22889,6 +22979,9 @@
       <c r="IG31" t="n">
         <v>45</v>
       </c>
+      <c r="IH31" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23616,6 +23709,9 @@
       <c r="IG32" t="n">
         <v>2.37</v>
       </c>
+      <c r="IH32" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24343,6 +24439,9 @@
       <c r="IG33" t="n">
         <v>4.09</v>
       </c>
+      <c r="IH33" t="n">
+        <v>2.82</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25070,6 +25169,9 @@
       <c r="IG34" t="n">
         <v>37.8</v>
       </c>
+      <c r="IH34" t="n">
+        <v>52.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25797,6 +25899,9 @@
       <c r="IG35" t="n">
         <v>24.4</v>
       </c>
+      <c r="IH35" t="n">
+        <v>35.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26524,6 +26629,9 @@
       <c r="IG36" t="n">
         <v>186.7</v>
       </c>
+      <c r="IH36" t="n">
+        <v>186.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27251,6 +27359,9 @@
       <c r="IG37" t="n">
         <v>85.90000000000001</v>
       </c>
+      <c r="IH37" t="n">
+        <v>86.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27978,6 +28089,9 @@
       <c r="IG38" t="n">
         <v>26.16</v>
       </c>
+      <c r="IH38" t="n">
+        <v>26.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28705,6 +28819,9 @@
       <c r="IG39" t="n">
         <v>104.4</v>
       </c>
+      <c r="IH39" t="n">
+        <v>113.4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29432,6 +29549,9 @@
       <c r="IG40" t="n">
         <v>7</v>
       </c>
+      <c r="IH40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30159,6 +30279,9 @@
       <c r="IG41" t="n">
         <v>4</v>
       </c>
+      <c r="IH41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30886,6 +31009,9 @@
       <c r="IG42" t="n">
         <v>5</v>
       </c>
+      <c r="IH42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31613,6 +31739,9 @@
       <c r="IG43" t="n">
         <v>6</v>
       </c>
+      <c r="IH43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32340,6 +32469,9 @@
       <c r="IG44" t="n">
         <v>138</v>
       </c>
+      <c r="IH44" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33067,6 +33199,9 @@
       <c r="IG45" t="n">
         <v>193</v>
       </c>
+      <c r="IH45" t="n">
+        <v>260</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33794,6 +33929,9 @@
       <c r="IG46" t="n">
         <v>233</v>
       </c>
+      <c r="IH46" t="n">
+        <v>303</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34521,6 +34659,9 @@
       <c r="IG47" t="n">
         <v>70.8</v>
       </c>
+      <c r="IH47" t="n">
+        <v>77.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35248,6 +35389,9 @@
       <c r="IG48" t="n">
         <v>64</v>
       </c>
+      <c r="IH48" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35975,6 +36119,9 @@
       <c r="IG49" t="n">
         <v>17</v>
       </c>
+      <c r="IH49" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36702,6 +36849,9 @@
       <c r="IG50" t="n">
         <v>12</v>
       </c>
+      <c r="IH50" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37429,6 +37579,9 @@
       <c r="IG51" t="n">
         <v>24</v>
       </c>
+      <c r="IH51" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38156,6 +38309,9 @@
       <c r="IG52" t="n">
         <v>40</v>
       </c>
+      <c r="IH52" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38883,6 +39039,9 @@
       <c r="IG53" t="n">
         <v>52</v>
       </c>
+      <c r="IH53" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39610,6 +39769,9 @@
       <c r="IG54" t="n">
         <v>10</v>
       </c>
+      <c r="IH54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40337,6 +40499,9 @@
       <c r="IG55" t="n">
         <v>9</v>
       </c>
+      <c r="IH55" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41064,6 +41229,9 @@
       <c r="IG56" t="n">
         <v>81.8</v>
       </c>
+      <c r="IH56" t="n">
+        <v>70.59999999999999</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41791,6 +41959,9 @@
       <c r="IG57" t="n">
         <v>229</v>
       </c>
+      <c r="IH57" t="n">
+        <v>181</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42518,6 +42689,9 @@
       <c r="IG58" t="n">
         <v>120</v>
       </c>
+      <c r="IH58" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43245,6 +43419,9 @@
       <c r="IG59" t="n">
         <v>349</v>
       </c>
+      <c r="IH59" t="n">
+        <v>317</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43972,6 +44149,9 @@
       <c r="IG60" t="n">
         <v>1.91</v>
       </c>
+      <c r="IH60" t="n">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44699,6 +44879,9 @@
       <c r="IG61" t="n">
         <v>83</v>
       </c>
+      <c r="IH61" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45426,6 +45609,9 @@
       <c r="IG62" t="n">
         <v>60</v>
       </c>
+      <c r="IH62" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46153,6 +46339,9 @@
       <c r="IG63" t="n">
         <v>42</v>
       </c>
+      <c r="IH63" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46880,6 +47069,9 @@
       <c r="IG64" t="n">
         <v>28</v>
       </c>
+      <c r="IH64" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47607,6 +47799,9 @@
       <c r="IG65" t="n">
         <v>16</v>
       </c>
+      <c r="IH65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48334,6 +48529,9 @@
       <c r="IG66" t="n">
         <v>15</v>
       </c>
+      <c r="IH66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49061,6 +49259,9 @@
       <c r="IG67" t="n">
         <v>11</v>
       </c>
+      <c r="IH67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49788,6 +49989,9 @@
       <c r="IG68" t="n">
         <v>10</v>
       </c>
+      <c r="IH68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50515,6 +50719,9 @@
       <c r="IG69" t="n">
         <v>2</v>
       </c>
+      <c r="IH69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51242,6 +51449,9 @@
       <c r="IG70" t="n">
         <v>27</v>
       </c>
+      <c r="IH70" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51969,6 +52179,9 @@
       <c r="IG71" t="n">
         <v>55.6</v>
       </c>
+      <c r="IH71" t="n">
+        <v>52.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52696,6 +52909,9 @@
       <c r="IG72" t="n">
         <v>23.27</v>
       </c>
+      <c r="IH72" t="n">
+        <v>26.42</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53423,6 +53639,9 @@
       <c r="IG73" t="n">
         <v>12.93</v>
       </c>
+      <c r="IH73" t="n">
+        <v>13.78</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54150,6 +54369,9 @@
       <c r="IG74" t="n">
         <v>51</v>
       </c>
+      <c r="IH74" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54877,6 +55099,9 @@
       <c r="IG75" t="n">
         <v>46</v>
       </c>
+      <c r="IH75" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55604,6 +55829,9 @@
       <c r="IG76" t="n">
         <v>33</v>
       </c>
+      <c r="IH76" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56331,6 +56559,9 @@
       <c r="IG77" t="n">
         <v>57</v>
       </c>
+      <c r="IH77" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57058,6 +57289,9 @@
       <c r="IG78" t="n">
         <v>2.11</v>
       </c>
+      <c r="IH78" t="n">
+        <v>2.17</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57785,6 +58019,9 @@
       <c r="IG79" t="n">
         <v>3.8</v>
       </c>
+      <c r="IH79" t="n">
+        <v>4.17</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58512,6 +58749,9 @@
       <c r="IG80" t="n">
         <v>43.9</v>
       </c>
+      <c r="IH80" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59239,6 +59479,9 @@
       <c r="IG81" t="n">
         <v>26.3</v>
       </c>
+      <c r="IH81" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59966,6 +60209,9 @@
       <c r="IG82" t="n">
         <v>188.1</v>
       </c>
+      <c r="IH82" t="n">
+        <v>186.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60693,6 +60939,9 @@
       <c r="IG83" t="n">
         <v>87</v>
       </c>
+      <c r="IH83" t="n">
+        <v>84.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61420,6 +61669,9 @@
       <c r="IG84" t="n">
         <v>25.66</v>
       </c>
+      <c r="IH84" t="n">
+        <v>24.49</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62147,6 +62399,9 @@
       <c r="IG85" t="n">
         <v>99.8</v>
       </c>
+      <c r="IH85" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62874,6 +63129,9 @@
       <c r="IG86" t="n">
         <v>6</v>
       </c>
+      <c r="IH86" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63601,6 +63859,9 @@
       <c r="IG87" t="n">
         <v>6</v>
       </c>
+      <c r="IH87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64328,6 +64589,9 @@
       <c r="IG88" t="n">
         <v>6</v>
       </c>
+      <c r="IH88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65055,6 +65319,9 @@
       <c r="IG89" t="n">
         <v>4</v>
       </c>
+      <c r="IH89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -65782,6 +66049,9 @@
       <c r="IG90" t="n">
         <v>165</v>
       </c>
+      <c r="IH90" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -66509,6 +66779,9 @@
       <c r="IG91" t="n">
         <v>176</v>
       </c>
+      <c r="IH91" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -67236,6 +67509,9 @@
       <c r="IG92" t="n">
         <v>231</v>
       </c>
+      <c r="IH92" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67963,6 +68239,9 @@
       <c r="IG93" t="n">
         <v>66.2</v>
       </c>
+      <c r="IH93" t="n">
+        <v>70.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -68690,6 +68969,9 @@
       <c r="IG94" t="n">
         <v>46</v>
       </c>
+      <c r="IH94" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -69417,6 +69699,9 @@
       <c r="IG95" t="n">
         <v>15</v>
       </c>
+      <c r="IH95" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -70144,6 +70429,9 @@
       <c r="IG96" t="n">
         <v>11</v>
       </c>
+      <c r="IH96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -70871,6 +71159,9 @@
       <c r="IG97" t="n">
         <v>51</v>
       </c>
+      <c r="IH97" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71598,6 +71889,9 @@
       <c r="IG98" t="n">
         <v>33</v>
       </c>
+      <c r="IH98" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72325,6 +72619,9 @@
       <c r="IG99" t="n">
         <v>38</v>
       </c>
+      <c r="IH99" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -73052,6 +73349,9 @@
       <c r="IG100" t="n">
         <v>2</v>
       </c>
+      <c r="IH100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -73779,6 +74079,9 @@
       <c r="IG101" t="n">
         <v>11</v>
       </c>
+      <c r="IH101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -74506,6 +74809,9 @@
       <c r="IG102" t="n">
         <v>73.3</v>
       </c>
+      <c r="IH102" t="n">
+        <v>58.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Richmond_stats.xlsx
+++ b/django_AFL_ML/Data/Richmond_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:II102"/>
+  <dimension ref="A1:IJ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1085,6 +1085,9 @@
       <c r="II1" t="n">
         <v>10427</v>
       </c>
+      <c r="IJ1" t="n">
+        <v>10443</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1818,6 +1821,9 @@
       <c r="II2" t="n">
         <v>2021</v>
       </c>
+      <c r="IJ2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2551,6 +2557,9 @@
       <c r="II3" t="n">
         <v>12</v>
       </c>
+      <c r="IJ3" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3284,6 +3293,9 @@
       <c r="II4" t="n">
         <v>1</v>
       </c>
+      <c r="IJ4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4017,6 +4029,9 @@
       <c r="II5" t="n">
         <v>1</v>
       </c>
+      <c r="IJ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4750,6 +4765,9 @@
       <c r="II6" t="n">
         <v>123</v>
       </c>
+      <c r="IJ6" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5483,6 +5501,9 @@
       <c r="II7" t="n">
         <v>84</v>
       </c>
+      <c r="IJ7" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6216,6 +6237,9 @@
       <c r="II8" t="n">
         <v>39</v>
       </c>
+      <c r="IJ8" t="n">
+        <v>-4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6949,6 +6973,9 @@
       <c r="II9" t="n">
         <v>1</v>
       </c>
+      <c r="IJ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7682,6 +7709,9 @@
       <c r="II10" t="n">
         <v>5</v>
       </c>
+      <c r="IJ10" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8415,6 +8445,9 @@
       <c r="II11" t="n">
         <v>230</v>
       </c>
+      <c r="IJ11" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9148,6 +9181,9 @@
       <c r="II12" t="n">
         <v>150</v>
       </c>
+      <c r="IJ12" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9881,6 +9917,9 @@
       <c r="II13" t="n">
         <v>380</v>
       </c>
+      <c r="IJ13" t="n">
+        <v>384</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10614,6 +10653,9 @@
       <c r="II14" t="n">
         <v>1.53</v>
       </c>
+      <c r="IJ14" t="n">
+        <v>1.54</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11347,6 +11389,9 @@
       <c r="II15" t="n">
         <v>112</v>
       </c>
+      <c r="IJ15" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12080,6 +12125,9 @@
       <c r="II16" t="n">
         <v>46</v>
       </c>
+      <c r="IJ16" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12813,6 +12861,9 @@
       <c r="II17" t="n">
         <v>31</v>
       </c>
+      <c r="IJ17" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13546,6 +13597,9 @@
       <c r="II18" t="n">
         <v>17</v>
       </c>
+      <c r="IJ18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14279,6 +14333,9 @@
       <c r="II19" t="n">
         <v>12</v>
       </c>
+      <c r="IJ19" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15012,6 +15069,9 @@
       <c r="II20" t="n">
         <v>19</v>
       </c>
+      <c r="IJ20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15745,6 +15805,9 @@
       <c r="II21" t="n">
         <v>16</v>
       </c>
+      <c r="IJ21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16478,6 +16541,9 @@
       <c r="II22" t="n">
         <v>8</v>
       </c>
+      <c r="IJ22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17211,6 +17277,9 @@
       <c r="II23" t="n">
         <v>1</v>
       </c>
+      <c r="IJ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17944,6 +18013,9 @@
       <c r="II24" t="n">
         <v>28</v>
       </c>
+      <c r="IJ24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18677,6 +18749,9 @@
       <c r="II25" t="n">
         <v>67.90000000000001</v>
       </c>
+      <c r="IJ25" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19410,6 +19485,9 @@
       <c r="II26" t="n">
         <v>20</v>
       </c>
+      <c r="IJ26" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20143,6 +20221,9 @@
       <c r="II27" t="n">
         <v>13.57</v>
       </c>
+      <c r="IJ27" t="n">
+        <v>18.29</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20876,6 +20957,9 @@
       <c r="II28" t="n">
         <v>34</v>
       </c>
+      <c r="IJ28" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21609,6 +21693,9 @@
       <c r="II29" t="n">
         <v>47</v>
       </c>
+      <c r="IJ29" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22342,6 +22429,9 @@
       <c r="II30" t="n">
         <v>40</v>
       </c>
+      <c r="IJ30" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23075,6 +23165,9 @@
       <c r="II31" t="n">
         <v>52</v>
       </c>
+      <c r="IJ31" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23808,6 +23901,9 @@
       <c r="II32" t="n">
         <v>1.86</v>
       </c>
+      <c r="IJ32" t="n">
+        <v>2.24</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24541,6 +24637,9 @@
       <c r="II33" t="n">
         <v>2.74</v>
       </c>
+      <c r="IJ33" t="n">
+        <v>3.92</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25274,6 +25373,9 @@
       <c r="II34" t="n">
         <v>51.9</v>
       </c>
+      <c r="IJ34" t="n">
+        <v>44.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26007,6 +26109,9 @@
       <c r="II35" t="n">
         <v>36.5</v>
       </c>
+      <c r="IJ35" t="n">
+        <v>25.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26740,6 +26845,9 @@
       <c r="II36" t="n">
         <v>185.3</v>
       </c>
+      <c r="IJ36" t="n">
+        <v>185.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27473,6 +27581,9 @@
       <c r="II37" t="n">
         <v>85.5</v>
       </c>
+      <c r="IJ37" t="n">
+        <v>85.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28206,6 +28317,9 @@
       <c r="II38" t="n">
         <v>26.8</v>
       </c>
+      <c r="IJ38" t="n">
+        <v>27.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28939,6 +29053,9 @@
       <c r="II39" t="n">
         <v>123</v>
       </c>
+      <c r="IJ39" t="n">
+        <v>127.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29672,6 +29789,9 @@
       <c r="II40" t="n">
         <v>6</v>
       </c>
+      <c r="IJ40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30405,6 +30525,9 @@
       <c r="II41" t="n">
         <v>4</v>
       </c>
+      <c r="IJ41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31138,6 +31261,9 @@
       <c r="II42" t="n">
         <v>4</v>
       </c>
+      <c r="IJ42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31871,6 +31997,9 @@
       <c r="II43" t="n">
         <v>9</v>
       </c>
+      <c r="IJ43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32604,6 +32733,9 @@
       <c r="II44" t="n">
         <v>134</v>
       </c>
+      <c r="IJ44" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33337,6 +33469,9 @@
       <c r="II45" t="n">
         <v>249</v>
       </c>
+      <c r="IJ45" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34070,6 +34205,9 @@
       <c r="II46" t="n">
         <v>288</v>
       </c>
+      <c r="IJ46" t="n">
+        <v>287</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34803,6 +34941,9 @@
       <c r="II47" t="n">
         <v>75.8</v>
       </c>
+      <c r="IJ47" t="n">
+        <v>74.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35536,6 +35677,9 @@
       <c r="II48" t="n">
         <v>47</v>
       </c>
+      <c r="IJ48" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36269,6 +36413,9 @@
       <c r="II49" t="n">
         <v>12</v>
       </c>
+      <c r="IJ49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37002,6 +37149,9 @@
       <c r="II50" t="n">
         <v>15</v>
       </c>
+      <c r="IJ50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37735,6 +37885,9 @@
       <c r="II51" t="n">
         <v>34</v>
       </c>
+      <c r="IJ51" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38468,6 +38621,9 @@
       <c r="II52" t="n">
         <v>40</v>
       </c>
+      <c r="IJ52" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39201,6 +39357,9 @@
       <c r="II53" t="n">
         <v>49</v>
       </c>
+      <c r="IJ53" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39934,6 +40093,9 @@
       <c r="II54" t="n">
         <v>6</v>
       </c>
+      <c r="IJ54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40667,6 +40829,9 @@
       <c r="II55" t="n">
         <v>16</v>
       </c>
+      <c r="IJ55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41400,6 +41565,9 @@
       <c r="II56" t="n">
         <v>84.2</v>
       </c>
+      <c r="IJ56" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42133,6 +42301,9 @@
       <c r="II57" t="n">
         <v>196</v>
       </c>
+      <c r="IJ57" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42866,6 +43037,9 @@
       <c r="II58" t="n">
         <v>152</v>
       </c>
+      <c r="IJ58" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43599,6 +43773,9 @@
       <c r="II59" t="n">
         <v>348</v>
       </c>
+      <c r="IJ59" t="n">
+        <v>353</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44332,6 +44509,9 @@
       <c r="II60" t="n">
         <v>1.29</v>
       </c>
+      <c r="IJ60" t="n">
+        <v>1.72</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45065,6 +45245,9 @@
       <c r="II61" t="n">
         <v>91</v>
       </c>
+      <c r="IJ61" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45798,6 +45981,9 @@
       <c r="II62" t="n">
         <v>43</v>
       </c>
+      <c r="IJ62" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46531,6 +46717,9 @@
       <c r="II63" t="n">
         <v>27</v>
       </c>
+      <c r="IJ63" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47264,6 +47453,9 @@
       <c r="II64" t="n">
         <v>12</v>
       </c>
+      <c r="IJ64" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47997,6 +48189,9 @@
       <c r="II65" t="n">
         <v>17</v>
       </c>
+      <c r="IJ65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48730,6 +48925,9 @@
       <c r="II66" t="n">
         <v>12</v>
       </c>
+      <c r="IJ66" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49463,6 +49661,9 @@
       <c r="II67" t="n">
         <v>8</v>
       </c>
+      <c r="IJ67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50196,6 +50397,9 @@
       <c r="II68" t="n">
         <v>9</v>
       </c>
+      <c r="IJ68" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50929,6 +51133,9 @@
       <c r="II69" t="n">
         <v>3</v>
       </c>
+      <c r="IJ69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51662,6 +51869,9 @@
       <c r="II70" t="n">
         <v>24</v>
       </c>
+      <c r="IJ70" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52395,6 +52605,9 @@
       <c r="II71" t="n">
         <v>50</v>
       </c>
+      <c r="IJ71" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53128,6 +53341,9 @@
       <c r="II72" t="n">
         <v>29</v>
       </c>
+      <c r="IJ72" t="n">
+        <v>27.15</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53861,6 +54077,9 @@
       <c r="II73" t="n">
         <v>14.5</v>
       </c>
+      <c r="IJ73" t="n">
+        <v>17.65</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54594,6 +54813,9 @@
       <c r="II74" t="n">
         <v>32</v>
       </c>
+      <c r="IJ74" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -55327,6 +55549,9 @@
       <c r="II75" t="n">
         <v>48</v>
       </c>
+      <c r="IJ75" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56060,6 +56285,9 @@
       <c r="II76" t="n">
         <v>32</v>
       </c>
+      <c r="IJ76" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56793,6 +57021,9 @@
       <c r="II77" t="n">
         <v>53</v>
       </c>
+      <c r="IJ77" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57526,6 +57757,9 @@
       <c r="II78" t="n">
         <v>2.21</v>
       </c>
+      <c r="IJ78" t="n">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58259,6 +58493,9 @@
       <c r="II79" t="n">
         <v>4.42</v>
       </c>
+      <c r="IJ79" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58992,6 +59229,9 @@
       <c r="II80" t="n">
         <v>39.6</v>
       </c>
+      <c r="IJ80" t="n">
+        <v>32.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59725,6 +59965,9 @@
       <c r="II81" t="n">
         <v>22.6</v>
       </c>
+      <c r="IJ81" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -60458,6 +60701,9 @@
       <c r="II82" t="n">
         <v>187.8</v>
       </c>
+      <c r="IJ82" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -61191,6 +61437,9 @@
       <c r="II83" t="n">
         <v>85.7</v>
       </c>
+      <c r="IJ83" t="n">
+        <v>87.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61924,6 +62173,9 @@
       <c r="II84" t="n">
         <v>25.41</v>
       </c>
+      <c r="IJ84" t="n">
+        <v>26.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62657,6 +62909,9 @@
       <c r="II85" t="n">
         <v>81</v>
       </c>
+      <c r="IJ85" t="n">
+        <v>116.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -63390,6 +63645,9 @@
       <c r="II86" t="n">
         <v>9</v>
       </c>
+      <c r="IJ86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -64123,6 +64381,9 @@
       <c r="II87" t="n">
         <v>7</v>
       </c>
+      <c r="IJ87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64856,6 +65117,9 @@
       <c r="II88" t="n">
         <v>3</v>
       </c>
+      <c r="IJ88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65589,6 +65853,9 @@
       <c r="II89" t="n">
         <v>4</v>
       </c>
+      <c r="IJ89" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -66322,6 +66589,9 @@
       <c r="II90" t="n">
         <v>121</v>
       </c>
+      <c r="IJ90" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -67055,6 +67325,9 @@
       <c r="II91" t="n">
         <v>227</v>
       </c>
+      <c r="IJ91" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -67788,6 +68061,9 @@
       <c r="II92" t="n">
         <v>262</v>
       </c>
+      <c r="IJ92" t="n">
+        <v>265</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -68521,6 +68797,9 @@
       <c r="II93" t="n">
         <v>75.3</v>
       </c>
+      <c r="IJ93" t="n">
+        <v>75.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -69254,6 +69533,9 @@
       <c r="II94" t="n">
         <v>48</v>
       </c>
+      <c r="IJ94" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -69987,6 +70269,9 @@
       <c r="II95" t="n">
         <v>7</v>
       </c>
+      <c r="IJ95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -70720,6 +71005,9 @@
       <c r="II96" t="n">
         <v>15</v>
       </c>
+      <c r="IJ96" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -71453,6 +71741,9 @@
       <c r="II97" t="n">
         <v>32</v>
       </c>
+      <c r="IJ97" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -72186,6 +72477,9 @@
       <c r="II98" t="n">
         <v>32</v>
       </c>
+      <c r="IJ98" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72919,6 +73213,9 @@
       <c r="II99" t="n">
         <v>54</v>
       </c>
+      <c r="IJ99" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -73652,6 +73949,9 @@
       <c r="II100" t="n">
         <v>8</v>
       </c>
+      <c r="IJ100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -74385,6 +74685,9 @@
       <c r="II101" t="n">
         <v>8</v>
       </c>
+      <c r="IJ101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -75118,6 +75421,9 @@
       <c r="II102" t="n">
         <v>66.7</v>
       </c>
+      <c r="IJ102" t="n">
+        <v>76.90000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Richmond_stats.xlsx
+++ b/django_AFL_ML/Data/Richmond_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IJ102"/>
+  <dimension ref="A1:IK102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,6 +1088,9 @@
       <c r="IJ1" t="n">
         <v>10443</v>
       </c>
+      <c r="IK1" t="n">
+        <v>10450</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1824,6 +1827,9 @@
       <c r="IJ2" t="n">
         <v>2021</v>
       </c>
+      <c r="IK2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2560,6 +2566,9 @@
       <c r="IJ3" t="n">
         <v>13</v>
       </c>
+      <c r="IK3" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3296,6 +3305,9 @@
       <c r="IJ4" t="n">
         <v>1</v>
       </c>
+      <c r="IK4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4032,6 +4044,9 @@
       <c r="IJ5" t="n">
         <v>0</v>
       </c>
+      <c r="IK5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4768,6 +4783,9 @@
       <c r="IJ6" t="n">
         <v>81</v>
       </c>
+      <c r="IK6" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5504,6 +5522,9 @@
       <c r="IJ7" t="n">
         <v>85</v>
       </c>
+      <c r="IK7" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6240,6 +6261,9 @@
       <c r="IJ8" t="n">
         <v>-4</v>
       </c>
+      <c r="IK8" t="n">
+        <v>-40</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6976,6 +7000,9 @@
       <c r="IJ9" t="n">
         <v>0</v>
       </c>
+      <c r="IK9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7712,6 +7739,9 @@
       <c r="IJ10" t="n">
         <v>17</v>
       </c>
+      <c r="IK10" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8448,6 +8478,9 @@
       <c r="IJ11" t="n">
         <v>233</v>
       </c>
+      <c r="IK11" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9184,6 +9217,9 @@
       <c r="IJ12" t="n">
         <v>151</v>
       </c>
+      <c r="IK12" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9920,6 +9956,9 @@
       <c r="IJ13" t="n">
         <v>384</v>
       </c>
+      <c r="IK13" t="n">
+        <v>371</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10656,6 +10695,9 @@
       <c r="IJ14" t="n">
         <v>1.54</v>
       </c>
+      <c r="IK14" t="n">
+        <v>1.46</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11392,6 +11434,9 @@
       <c r="IJ15" t="n">
         <v>113</v>
       </c>
+      <c r="IK15" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12128,6 +12173,9 @@
       <c r="IJ16" t="n">
         <v>53</v>
       </c>
+      <c r="IK16" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12864,6 +12912,9 @@
       <c r="IJ17" t="n">
         <v>18</v>
       </c>
+      <c r="IK17" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13600,6 +13651,9 @@
       <c r="IJ18" t="n">
         <v>15</v>
       </c>
+      <c r="IK18" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14336,6 +14390,9 @@
       <c r="IJ19" t="n">
         <v>25</v>
       </c>
+      <c r="IK19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15072,6 +15129,9 @@
       <c r="IJ20" t="n">
         <v>12</v>
       </c>
+      <c r="IK20" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15808,6 +15868,9 @@
       <c r="IJ21" t="n">
         <v>9</v>
       </c>
+      <c r="IK21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16544,6 +16607,9 @@
       <c r="IJ22" t="n">
         <v>9</v>
       </c>
+      <c r="IK22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17280,6 +17346,9 @@
       <c r="IJ23" t="n">
         <v>0</v>
       </c>
+      <c r="IK23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18016,6 +18085,9 @@
       <c r="IJ24" t="n">
         <v>21</v>
       </c>
+      <c r="IK24" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18752,6 +18824,9 @@
       <c r="IJ25" t="n">
         <v>57.1</v>
       </c>
+      <c r="IK25" t="n">
+        <v>16.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19488,6 +19563,9 @@
       <c r="IJ26" t="n">
         <v>32</v>
       </c>
+      <c r="IK26" t="n">
+        <v>185.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20224,6 +20302,9 @@
       <c r="IJ27" t="n">
         <v>18.29</v>
       </c>
+      <c r="IK27" t="n">
+        <v>30.92</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20960,6 +21041,9 @@
       <c r="IJ28" t="n">
         <v>29</v>
       </c>
+      <c r="IK28" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21696,6 +21780,9 @@
       <c r="IJ29" t="n">
         <v>70</v>
       </c>
+      <c r="IK29" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22432,6 +22519,9 @@
       <c r="IJ30" t="n">
         <v>38</v>
       </c>
+      <c r="IK30" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23168,6 +23258,9 @@
       <c r="IJ31" t="n">
         <v>47</v>
       </c>
+      <c r="IK31" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23904,6 +23997,9 @@
       <c r="IJ32" t="n">
         <v>2.24</v>
       </c>
+      <c r="IK32" t="n">
+        <v>3.58</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24640,6 +24736,9 @@
       <c r="IJ33" t="n">
         <v>3.92</v>
       </c>
+      <c r="IK33" t="n">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25376,6 +25475,9 @@
       <c r="IJ34" t="n">
         <v>44.7</v>
       </c>
+      <c r="IK34" t="n">
+        <v>25.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26112,6 +26214,9 @@
       <c r="IJ35" t="n">
         <v>25.5</v>
       </c>
+      <c r="IK35" t="n">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26848,6 +26953,9 @@
       <c r="IJ36" t="n">
         <v>185.3</v>
       </c>
+      <c r="IK36" t="n">
+        <v>185.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27584,6 +27692,9 @@
       <c r="IJ37" t="n">
         <v>85.09999999999999</v>
       </c>
+      <c r="IK37" t="n">
+        <v>85.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28320,6 +28431,9 @@
       <c r="IJ38" t="n">
         <v>27.16</v>
       </c>
+      <c r="IK38" t="n">
+        <v>26.74</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29056,6 +29170,9 @@
       <c r="IJ39" t="n">
         <v>127.1</v>
       </c>
+      <c r="IK39" t="n">
+        <v>118.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29792,6 +29909,9 @@
       <c r="IJ40" t="n">
         <v>5</v>
       </c>
+      <c r="IK40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30528,6 +30648,9 @@
       <c r="IJ41" t="n">
         <v>4</v>
       </c>
+      <c r="IK41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31264,6 +31387,9 @@
       <c r="IJ42" t="n">
         <v>5</v>
       </c>
+      <c r="IK42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32000,6 +32126,9 @@
       <c r="IJ43" t="n">
         <v>8</v>
       </c>
+      <c r="IK43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32736,6 +32865,9 @@
       <c r="IJ44" t="n">
         <v>137</v>
       </c>
+      <c r="IK44" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33472,6 +33604,9 @@
       <c r="IJ45" t="n">
         <v>250</v>
       </c>
+      <c r="IK45" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34208,6 +34343,9 @@
       <c r="IJ46" t="n">
         <v>287</v>
       </c>
+      <c r="IK46" t="n">
+        <v>260</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34944,6 +35082,9 @@
       <c r="IJ47" t="n">
         <v>74.7</v>
       </c>
+      <c r="IK47" t="n">
+        <v>70.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35680,6 +35821,9 @@
       <c r="IJ48" t="n">
         <v>70</v>
       </c>
+      <c r="IK48" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36416,6 +36560,9 @@
       <c r="IJ49" t="n">
         <v>11</v>
       </c>
+      <c r="IK49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37152,6 +37299,9 @@
       <c r="IJ50" t="n">
         <v>6</v>
       </c>
+      <c r="IK50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37888,6 +38038,9 @@
       <c r="IJ51" t="n">
         <v>29</v>
       </c>
+      <c r="IK51" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38624,6 +38777,9 @@
       <c r="IJ52" t="n">
         <v>38</v>
       </c>
+      <c r="IK52" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39360,6 +39516,9 @@
       <c r="IJ53" t="n">
         <v>48</v>
       </c>
+      <c r="IK53" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40096,6 +40255,9 @@
       <c r="IJ54" t="n">
         <v>6</v>
       </c>
+      <c r="IK54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40832,6 +40994,9 @@
       <c r="IJ55" t="n">
         <v>9</v>
       </c>
+      <c r="IK55" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41568,6 +41733,9 @@
       <c r="IJ56" t="n">
         <v>75</v>
       </c>
+      <c r="IK56" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42304,6 +42472,9 @@
       <c r="IJ57" t="n">
         <v>223</v>
       </c>
+      <c r="IK57" t="n">
+        <v>253</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43040,6 +43211,9 @@
       <c r="IJ58" t="n">
         <v>130</v>
       </c>
+      <c r="IK58" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43776,6 +43950,9 @@
       <c r="IJ59" t="n">
         <v>353</v>
       </c>
+      <c r="IK59" t="n">
+        <v>388</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44512,6 +44689,9 @@
       <c r="IJ60" t="n">
         <v>1.72</v>
       </c>
+      <c r="IK60" t="n">
+        <v>1.87</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45248,6 +45428,9 @@
       <c r="IJ61" t="n">
         <v>112</v>
       </c>
+      <c r="IK61" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45984,6 +46167,9 @@
       <c r="IJ62" t="n">
         <v>41</v>
       </c>
+      <c r="IK62" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46720,6 +46906,9 @@
       <c r="IJ63" t="n">
         <v>39</v>
       </c>
+      <c r="IK63" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47456,6 +47645,9 @@
       <c r="IJ64" t="n">
         <v>25</v>
       </c>
+      <c r="IK64" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48192,6 +48384,9 @@
       <c r="IJ65" t="n">
         <v>15</v>
       </c>
+      <c r="IK65" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48928,6 +49123,9 @@
       <c r="IJ66" t="n">
         <v>13</v>
       </c>
+      <c r="IK66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49664,6 +49862,9 @@
       <c r="IJ67" t="n">
         <v>10</v>
       </c>
+      <c r="IK67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50400,6 +50601,9 @@
       <c r="IJ68" t="n">
         <v>4</v>
       </c>
+      <c r="IK68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51136,6 +51340,9 @@
       <c r="IJ69" t="n">
         <v>3</v>
       </c>
+      <c r="IK69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51872,6 +52079,9 @@
       <c r="IJ70" t="n">
         <v>20</v>
       </c>
+      <c r="IK70" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52608,6 +52818,9 @@
       <c r="IJ71" t="n">
         <v>65</v>
       </c>
+      <c r="IK71" t="n">
+        <v>52.9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53344,6 +53557,9 @@
       <c r="IJ72" t="n">
         <v>27.15</v>
       </c>
+      <c r="IK72" t="n">
+        <v>43.11</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54080,6 +54296,9 @@
       <c r="IJ73" t="n">
         <v>17.65</v>
       </c>
+      <c r="IK73" t="n">
+        <v>22.82</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54816,6 +55035,9 @@
       <c r="IJ74" t="n">
         <v>36</v>
       </c>
+      <c r="IK74" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -55552,6 +55774,9 @@
       <c r="IJ75" t="n">
         <v>51</v>
       </c>
+      <c r="IK75" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56288,6 +56513,9 @@
       <c r="IJ76" t="n">
         <v>33</v>
       </c>
+      <c r="IK76" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57024,6 +57252,9 @@
       <c r="IJ77" t="n">
         <v>52</v>
       </c>
+      <c r="IK77" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57760,6 +57991,9 @@
       <c r="IJ78" t="n">
         <v>2.6</v>
       </c>
+      <c r="IK78" t="n">
+        <v>2.47</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58496,6 +58730,9 @@
       <c r="IJ79" t="n">
         <v>4</v>
       </c>
+      <c r="IK79" t="n">
+        <v>4.67</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -59232,6 +59469,9 @@
       <c r="IJ80" t="n">
         <v>32.7</v>
       </c>
+      <c r="IK80" t="n">
+        <v>38.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59968,6 +60208,9 @@
       <c r="IJ81" t="n">
         <v>25</v>
       </c>
+      <c r="IK81" t="n">
+        <v>21.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -60704,6 +60947,9 @@
       <c r="IJ82" t="n">
         <v>188.5</v>
       </c>
+      <c r="IK82" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -61440,6 +61686,9 @@
       <c r="IJ83" t="n">
         <v>87.3</v>
       </c>
+      <c r="IK83" t="n">
+        <v>85.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -62176,6 +62425,9 @@
       <c r="IJ84" t="n">
         <v>26.8</v>
       </c>
+      <c r="IK84" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62912,6 +63164,9 @@
       <c r="IJ85" t="n">
         <v>116.3</v>
       </c>
+      <c r="IK85" t="n">
+        <v>83.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -63648,6 +63903,9 @@
       <c r="IJ86" t="n">
         <v>7</v>
       </c>
+      <c r="IK86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -64384,6 +64642,9 @@
       <c r="IJ87" t="n">
         <v>5</v>
       </c>
+      <c r="IK87" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -65120,6 +65381,9 @@
       <c r="IJ88" t="n">
         <v>2</v>
       </c>
+      <c r="IK88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65856,6 +66120,9 @@
       <c r="IJ89" t="n">
         <v>8</v>
       </c>
+      <c r="IK89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -66592,6 +66859,9 @@
       <c r="IJ90" t="n">
         <v>137</v>
       </c>
+      <c r="IK90" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -67328,6 +67598,9 @@
       <c r="IJ91" t="n">
         <v>216</v>
       </c>
+      <c r="IK91" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -68064,6 +68337,9 @@
       <c r="IJ92" t="n">
         <v>265</v>
       </c>
+      <c r="IK92" t="n">
+        <v>278</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -68800,6 +69076,9 @@
       <c r="IJ93" t="n">
         <v>75.09999999999999</v>
       </c>
+      <c r="IK93" t="n">
+        <v>71.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -69536,6 +69815,9 @@
       <c r="IJ94" t="n">
         <v>51</v>
       </c>
+      <c r="IK94" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -70272,6 +70554,9 @@
       <c r="IJ95" t="n">
         <v>11</v>
       </c>
+      <c r="IK95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -71008,6 +71293,9 @@
       <c r="IJ96" t="n">
         <v>15</v>
       </c>
+      <c r="IK96" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -71744,6 +72032,9 @@
       <c r="IJ97" t="n">
         <v>36</v>
       </c>
+      <c r="IK97" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -72480,6 +72771,9 @@
       <c r="IJ98" t="n">
         <v>33</v>
       </c>
+      <c r="IK98" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -73216,6 +73510,9 @@
       <c r="IJ99" t="n">
         <v>44</v>
       </c>
+      <c r="IK99" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -73952,6 +74249,9 @@
       <c r="IJ100" t="n">
         <v>4</v>
       </c>
+      <c r="IK100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -74688,6 +74988,9 @@
       <c r="IJ101" t="n">
         <v>10</v>
       </c>
+      <c r="IK101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -75424,8 +75727,11 @@
       <c r="IJ102" t="n">
         <v>76.90000000000001</v>
       </c>
+      <c r="IK102" t="n">
+        <v>55.6</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/django_AFL_ML/Data/Richmond_stats.xlsx
+++ b/django_AFL_ML/Data/Richmond_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IL102"/>
+  <dimension ref="A1:IM102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1094,6 +1094,9 @@
       <c r="IL1" t="n">
         <v>10455</v>
       </c>
+      <c r="IM1" t="n">
+        <v>10467</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1836,6 +1839,9 @@
       <c r="IL2" t="n">
         <v>2021</v>
       </c>
+      <c r="IM2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2578,6 +2584,9 @@
       <c r="IL3" t="n">
         <v>16</v>
       </c>
+      <c r="IM3" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3320,6 +3329,9 @@
       <c r="IL4" t="n">
         <v>1</v>
       </c>
+      <c r="IM4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4062,6 +4074,9 @@
       <c r="IL5" t="n">
         <v>0</v>
       </c>
+      <c r="IM5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4804,6 +4819,9 @@
       <c r="IL6" t="n">
         <v>67</v>
       </c>
+      <c r="IM6" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5546,6 +5564,9 @@
       <c r="IL7" t="n">
         <v>77</v>
       </c>
+      <c r="IM7" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6288,6 +6309,9 @@
       <c r="IL8" t="n">
         <v>-10</v>
       </c>
+      <c r="IM8" t="n">
+        <v>-16</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7030,6 +7054,9 @@
       <c r="IL9" t="n">
         <v>0</v>
       </c>
+      <c r="IM9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7772,6 +7799,9 @@
       <c r="IL10" t="n">
         <v>8</v>
       </c>
+      <c r="IM10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8514,6 +8544,9 @@
       <c r="IL11" t="n">
         <v>187</v>
       </c>
+      <c r="IM11" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9256,6 +9289,9 @@
       <c r="IL12" t="n">
         <v>133</v>
       </c>
+      <c r="IM12" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9998,6 +10034,9 @@
       <c r="IL13" t="n">
         <v>320</v>
       </c>
+      <c r="IM13" t="n">
+        <v>343</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10740,6 +10779,9 @@
       <c r="IL14" t="n">
         <v>1.41</v>
       </c>
+      <c r="IM14" t="n">
+        <v>1.13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11482,6 +11524,9 @@
       <c r="IL15" t="n">
         <v>57</v>
       </c>
+      <c r="IM15" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12224,6 +12269,9 @@
       <c r="IL16" t="n">
         <v>48</v>
       </c>
+      <c r="IM16" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12966,6 +13014,9 @@
       <c r="IL17" t="n">
         <v>37</v>
       </c>
+      <c r="IM17" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13708,6 +13759,9 @@
       <c r="IL18" t="n">
         <v>22</v>
       </c>
+      <c r="IM18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14450,6 +14504,9 @@
       <c r="IL19" t="n">
         <v>29</v>
       </c>
+      <c r="IM19" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15192,6 +15249,9 @@
       <c r="IL20" t="n">
         <v>10</v>
       </c>
+      <c r="IM20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15934,6 +15994,9 @@
       <c r="IL21" t="n">
         <v>8</v>
       </c>
+      <c r="IM21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16676,6 +16739,9 @@
       <c r="IL22" t="n">
         <v>6</v>
       </c>
+      <c r="IM22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17418,6 +17484,9 @@
       <c r="IL23" t="n">
         <v>1</v>
       </c>
+      <c r="IM23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18160,6 +18229,9 @@
       <c r="IL24" t="n">
         <v>17</v>
       </c>
+      <c r="IM24" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18902,6 +18974,9 @@
       <c r="IL25" t="n">
         <v>58.8</v>
       </c>
+      <c r="IM25" t="n">
+        <v>68.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19644,6 +19719,9 @@
       <c r="IL26" t="n">
         <v>32</v>
       </c>
+      <c r="IM26" t="n">
+        <v>31.18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20386,6 +20464,9 @@
       <c r="IL27" t="n">
         <v>18.82</v>
       </c>
+      <c r="IM27" t="n">
+        <v>21.44</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21128,6 +21209,9 @@
       <c r="IL28" t="n">
         <v>30</v>
       </c>
+      <c r="IM28" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21870,6 +21954,9 @@
       <c r="IL29" t="n">
         <v>75</v>
       </c>
+      <c r="IM29" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22612,6 +22699,9 @@
       <c r="IL30" t="n">
         <v>54</v>
       </c>
+      <c r="IM30" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23354,6 +23444,9 @@
       <c r="IL31" t="n">
         <v>42</v>
       </c>
+      <c r="IM31" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24096,6 +24189,9 @@
       <c r="IL32" t="n">
         <v>2.47</v>
       </c>
+      <c r="IM32" t="n">
+        <v>3.19</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24838,6 +24934,9 @@
       <c r="IL33" t="n">
         <v>4.2</v>
       </c>
+      <c r="IM33" t="n">
+        <v>4.64</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25580,6 +25679,9 @@
       <c r="IL34" t="n">
         <v>38.1</v>
       </c>
+      <c r="IM34" t="n">
+        <v>25.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26322,6 +26424,9 @@
       <c r="IL35" t="n">
         <v>23.8</v>
       </c>
+      <c r="IM35" t="n">
+        <v>21.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27064,6 +27169,9 @@
       <c r="IL36" t="n">
         <v>186.1</v>
       </c>
+      <c r="IM36" t="n">
+        <v>185.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27806,6 +27914,9 @@
       <c r="IL37" t="n">
         <v>85.2</v>
       </c>
+      <c r="IM37" t="n">
+        <v>83.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28548,6 +28659,9 @@
       <c r="IL38" t="n">
         <v>26.49</v>
       </c>
+      <c r="IM38" t="n">
+        <v>25.66</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29290,6 +29404,9 @@
       <c r="IL39" t="n">
         <v>116.5</v>
       </c>
+      <c r="IM39" t="n">
+        <v>97.40000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30032,6 +30149,9 @@
       <c r="IL40" t="n">
         <v>8</v>
       </c>
+      <c r="IM40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30774,6 +30894,9 @@
       <c r="IL41" t="n">
         <v>3</v>
       </c>
+      <c r="IM41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31516,6 +31639,9 @@
       <c r="IL42" t="n">
         <v>4</v>
       </c>
+      <c r="IM42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32258,6 +32384,9 @@
       <c r="IL43" t="n">
         <v>8</v>
       </c>
+      <c r="IM43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33000,6 +33129,9 @@
       <c r="IL44" t="n">
         <v>130</v>
       </c>
+      <c r="IM44" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33742,6 +33874,9 @@
       <c r="IL45" t="n">
         <v>176</v>
       </c>
+      <c r="IM45" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34484,6 +34619,9 @@
       <c r="IL46" t="n">
         <v>229</v>
       </c>
+      <c r="IM46" t="n">
+        <v>260</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35226,6 +35364,9 @@
       <c r="IL47" t="n">
         <v>71.59999999999999</v>
       </c>
+      <c r="IM47" t="n">
+        <v>75.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35968,6 +36109,9 @@
       <c r="IL48" t="n">
         <v>75</v>
       </c>
+      <c r="IM48" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36710,6 +36854,9 @@
       <c r="IL49" t="n">
         <v>13</v>
       </c>
+      <c r="IM49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37452,6 +37599,9 @@
       <c r="IL50" t="n">
         <v>10</v>
       </c>
+      <c r="IM50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38194,6 +38344,9 @@
       <c r="IL51" t="n">
         <v>30</v>
       </c>
+      <c r="IM51" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38936,6 +39089,9 @@
       <c r="IL52" t="n">
         <v>54</v>
       </c>
+      <c r="IM52" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39678,6 +39834,9 @@
       <c r="IL53" t="n">
         <v>51</v>
       </c>
+      <c r="IM53" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40420,6 +40579,9 @@
       <c r="IL54" t="n">
         <v>8</v>
       </c>
+      <c r="IM54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41162,6 +41324,9 @@
       <c r="IL55" t="n">
         <v>8</v>
       </c>
+      <c r="IM55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41904,6 +42069,9 @@
       <c r="IL56" t="n">
         <v>80</v>
       </c>
+      <c r="IM56" t="n">
+        <v>54.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42646,6 +42814,9 @@
       <c r="IL57" t="n">
         <v>252</v>
       </c>
+      <c r="IM57" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43388,6 +43559,9 @@
       <c r="IL58" t="n">
         <v>109</v>
       </c>
+      <c r="IM58" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44130,6 +44304,9 @@
       <c r="IL59" t="n">
         <v>361</v>
       </c>
+      <c r="IM59" t="n">
+        <v>440</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44872,6 +45049,9 @@
       <c r="IL60" t="n">
         <v>2.31</v>
       </c>
+      <c r="IM60" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45614,6 +45794,9 @@
       <c r="IL61" t="n">
         <v>120</v>
       </c>
+      <c r="IM61" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46356,6 +46539,9 @@
       <c r="IL62" t="n">
         <v>66</v>
       </c>
+      <c r="IM62" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -47098,6 +47284,9 @@
       <c r="IL63" t="n">
         <v>29</v>
       </c>
+      <c r="IM63" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47840,6 +48029,9 @@
       <c r="IL64" t="n">
         <v>29</v>
       </c>
+      <c r="IM64" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48582,6 +48774,9 @@
       <c r="IL65" t="n">
         <v>22</v>
       </c>
+      <c r="IM65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -49324,6 +49519,9 @@
       <c r="IL66" t="n">
         <v>10</v>
       </c>
+      <c r="IM66" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -50066,6 +50264,9 @@
       <c r="IL67" t="n">
         <v>7</v>
       </c>
+      <c r="IM67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50808,6 +51009,9 @@
       <c r="IL68" t="n">
         <v>14</v>
       </c>
+      <c r="IM68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51550,6 +51754,9 @@
       <c r="IL69" t="n">
         <v>3</v>
       </c>
+      <c r="IM69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -52292,6 +52499,9 @@
       <c r="IL70" t="n">
         <v>27</v>
       </c>
+      <c r="IM70" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -53034,6 +53244,9 @@
       <c r="IL71" t="n">
         <v>37</v>
       </c>
+      <c r="IM71" t="n">
+        <v>59.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53776,6 +53989,9 @@
       <c r="IL72" t="n">
         <v>36.1</v>
       </c>
+      <c r="IM72" t="n">
+        <v>33.85</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54518,6 +54734,9 @@
       <c r="IL73" t="n">
         <v>13.37</v>
       </c>
+      <c r="IM73" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -55260,6 +55479,9 @@
       <c r="IL74" t="n">
         <v>36</v>
       </c>
+      <c r="IM74" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -56002,6 +56224,9 @@
       <c r="IL75" t="n">
         <v>50</v>
       </c>
+      <c r="IM75" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56744,6 +56969,9 @@
       <c r="IL76" t="n">
         <v>30</v>
       </c>
+      <c r="IM76" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57486,6 +57714,9 @@
       <c r="IL77" t="n">
         <v>64</v>
       </c>
+      <c r="IM77" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -58228,6 +58459,9 @@
       <c r="IL78" t="n">
         <v>2.37</v>
       </c>
+      <c r="IM78" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58970,6 +59204,9 @@
       <c r="IL79" t="n">
         <v>6.4</v>
       </c>
+      <c r="IM79" t="n">
+        <v>4.23</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -59712,6 +59949,9 @@
       <c r="IL80" t="n">
         <v>37.5</v>
       </c>
+      <c r="IM80" t="n">
+        <v>38.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -60454,6 +60694,9 @@
       <c r="IL81" t="n">
         <v>15.6</v>
       </c>
+      <c r="IM81" t="n">
+        <v>23.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -61196,6 +61439,9 @@
       <c r="IL82" t="n">
         <v>186.6</v>
       </c>
+      <c r="IM82" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -61938,6 +62184,9 @@
       <c r="IL83" t="n">
         <v>84</v>
       </c>
+      <c r="IM83" t="n">
+        <v>86.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -62680,6 +62929,9 @@
       <c r="IL84" t="n">
         <v>24.16</v>
       </c>
+      <c r="IM84" t="n">
+        <v>26.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -63422,6 +63674,9 @@
       <c r="IL85" t="n">
         <v>70.8</v>
       </c>
+      <c r="IM85" t="n">
+        <v>106.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -64164,6 +64419,9 @@
       <c r="IL86" t="n">
         <v>8</v>
       </c>
+      <c r="IM86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -64906,6 +65164,9 @@
       <c r="IL87" t="n">
         <v>9</v>
       </c>
+      <c r="IM87" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -65648,6 +65909,9 @@
       <c r="IL88" t="n">
         <v>4</v>
       </c>
+      <c r="IM88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -66390,6 +66654,9 @@
       <c r="IL89" t="n">
         <v>2</v>
       </c>
+      <c r="IM89" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -67132,6 +67399,9 @@
       <c r="IL90" t="n">
         <v>146</v>
       </c>
+      <c r="IM90" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -67874,6 +68144,9 @@
       <c r="IL91" t="n">
         <v>211</v>
       </c>
+      <c r="IM91" t="n">
+        <v>296</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -68616,6 +68889,9 @@
       <c r="IL92" t="n">
         <v>256</v>
       </c>
+      <c r="IM92" t="n">
+        <v>331</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -69358,6 +69634,9 @@
       <c r="IL93" t="n">
         <v>70.90000000000001</v>
       </c>
+      <c r="IM93" t="n">
+        <v>75.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -70100,6 +70379,9 @@
       <c r="IL94" t="n">
         <v>50</v>
       </c>
+      <c r="IM94" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -70842,6 +71124,9 @@
       <c r="IL95" t="n">
         <v>18</v>
       </c>
+      <c r="IM95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -71584,6 +71869,9 @@
       <c r="IL96" t="n">
         <v>14</v>
       </c>
+      <c r="IM96" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -72326,6 +72614,9 @@
       <c r="IL97" t="n">
         <v>36</v>
       </c>
+      <c r="IM97" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -73068,6 +73359,9 @@
       <c r="IL98" t="n">
         <v>30</v>
       </c>
+      <c r="IM98" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -73810,6 +74104,9 @@
       <c r="IL99" t="n">
         <v>42</v>
       </c>
+      <c r="IM99" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -74552,6 +74849,9 @@
       <c r="IL100" t="n">
         <v>5</v>
       </c>
+      <c r="IM100" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -75294,6 +75594,9 @@
       <c r="IL101" t="n">
         <v>7</v>
       </c>
+      <c r="IM101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -76036,6 +76339,9 @@
       <c r="IL102" t="n">
         <v>70</v>
       </c>
+      <c r="IM102" t="n">
+        <v>61.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Richmond_stats.xlsx
+++ b/django_AFL_ML/Data/Richmond_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IM102"/>
+  <dimension ref="A1:IN102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1097,6 +1097,9 @@
       <c r="IM1" t="n">
         <v>10467</v>
       </c>
+      <c r="IN1" t="n">
+        <v>10476</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1842,6 +1845,9 @@
       <c r="IM2" t="n">
         <v>2021</v>
       </c>
+      <c r="IN2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2587,6 +2593,9 @@
       <c r="IM3" t="n">
         <v>17</v>
       </c>
+      <c r="IN3" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3332,6 +3341,9 @@
       <c r="IM4" t="n">
         <v>0</v>
       </c>
+      <c r="IN4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4077,6 +4089,9 @@
       <c r="IM5" t="n">
         <v>1</v>
       </c>
+      <c r="IN5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4822,6 +4837,9 @@
       <c r="IM6" t="n">
         <v>71</v>
       </c>
+      <c r="IN6" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5567,6 +5585,9 @@
       <c r="IM7" t="n">
         <v>87</v>
       </c>
+      <c r="IN7" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6312,6 +6333,9 @@
       <c r="IM8" t="n">
         <v>-16</v>
       </c>
+      <c r="IN8" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7057,6 +7081,9 @@
       <c r="IM9" t="n">
         <v>0</v>
       </c>
+      <c r="IN9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7802,6 +7829,9 @@
       <c r="IM10" t="n">
         <v>4</v>
       </c>
+      <c r="IN10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8547,6 +8577,9 @@
       <c r="IM11" t="n">
         <v>182</v>
       </c>
+      <c r="IN11" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9292,6 +9325,9 @@
       <c r="IM12" t="n">
         <v>161</v>
       </c>
+      <c r="IN12" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10037,6 +10073,9 @@
       <c r="IM13" t="n">
         <v>343</v>
       </c>
+      <c r="IN13" t="n">
+        <v>340</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10782,6 +10821,9 @@
       <c r="IM14" t="n">
         <v>1.13</v>
       </c>
+      <c r="IN14" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11527,6 +11569,9 @@
       <c r="IM15" t="n">
         <v>64</v>
       </c>
+      <c r="IN15" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12272,6 +12317,9 @@
       <c r="IM16" t="n">
         <v>53</v>
       </c>
+      <c r="IN16" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13017,6 +13065,9 @@
       <c r="IM17" t="n">
         <v>18</v>
       </c>
+      <c r="IN17" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13762,6 +13813,9 @@
       <c r="IM18" t="n">
         <v>16</v>
       </c>
+      <c r="IN18" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14507,6 +14561,9 @@
       <c r="IM19" t="n">
         <v>24</v>
       </c>
+      <c r="IN19" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15252,6 +15309,9 @@
       <c r="IM20" t="n">
         <v>11</v>
       </c>
+      <c r="IN20" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15997,6 +16057,9 @@
       <c r="IM21" t="n">
         <v>6</v>
       </c>
+      <c r="IN21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16742,6 +16805,9 @@
       <c r="IM22" t="n">
         <v>2</v>
       </c>
+      <c r="IN22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17487,6 +17553,9 @@
       <c r="IM23" t="n">
         <v>3</v>
       </c>
+      <c r="IN23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18232,6 +18301,9 @@
       <c r="IM24" t="n">
         <v>16</v>
       </c>
+      <c r="IN24" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18977,6 +19049,9 @@
       <c r="IM25" t="n">
         <v>68.8</v>
       </c>
+      <c r="IN25" t="n">
+        <v>61.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19722,6 +19797,9 @@
       <c r="IM26" t="n">
         <v>31.18</v>
       </c>
+      <c r="IN26" t="n">
+        <v>21.25</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20467,6 +20545,9 @@
       <c r="IM27" t="n">
         <v>21.44</v>
       </c>
+      <c r="IN27" t="n">
+        <v>13.08</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21212,6 +21293,9 @@
       <c r="IM28" t="n">
         <v>30</v>
       </c>
+      <c r="IN28" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21957,6 +22041,9 @@
       <c r="IM29" t="n">
         <v>62</v>
       </c>
+      <c r="IN29" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22702,6 +22789,9 @@
       <c r="IM30" t="n">
         <v>42</v>
       </c>
+      <c r="IN30" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23447,6 +23537,9 @@
       <c r="IM31" t="n">
         <v>51</v>
       </c>
+      <c r="IN31" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24192,6 +24285,9 @@
       <c r="IM32" t="n">
         <v>3.19</v>
       </c>
+      <c r="IN32" t="n">
+        <v>2.35</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24937,6 +25033,9 @@
       <c r="IM33" t="n">
         <v>4.64</v>
       </c>
+      <c r="IN33" t="n">
+        <v>3.81</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25682,6 +25781,9 @@
       <c r="IM34" t="n">
         <v>25.5</v>
       </c>
+      <c r="IN34" t="n">
+        <v>36.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26427,6 +26529,9 @@
       <c r="IM35" t="n">
         <v>21.6</v>
       </c>
+      <c r="IN35" t="n">
+        <v>26.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27172,6 +27277,9 @@
       <c r="IM36" t="n">
         <v>185.2</v>
       </c>
+      <c r="IN36" t="n">
+        <v>185.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27917,6 +28025,9 @@
       <c r="IM37" t="n">
         <v>83.2</v>
       </c>
+      <c r="IN37" t="n">
+        <v>84.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28662,6 +28773,9 @@
       <c r="IM38" t="n">
         <v>25.66</v>
       </c>
+      <c r="IN38" t="n">
+        <v>26.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29407,6 +29521,9 @@
       <c r="IM39" t="n">
         <v>97.40000000000001</v>
       </c>
+      <c r="IN39" t="n">
+        <v>104.4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30152,6 +30269,9 @@
       <c r="IM40" t="n">
         <v>9</v>
       </c>
+      <c r="IN40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30897,6 +31017,9 @@
       <c r="IM41" t="n">
         <v>3</v>
       </c>
+      <c r="IN41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31642,6 +31765,9 @@
       <c r="IM42" t="n">
         <v>4</v>
       </c>
+      <c r="IN42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32387,6 +32513,9 @@
       <c r="IM43" t="n">
         <v>6</v>
       </c>
+      <c r="IN43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33132,6 +33261,9 @@
       <c r="IM44" t="n">
         <v>128</v>
       </c>
+      <c r="IN44" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33877,6 +34009,9 @@
       <c r="IM45" t="n">
         <v>210</v>
       </c>
+      <c r="IN45" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34622,6 +34757,9 @@
       <c r="IM46" t="n">
         <v>260</v>
       </c>
+      <c r="IN46" t="n">
+        <v>244</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35367,6 +35505,9 @@
       <c r="IM47" t="n">
         <v>75.8</v>
       </c>
+      <c r="IN47" t="n">
+        <v>71.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36112,6 +36253,9 @@
       <c r="IM48" t="n">
         <v>62</v>
       </c>
+      <c r="IN48" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36857,6 +37001,9 @@
       <c r="IM49" t="n">
         <v>9</v>
       </c>
+      <c r="IN49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37602,6 +37749,9 @@
       <c r="IM50" t="n">
         <v>10</v>
       </c>
+      <c r="IN50" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38347,6 +38497,9 @@
       <c r="IM51" t="n">
         <v>30</v>
       </c>
+      <c r="IN51" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -39092,6 +39245,9 @@
       <c r="IM52" t="n">
         <v>42</v>
       </c>
+      <c r="IN52" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39837,6 +39993,9 @@
       <c r="IM53" t="n">
         <v>49</v>
       </c>
+      <c r="IN53" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40582,6 +40741,9 @@
       <c r="IM54" t="n">
         <v>3</v>
       </c>
+      <c r="IN54" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41327,6 +41489,9 @@
       <c r="IM55" t="n">
         <v>6</v>
       </c>
+      <c r="IN55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -42072,6 +42237,9 @@
       <c r="IM56" t="n">
         <v>54.5</v>
       </c>
+      <c r="IN56" t="n">
+        <v>56.2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42817,6 +42985,9 @@
       <c r="IM57" t="n">
         <v>240</v>
       </c>
+      <c r="IN57" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43562,6 +43733,9 @@
       <c r="IM58" t="n">
         <v>200</v>
       </c>
+      <c r="IN58" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44307,6 +44481,9 @@
       <c r="IM59" t="n">
         <v>440</v>
       </c>
+      <c r="IN59" t="n">
+        <v>342</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -45052,6 +45229,9 @@
       <c r="IM60" t="n">
         <v>1.2</v>
       </c>
+      <c r="IN60" t="n">
+        <v>1.87</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45797,6 +45977,9 @@
       <c r="IM61" t="n">
         <v>122</v>
       </c>
+      <c r="IN61" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46542,6 +46725,9 @@
       <c r="IM62" t="n">
         <v>54</v>
       </c>
+      <c r="IN62" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -47287,6 +47473,9 @@
       <c r="IM63" t="n">
         <v>45</v>
       </c>
+      <c r="IN63" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -48032,6 +48221,9 @@
       <c r="IM64" t="n">
         <v>24</v>
       </c>
+      <c r="IN64" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48777,6 +48969,9 @@
       <c r="IM65" t="n">
         <v>16</v>
       </c>
+      <c r="IN65" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -49522,6 +49717,9 @@
       <c r="IM66" t="n">
         <v>13</v>
       </c>
+      <c r="IN66" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -50267,6 +50465,9 @@
       <c r="IM67" t="n">
         <v>8</v>
       </c>
+      <c r="IN67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -51012,6 +51213,9 @@
       <c r="IM68" t="n">
         <v>8</v>
       </c>
+      <c r="IN68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51757,6 +51961,9 @@
       <c r="IM69" t="n">
         <v>1</v>
       </c>
+      <c r="IN69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -52502,6 +52709,9 @@
       <c r="IM70" t="n">
         <v>22</v>
       </c>
+      <c r="IN70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -53247,6 +53457,9 @@
       <c r="IM71" t="n">
         <v>59.1</v>
       </c>
+      <c r="IN71" t="n">
+        <v>61.9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53992,6 +54205,9 @@
       <c r="IM72" t="n">
         <v>33.85</v>
       </c>
+      <c r="IN72" t="n">
+        <v>26.31</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54737,6 +54953,9 @@
       <c r="IM73" t="n">
         <v>20</v>
       </c>
+      <c r="IN73" t="n">
+        <v>16.29</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -55482,6 +55701,9 @@
       <c r="IM74" t="n">
         <v>35</v>
       </c>
+      <c r="IN74" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -56227,6 +56449,9 @@
       <c r="IM75" t="n">
         <v>62</v>
       </c>
+      <c r="IN75" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56972,6 +57197,9 @@
       <c r="IM76" t="n">
         <v>40</v>
       </c>
+      <c r="IN76" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57717,6 +57945,9 @@
       <c r="IM77" t="n">
         <v>55</v>
       </c>
+      <c r="IN77" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -58462,6 +58693,9 @@
       <c r="IM78" t="n">
         <v>2.5</v>
       </c>
+      <c r="IN78" t="n">
+        <v>2.52</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -59207,6 +59441,9 @@
       <c r="IM79" t="n">
         <v>4.23</v>
       </c>
+      <c r="IN79" t="n">
+        <v>4.08</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -59952,6 +60189,9 @@
       <c r="IM80" t="n">
         <v>38.2</v>
       </c>
+      <c r="IN80" t="n">
+        <v>37.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -60697,6 +60937,9 @@
       <c r="IM81" t="n">
         <v>23.6</v>
       </c>
+      <c r="IN81" t="n">
+        <v>24.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -61442,6 +61685,9 @@
       <c r="IM82" t="n">
         <v>187.9</v>
       </c>
+      <c r="IN82" t="n">
+        <v>188.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -62187,6 +62433,9 @@
       <c r="IM83" t="n">
         <v>86.40000000000001</v>
       </c>
+      <c r="IN83" t="n">
+        <v>87.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -62932,6 +63181,9 @@
       <c r="IM84" t="n">
         <v>26.8</v>
       </c>
+      <c r="IN84" t="n">
+        <v>25.91</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -63677,6 +63929,9 @@
       <c r="IM85" t="n">
         <v>106.8</v>
       </c>
+      <c r="IN85" t="n">
+        <v>109.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -64422,6 +64677,9 @@
       <c r="IM86" t="n">
         <v>9</v>
       </c>
+      <c r="IN86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -65167,6 +65425,9 @@
       <c r="IM87" t="n">
         <v>2</v>
       </c>
+      <c r="IN87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -65912,6 +66173,9 @@
       <c r="IM88" t="n">
         <v>4</v>
       </c>
+      <c r="IN88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -66657,6 +66921,9 @@
       <c r="IM89" t="n">
         <v>8</v>
       </c>
+      <c r="IN89" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -67402,6 +67669,9 @@
       <c r="IM90" t="n">
         <v>153</v>
       </c>
+      <c r="IN90" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -68147,6 +68417,9 @@
       <c r="IM91" t="n">
         <v>296</v>
       </c>
+      <c r="IN91" t="n">
+        <v>202</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -68892,6 +69165,9 @@
       <c r="IM92" t="n">
         <v>331</v>
       </c>
+      <c r="IN92" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -69637,6 +69913,9 @@
       <c r="IM93" t="n">
         <v>75.2</v>
       </c>
+      <c r="IN93" t="n">
+        <v>69.90000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -70382,6 +70661,9 @@
       <c r="IM94" t="n">
         <v>62</v>
       </c>
+      <c r="IN94" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -71127,6 +71409,9 @@
       <c r="IM95" t="n">
         <v>12</v>
       </c>
+      <c r="IN95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -71872,6 +72157,9 @@
       <c r="IM96" t="n">
         <v>13</v>
       </c>
+      <c r="IN96" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -72617,6 +72905,9 @@
       <c r="IM97" t="n">
         <v>35</v>
       </c>
+      <c r="IN97" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -73362,6 +73653,9 @@
       <c r="IM98" t="n">
         <v>40</v>
       </c>
+      <c r="IN98" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -74107,6 +74401,9 @@
       <c r="IM99" t="n">
         <v>47</v>
       </c>
+      <c r="IN99" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -74852,6 +75149,9 @@
       <c r="IM100" t="n">
         <v>6</v>
       </c>
+      <c r="IN100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -75597,6 +75897,9 @@
       <c r="IM101" t="n">
         <v>8</v>
       </c>
+      <c r="IN101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -76342,6 +76645,9 @@
       <c r="IM102" t="n">
         <v>61.5</v>
       </c>
+      <c r="IN102" t="n">
+        <v>76.90000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Richmond_stats.xlsx
+++ b/django_AFL_ML/Data/Richmond_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IN102"/>
+  <dimension ref="A1:IO102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1100,6 +1100,9 @@
       <c r="IN1" t="n">
         <v>10476</v>
       </c>
+      <c r="IO1" t="n">
+        <v>10482</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1848,6 +1851,9 @@
       <c r="IN2" t="n">
         <v>2021</v>
       </c>
+      <c r="IO2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2596,6 +2602,9 @@
       <c r="IN3" t="n">
         <v>18</v>
       </c>
+      <c r="IO3" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3344,6 +3353,9 @@
       <c r="IN4" t="n">
         <v>0</v>
       </c>
+      <c r="IO4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4092,6 +4104,9 @@
       <c r="IN5" t="n">
         <v>0</v>
       </c>
+      <c r="IO5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4840,6 +4855,9 @@
       <c r="IN6" t="n">
         <v>106</v>
       </c>
+      <c r="IO6" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5588,6 +5606,9 @@
       <c r="IN7" t="n">
         <v>86</v>
       </c>
+      <c r="IO7" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6336,6 +6357,9 @@
       <c r="IN8" t="n">
         <v>20</v>
       </c>
+      <c r="IO8" t="n">
+        <v>-38</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7084,6 +7108,9 @@
       <c r="IN9" t="n">
         <v>1</v>
       </c>
+      <c r="IO9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7832,6 +7859,9 @@
       <c r="IN10" t="n">
         <v>2</v>
       </c>
+      <c r="IO10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8580,6 +8610,9 @@
       <c r="IN11" t="n">
         <v>200</v>
       </c>
+      <c r="IO11" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9328,6 +9361,9 @@
       <c r="IN12" t="n">
         <v>140</v>
       </c>
+      <c r="IO12" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10076,6 +10112,9 @@
       <c r="IN13" t="n">
         <v>340</v>
       </c>
+      <c r="IO13" t="n">
+        <v>331</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10824,6 +10863,9 @@
       <c r="IN14" t="n">
         <v>1.43</v>
       </c>
+      <c r="IO14" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11572,6 +11614,9 @@
       <c r="IN15" t="n">
         <v>82</v>
       </c>
+      <c r="IO15" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12320,6 +12365,9 @@
       <c r="IN16" t="n">
         <v>57</v>
       </c>
+      <c r="IO16" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13068,6 +13116,9 @@
       <c r="IN17" t="n">
         <v>37</v>
       </c>
+      <c r="IO17" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13816,6 +13867,9 @@
       <c r="IN18" t="n">
         <v>25</v>
       </c>
+      <c r="IO18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14564,6 +14618,9 @@
       <c r="IN19" t="n">
         <v>23</v>
       </c>
+      <c r="IO19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15312,6 +15369,9 @@
       <c r="IN20" t="n">
         <v>16</v>
       </c>
+      <c r="IO20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16060,6 +16120,9 @@
       <c r="IN21" t="n">
         <v>9</v>
       </c>
+      <c r="IO21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16808,6 +16871,9 @@
       <c r="IN22" t="n">
         <v>6</v>
       </c>
+      <c r="IO22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17556,6 +17622,9 @@
       <c r="IN23" t="n">
         <v>4</v>
       </c>
+      <c r="IO23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18304,6 +18373,9 @@
       <c r="IN24" t="n">
         <v>26</v>
       </c>
+      <c r="IO24" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19052,6 +19124,9 @@
       <c r="IN25" t="n">
         <v>61.5</v>
       </c>
+      <c r="IO25" t="n">
+        <v>47.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19800,6 +19875,9 @@
       <c r="IN26" t="n">
         <v>21.25</v>
       </c>
+      <c r="IO26" t="n">
+        <v>41.38</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20548,6 +20626,9 @@
       <c r="IN27" t="n">
         <v>13.08</v>
       </c>
+      <c r="IO27" t="n">
+        <v>19.47</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21296,6 +21377,9 @@
       <c r="IN28" t="n">
         <v>41</v>
       </c>
+      <c r="IO28" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22044,6 +22128,9 @@
       <c r="IN29" t="n">
         <v>59</v>
       </c>
+      <c r="IO29" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22792,6 +22879,9 @@
       <c r="IN30" t="n">
         <v>39</v>
       </c>
+      <c r="IO30" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23540,6 +23630,9 @@
       <c r="IN31" t="n">
         <v>61</v>
       </c>
+      <c r="IO31" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24288,6 +24381,9 @@
       <c r="IN32" t="n">
         <v>2.35</v>
       </c>
+      <c r="IO32" t="n">
+        <v>2.71</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25036,6 +25132,9 @@
       <c r="IN33" t="n">
         <v>3.81</v>
       </c>
+      <c r="IO33" t="n">
+        <v>5.75</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25784,6 +25883,9 @@
       <c r="IN34" t="n">
         <v>36.1</v>
       </c>
+      <c r="IO34" t="n">
+        <v>34.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26532,6 +26634,9 @@
       <c r="IN35" t="n">
         <v>26.2</v>
       </c>
+      <c r="IO35" t="n">
+        <v>17.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27280,6 +27385,9 @@
       <c r="IN36" t="n">
         <v>185.9</v>
       </c>
+      <c r="IO36" t="n">
+        <v>185.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28028,6 +28136,9 @@
       <c r="IN37" t="n">
         <v>84.09999999999999</v>
       </c>
+      <c r="IO37" t="n">
+        <v>83.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28776,6 +28887,9 @@
       <c r="IN38" t="n">
         <v>26.24</v>
       </c>
+      <c r="IO38" t="n">
+        <v>26.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29524,6 +29638,9 @@
       <c r="IN39" t="n">
         <v>104.4</v>
       </c>
+      <c r="IO39" t="n">
+        <v>105.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30272,6 +30389,9 @@
       <c r="IN40" t="n">
         <v>8</v>
       </c>
+      <c r="IO40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31020,6 +31140,9 @@
       <c r="IN41" t="n">
         <v>4</v>
       </c>
+      <c r="IO41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31768,6 +31891,9 @@
       <c r="IN42" t="n">
         <v>5</v>
       </c>
+      <c r="IO42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32516,6 +32642,9 @@
       <c r="IN43" t="n">
         <v>6</v>
       </c>
+      <c r="IO43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33264,6 +33393,9 @@
       <c r="IN44" t="n">
         <v>134</v>
       </c>
+      <c r="IO44" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -34012,6 +34144,9 @@
       <c r="IN45" t="n">
         <v>203</v>
       </c>
+      <c r="IO45" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34760,6 +34895,9 @@
       <c r="IN46" t="n">
         <v>244</v>
       </c>
+      <c r="IO46" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35508,6 +35646,9 @@
       <c r="IN47" t="n">
         <v>71.8</v>
       </c>
+      <c r="IO47" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36256,6 +36397,9 @@
       <c r="IN48" t="n">
         <v>59</v>
       </c>
+      <c r="IO48" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -37004,6 +37148,9 @@
       <c r="IN49" t="n">
         <v>13</v>
       </c>
+      <c r="IO49" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37752,6 +37899,9 @@
       <c r="IN50" t="n">
         <v>16</v>
       </c>
+      <c r="IO50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38500,6 +38650,9 @@
       <c r="IN51" t="n">
         <v>41</v>
       </c>
+      <c r="IO51" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -39248,6 +39401,9 @@
       <c r="IN52" t="n">
         <v>39</v>
       </c>
+      <c r="IO52" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39996,6 +40152,9 @@
       <c r="IN53" t="n">
         <v>47</v>
       </c>
+      <c r="IO53" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40744,6 +40903,9 @@
       <c r="IN54" t="n">
         <v>9</v>
       </c>
+      <c r="IO54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41492,6 +41654,9 @@
       <c r="IN55" t="n">
         <v>9</v>
       </c>
+      <c r="IO55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -42240,6 +42405,9 @@
       <c r="IN56" t="n">
         <v>56.2</v>
       </c>
+      <c r="IO56" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42988,6 +43156,9 @@
       <c r="IN57" t="n">
         <v>223</v>
       </c>
+      <c r="IO57" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43736,6 +43907,9 @@
       <c r="IN58" t="n">
         <v>119</v>
       </c>
+      <c r="IO58" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44484,6 +44658,9 @@
       <c r="IN59" t="n">
         <v>342</v>
       </c>
+      <c r="IO59" t="n">
+        <v>386</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -45232,6 +45409,9 @@
       <c r="IN60" t="n">
         <v>1.87</v>
       </c>
+      <c r="IO60" t="n">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45980,6 +46160,9 @@
       <c r="IN61" t="n">
         <v>95</v>
       </c>
+      <c r="IO61" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46728,6 +46911,9 @@
       <c r="IN62" t="n">
         <v>49</v>
       </c>
+      <c r="IO62" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -47476,6 +47662,9 @@
       <c r="IN63" t="n">
         <v>38</v>
       </c>
+      <c r="IO63" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -48224,6 +48413,9 @@
       <c r="IN64" t="n">
         <v>23</v>
       </c>
+      <c r="IO64" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48972,6 +49164,9 @@
       <c r="IN65" t="n">
         <v>25</v>
       </c>
+      <c r="IO65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -49720,6 +49915,9 @@
       <c r="IN66" t="n">
         <v>13</v>
       </c>
+      <c r="IO66" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -50468,6 +50666,9 @@
       <c r="IN67" t="n">
         <v>10</v>
       </c>
+      <c r="IO67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -51216,6 +51417,9 @@
       <c r="IN68" t="n">
         <v>7</v>
       </c>
+      <c r="IO68" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51964,6 +52168,9 @@
       <c r="IN69" t="n">
         <v>1</v>
       </c>
+      <c r="IO69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -52712,6 +52919,9 @@
       <c r="IN70" t="n">
         <v>21</v>
       </c>
+      <c r="IO70" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -53460,6 +53670,9 @@
       <c r="IN71" t="n">
         <v>61.9</v>
       </c>
+      <c r="IO71" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -54208,6 +54421,9 @@
       <c r="IN72" t="n">
         <v>26.31</v>
       </c>
+      <c r="IO72" t="n">
+        <v>25.73</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54956,6 +55172,9 @@
       <c r="IN73" t="n">
         <v>16.29</v>
       </c>
+      <c r="IO73" t="n">
+        <v>19.3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -55704,6 +55923,9 @@
       <c r="IN74" t="n">
         <v>47</v>
       </c>
+      <c r="IO74" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -56452,6 +56674,9 @@
       <c r="IN75" t="n">
         <v>70</v>
       </c>
+      <c r="IO75" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -57200,6 +57425,9 @@
       <c r="IN76" t="n">
         <v>44</v>
       </c>
+      <c r="IO76" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57948,6 +58176,9 @@
       <c r="IN77" t="n">
         <v>53</v>
       </c>
+      <c r="IO77" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -58696,6 +58927,9 @@
       <c r="IN78" t="n">
         <v>2.52</v>
       </c>
+      <c r="IO78" t="n">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -59444,6 +59678,9 @@
       <c r="IN79" t="n">
         <v>4.08</v>
       </c>
+      <c r="IO79" t="n">
+        <v>3.47</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -60192,6 +60429,9 @@
       <c r="IN80" t="n">
         <v>37.7</v>
       </c>
+      <c r="IO80" t="n">
+        <v>36.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -60940,6 +61180,9 @@
       <c r="IN81" t="n">
         <v>24.5</v>
       </c>
+      <c r="IO81" t="n">
+        <v>28.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -61688,6 +61931,9 @@
       <c r="IN82" t="n">
         <v>188.1</v>
       </c>
+      <c r="IO82" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -62436,6 +62682,9 @@
       <c r="IN83" t="n">
         <v>87.7</v>
       </c>
+      <c r="IO83" t="n">
+        <v>88.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -63184,6 +63433,9 @@
       <c r="IN84" t="n">
         <v>25.91</v>
       </c>
+      <c r="IO84" t="n">
+        <v>27.91</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -63932,6 +64184,9 @@
       <c r="IN85" t="n">
         <v>109.2</v>
       </c>
+      <c r="IO85" t="n">
+        <v>146.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -64680,6 +64935,9 @@
       <c r="IN86" t="n">
         <v>7</v>
       </c>
+      <c r="IO86" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -65428,6 +65686,9 @@
       <c r="IN87" t="n">
         <v>4</v>
       </c>
+      <c r="IO87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -66176,6 +66437,9 @@
       <c r="IN88" t="n">
         <v>4</v>
       </c>
+      <c r="IO88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -66924,6 +67188,9 @@
       <c r="IN89" t="n">
         <v>7</v>
       </c>
+      <c r="IO89" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -67672,6 +67939,9 @@
       <c r="IN90" t="n">
         <v>134</v>
       </c>
+      <c r="IO90" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -68420,6 +68690,9 @@
       <c r="IN91" t="n">
         <v>202</v>
       </c>
+      <c r="IO91" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -69168,6 +69441,9 @@
       <c r="IN92" t="n">
         <v>239</v>
       </c>
+      <c r="IO92" t="n">
+        <v>283</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -69916,6 +70192,9 @@
       <c r="IN93" t="n">
         <v>69.90000000000001</v>
       </c>
+      <c r="IO93" t="n">
+        <v>73.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -70664,6 +70943,9 @@
       <c r="IN94" t="n">
         <v>70</v>
       </c>
+      <c r="IO94" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -71412,6 +71694,9 @@
       <c r="IN95" t="n">
         <v>10</v>
       </c>
+      <c r="IO95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -72160,6 +72445,9 @@
       <c r="IN96" t="n">
         <v>17</v>
       </c>
+      <c r="IO96" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -72908,6 +73196,9 @@
       <c r="IN97" t="n">
         <v>47</v>
       </c>
+      <c r="IO97" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -73656,6 +73947,9 @@
       <c r="IN98" t="n">
         <v>44</v>
       </c>
+      <c r="IO98" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -74404,6 +74698,9 @@
       <c r="IN99" t="n">
         <v>52</v>
       </c>
+      <c r="IO99" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -75152,6 +75449,9 @@
       <c r="IN100" t="n">
         <v>3</v>
       </c>
+      <c r="IO100" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -75900,6 +76200,9 @@
       <c r="IN101" t="n">
         <v>10</v>
       </c>
+      <c r="IO101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -76648,6 +76951,9 @@
       <c r="IN102" t="n">
         <v>76.90000000000001</v>
       </c>
+      <c r="IO102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Richmond_stats.xlsx
+++ b/django_AFL_ML/Data/Richmond_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IO102"/>
+  <dimension ref="A1:IP102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,6 +1103,9 @@
       <c r="IO1" t="n">
         <v>10482</v>
       </c>
+      <c r="IP1" t="n">
+        <v>10497</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1854,6 +1857,9 @@
       <c r="IO2" t="n">
         <v>2021</v>
       </c>
+      <c r="IP2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2605,6 +2611,9 @@
       <c r="IO3" t="n">
         <v>19</v>
       </c>
+      <c r="IP3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3356,6 +3365,9 @@
       <c r="IO4" t="n">
         <v>1</v>
       </c>
+      <c r="IP4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4107,6 +4119,9 @@
       <c r="IO5" t="n">
         <v>0</v>
       </c>
+      <c r="IP5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4858,6 +4873,9 @@
       <c r="IO6" t="n">
         <v>57</v>
       </c>
+      <c r="IP6" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5609,6 +5627,9 @@
       <c r="IO7" t="n">
         <v>95</v>
       </c>
+      <c r="IP7" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6360,6 +6381,9 @@
       <c r="IO8" t="n">
         <v>-38</v>
       </c>
+      <c r="IP8" t="n">
+        <v>-4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7111,6 +7135,9 @@
       <c r="IO9" t="n">
         <v>0</v>
       </c>
+      <c r="IP9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7862,6 +7889,9 @@
       <c r="IO10" t="n">
         <v>7</v>
       </c>
+      <c r="IP10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8613,6 +8643,9 @@
       <c r="IO11" t="n">
         <v>180</v>
       </c>
+      <c r="IP11" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9364,6 +9397,9 @@
       <c r="IO12" t="n">
         <v>151</v>
       </c>
+      <c r="IP12" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10115,6 +10151,9 @@
       <c r="IO13" t="n">
         <v>331</v>
       </c>
+      <c r="IP13" t="n">
+        <v>367</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10866,6 +10905,9 @@
       <c r="IO14" t="n">
         <v>1.19</v>
       </c>
+      <c r="IP14" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11617,6 +11659,9 @@
       <c r="IO15" t="n">
         <v>79</v>
       </c>
+      <c r="IP15" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12368,6 +12413,9 @@
       <c r="IO16" t="n">
         <v>60</v>
       </c>
+      <c r="IP16" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13119,6 +13167,9 @@
       <c r="IO17" t="n">
         <v>25</v>
       </c>
+      <c r="IP17" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13870,6 +13921,9 @@
       <c r="IO18" t="n">
         <v>19</v>
       </c>
+      <c r="IP18" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14621,6 +14675,9 @@
       <c r="IO19" t="n">
         <v>18</v>
       </c>
+      <c r="IP19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15372,6 +15429,9 @@
       <c r="IO20" t="n">
         <v>8</v>
       </c>
+      <c r="IP20" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16123,6 +16183,9 @@
       <c r="IO21" t="n">
         <v>6</v>
       </c>
+      <c r="IP21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16874,6 +16937,9 @@
       <c r="IO22" t="n">
         <v>8</v>
       </c>
+      <c r="IP22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17625,6 +17691,9 @@
       <c r="IO23" t="n">
         <v>1</v>
       </c>
+      <c r="IP23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18376,6 +18445,9 @@
       <c r="IO24" t="n">
         <v>17</v>
       </c>
+      <c r="IP24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19127,6 +19199,9 @@
       <c r="IO25" t="n">
         <v>47.1</v>
       </c>
+      <c r="IP25" t="n">
+        <v>28.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19878,6 +19953,9 @@
       <c r="IO26" t="n">
         <v>41.38</v>
       </c>
+      <c r="IP26" t="n">
+        <v>61.17</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20629,6 +20707,9 @@
       <c r="IO27" t="n">
         <v>19.47</v>
       </c>
+      <c r="IP27" t="n">
+        <v>17.48</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21380,6 +21461,9 @@
       <c r="IO28" t="n">
         <v>34</v>
       </c>
+      <c r="IP28" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -22131,6 +22215,9 @@
       <c r="IO29" t="n">
         <v>71</v>
       </c>
+      <c r="IP29" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22882,6 +22969,9 @@
       <c r="IO30" t="n">
         <v>37</v>
       </c>
+      <c r="IP30" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23633,6 +23723,9 @@
       <c r="IO31" t="n">
         <v>46</v>
       </c>
+      <c r="IP31" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24384,6 +24477,9 @@
       <c r="IO32" t="n">
         <v>2.71</v>
       </c>
+      <c r="IP32" t="n">
+        <v>2.43</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25135,6 +25231,9 @@
       <c r="IO33" t="n">
         <v>5.75</v>
       </c>
+      <c r="IP33" t="n">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25886,6 +25985,9 @@
       <c r="IO34" t="n">
         <v>34.8</v>
       </c>
+      <c r="IP34" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26637,6 +26739,9 @@
       <c r="IO35" t="n">
         <v>17.4</v>
       </c>
+      <c r="IP35" t="n">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27388,6 +27493,9 @@
       <c r="IO36" t="n">
         <v>185.5</v>
       </c>
+      <c r="IP36" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -28139,6 +28247,9 @@
       <c r="IO37" t="n">
         <v>83.2</v>
       </c>
+      <c r="IP37" t="n">
+        <v>83.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28890,6 +29001,9 @@
       <c r="IO38" t="n">
         <v>26.33</v>
       </c>
+      <c r="IP38" t="n">
+        <v>26.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29641,6 +29755,9 @@
       <c r="IO39" t="n">
         <v>105.3</v>
       </c>
+      <c r="IP39" t="n">
+        <v>112.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30392,6 +30509,9 @@
       <c r="IO40" t="n">
         <v>8</v>
       </c>
+      <c r="IP40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -31143,6 +31263,9 @@
       <c r="IO41" t="n">
         <v>4</v>
       </c>
+      <c r="IP41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31894,6 +32017,9 @@
       <c r="IO42" t="n">
         <v>4</v>
       </c>
+      <c r="IP42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32645,6 +32771,9 @@
       <c r="IO43" t="n">
         <v>6</v>
       </c>
+      <c r="IP43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33396,6 +33525,9 @@
       <c r="IO44" t="n">
         <v>117</v>
       </c>
+      <c r="IP44" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -34147,6 +34279,9 @@
       <c r="IO45" t="n">
         <v>211</v>
       </c>
+      <c r="IP45" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34898,6 +35033,9 @@
       <c r="IO46" t="n">
         <v>235</v>
       </c>
+      <c r="IP46" t="n">
+        <v>254</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35649,6 +35787,9 @@
       <c r="IO47" t="n">
         <v>71</v>
       </c>
+      <c r="IP47" t="n">
+        <v>69.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36400,6 +36541,9 @@
       <c r="IO48" t="n">
         <v>71</v>
       </c>
+      <c r="IP48" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -37151,6 +37295,9 @@
       <c r="IO49" t="n">
         <v>3</v>
       </c>
+      <c r="IP49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37902,6 +38049,9 @@
       <c r="IO50" t="n">
         <v>8</v>
       </c>
+      <c r="IP50" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38653,6 +38803,9 @@
       <c r="IO51" t="n">
         <v>34</v>
       </c>
+      <c r="IP51" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -39404,6 +39557,9 @@
       <c r="IO52" t="n">
         <v>37</v>
       </c>
+      <c r="IP52" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -40155,6 +40311,9 @@
       <c r="IO53" t="n">
         <v>48</v>
       </c>
+      <c r="IP53" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40906,6 +41065,9 @@
       <c r="IO54" t="n">
         <v>3</v>
       </c>
+      <c r="IP54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41657,6 +41819,9 @@
       <c r="IO55" t="n">
         <v>6</v>
       </c>
+      <c r="IP55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -42408,6 +42573,9 @@
       <c r="IO56" t="n">
         <v>75</v>
       </c>
+      <c r="IP56" t="n">
+        <v>83.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -43159,6 +43327,9 @@
       <c r="IO57" t="n">
         <v>220</v>
       </c>
+      <c r="IP57" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43910,6 +44081,9 @@
       <c r="IO58" t="n">
         <v>166</v>
       </c>
+      <c r="IP58" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44661,6 +44835,9 @@
       <c r="IO59" t="n">
         <v>386</v>
       </c>
+      <c r="IP59" t="n">
+        <v>367</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -45412,6 +45589,9 @@
       <c r="IO60" t="n">
         <v>1.33</v>
       </c>
+      <c r="IP60" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -46163,6 +46343,9 @@
       <c r="IO61" t="n">
         <v>98</v>
       </c>
+      <c r="IP61" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46914,6 +47097,9 @@
       <c r="IO62" t="n">
         <v>56</v>
       </c>
+      <c r="IP62" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -47665,6 +47851,9 @@
       <c r="IO63" t="n">
         <v>44</v>
       </c>
+      <c r="IP63" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -48416,6 +48605,9 @@
       <c r="IO64" t="n">
         <v>18</v>
       </c>
+      <c r="IP64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -49167,6 +49359,9 @@
       <c r="IO65" t="n">
         <v>19</v>
       </c>
+      <c r="IP65" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -49918,6 +50113,9 @@
       <c r="IO66" t="n">
         <v>15</v>
       </c>
+      <c r="IP66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -50669,6 +50867,9 @@
       <c r="IO67" t="n">
         <v>10</v>
       </c>
+      <c r="IP67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -51420,6 +51621,9 @@
       <c r="IO68" t="n">
         <v>4</v>
       </c>
+      <c r="IP68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -52171,6 +52375,9 @@
       <c r="IO69" t="n">
         <v>1</v>
       </c>
+      <c r="IP69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -52922,6 +53129,9 @@
       <c r="IO70" t="n">
         <v>20</v>
       </c>
+      <c r="IP70" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -53673,6 +53883,9 @@
       <c r="IO71" t="n">
         <v>75</v>
       </c>
+      <c r="IP71" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -54424,6 +54637,9 @@
       <c r="IO72" t="n">
         <v>25.73</v>
       </c>
+      <c r="IP72" t="n">
+        <v>52.43</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -55175,6 +55391,9 @@
       <c r="IO73" t="n">
         <v>19.3</v>
       </c>
+      <c r="IP73" t="n">
+        <v>18.35</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -55926,6 +56145,9 @@
       <c r="IO74" t="n">
         <v>42</v>
       </c>
+      <c r="IP74" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -56677,6 +56899,9 @@
       <c r="IO75" t="n">
         <v>63</v>
       </c>
+      <c r="IP75" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -57428,6 +57653,9 @@
       <c r="IO76" t="n">
         <v>38</v>
       </c>
+      <c r="IP76" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -58179,6 +58407,9 @@
       <c r="IO77" t="n">
         <v>52</v>
       </c>
+      <c r="IP77" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -58930,6 +59161,9 @@
       <c r="IO78" t="n">
         <v>2.6</v>
       </c>
+      <c r="IP78" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -59681,6 +59915,9 @@
       <c r="IO79" t="n">
         <v>3.47</v>
       </c>
+      <c r="IP79" t="n">
+        <v>5.86</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -60432,6 +60669,9 @@
       <c r="IO80" t="n">
         <v>36.5</v>
       </c>
+      <c r="IP80" t="n">
+        <v>43.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -61183,6 +61423,9 @@
       <c r="IO81" t="n">
         <v>28.8</v>
       </c>
+      <c r="IP81" t="n">
+        <v>17.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -61934,6 +62177,9 @@
       <c r="IO82" t="n">
         <v>188.3</v>
       </c>
+      <c r="IP82" t="n">
+        <v>186.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -62685,6 +62931,9 @@
       <c r="IO83" t="n">
         <v>88.7</v>
       </c>
+      <c r="IP83" t="n">
+        <v>86.59999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -63436,6 +63685,9 @@
       <c r="IO84" t="n">
         <v>27.91</v>
       </c>
+      <c r="IP84" t="n">
+        <v>23.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -64187,6 +64439,9 @@
       <c r="IO85" t="n">
         <v>146.3</v>
       </c>
+      <c r="IP85" t="n">
+        <v>67.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -64938,6 +65193,9 @@
       <c r="IO86" t="n">
         <v>2</v>
       </c>
+      <c r="IP86" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -65689,6 +65947,9 @@
       <c r="IO87" t="n">
         <v>6</v>
       </c>
+      <c r="IP87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -66440,6 +66701,9 @@
       <c r="IO88" t="n">
         <v>4</v>
       </c>
+      <c r="IP88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -67191,6 +67455,9 @@
       <c r="IO89" t="n">
         <v>11</v>
       </c>
+      <c r="IP89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -67942,6 +68209,9 @@
       <c r="IO90" t="n">
         <v>143</v>
       </c>
+      <c r="IP90" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -68693,6 +68963,9 @@
       <c r="IO91" t="n">
         <v>245</v>
       </c>
+      <c r="IP91" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -69444,6 +69717,9 @@
       <c r="IO92" t="n">
         <v>283</v>
       </c>
+      <c r="IP92" t="n">
+        <v>265</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -70195,6 +70471,9 @@
       <c r="IO93" t="n">
         <v>73.3</v>
       </c>
+      <c r="IP93" t="n">
+        <v>72.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -70946,6 +71225,9 @@
       <c r="IO94" t="n">
         <v>63</v>
       </c>
+      <c r="IP94" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -71697,6 +71979,9 @@
       <c r="IO95" t="n">
         <v>9</v>
       </c>
+      <c r="IP95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -72448,6 +72733,9 @@
       <c r="IO96" t="n">
         <v>14</v>
       </c>
+      <c r="IP96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -73199,6 +73487,9 @@
       <c r="IO97" t="n">
         <v>42</v>
       </c>
+      <c r="IP97" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -73950,6 +74241,9 @@
       <c r="IO98" t="n">
         <v>38</v>
       </c>
+      <c r="IP98" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -74701,6 +74995,9 @@
       <c r="IO99" t="n">
         <v>47</v>
       </c>
+      <c r="IP99" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -75452,6 +75749,9 @@
       <c r="IO100" t="n">
         <v>8</v>
       </c>
+      <c r="IP100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -76203,6 +76503,9 @@
       <c r="IO101" t="n">
         <v>10</v>
       </c>
+      <c r="IP101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -76954,6 +77257,9 @@
       <c r="IO102" t="n">
         <v>66.7</v>
       </c>
+      <c r="IP102" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Richmond_stats.xlsx
+++ b/django_AFL_ML/Data/Richmond_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IT102"/>
+  <dimension ref="A1:IU102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HQ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HZ18" activeCellId="0" sqref="HZ18"/>
@@ -1215,8 +1215,11 @@
       <c r="IS1" s="2" t="n">
         <v>10520</v>
       </c>
-      <c r="IT1" t="n">
+      <c r="IT1" s="2" t="n">
         <v>10545</v>
+      </c>
+      <c r="IU1" t="n">
+        <v>10560</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="1">
@@ -1981,7 +1984,10 @@
       <c r="IS2" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="IT2" t="n">
+      <c r="IT2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IU2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2747,8 +2753,11 @@
       <c r="IS3" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="IT3" t="n">
+      <c r="IT3" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="1">
@@ -3513,8 +3522,11 @@
       <c r="IS4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IT4" t="n">
+      <c r="IT4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="1">
@@ -4279,7 +4291,10 @@
       <c r="IS5" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="IT5" t="n">
+      <c r="IT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5045,8 +5060,11 @@
       <c r="IS6" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="IT6" t="n">
+      <c r="IT6" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="IU6" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="1">
@@ -5811,8 +5829,11 @@
       <c r="IS7" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="IT7" t="n">
+      <c r="IT7" s="2" t="n">
         <v>101</v>
+      </c>
+      <c r="IU7" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="1">
@@ -6577,8 +6598,11 @@
       <c r="IS8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IT8" t="n">
+      <c r="IT8" s="2" t="n">
         <v>-25</v>
+      </c>
+      <c r="IU8" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="1">
@@ -7343,8 +7367,11 @@
       <c r="IS9" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="IT9" t="n">
+      <c r="IT9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IU9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="1">
@@ -8109,8 +8136,11 @@
       <c r="IS10" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IT10" t="n">
+      <c r="IT10" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IU10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="1">
@@ -8875,8 +8905,11 @@
       <c r="IS11" s="2" t="n">
         <v>210</v>
       </c>
-      <c r="IT11" t="n">
+      <c r="IT11" s="2" t="n">
         <v>181</v>
+      </c>
+      <c r="IU11" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="1">
@@ -9641,8 +9674,11 @@
       <c r="IS12" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="IT12" t="n">
+      <c r="IT12" s="2" t="n">
         <v>126</v>
+      </c>
+      <c r="IU12" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="1">
@@ -10407,8 +10443,11 @@
       <c r="IS13" s="2" t="n">
         <v>339</v>
       </c>
-      <c r="IT13" t="n">
+      <c r="IT13" s="2" t="n">
         <v>307</v>
+      </c>
+      <c r="IU13" t="n">
+        <v>339</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="1">
@@ -11173,8 +11212,11 @@
       <c r="IS14" s="2" t="n">
         <v>1.63</v>
       </c>
-      <c r="IT14" t="n">
+      <c r="IT14" s="2" t="n">
         <v>1.44</v>
+      </c>
+      <c r="IU14" t="n">
+        <v>1.59</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="1">
@@ -11939,8 +11981,11 @@
       <c r="IS15" s="2" t="n">
         <v>115</v>
       </c>
-      <c r="IT15" t="n">
+      <c r="IT15" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="IU15" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="1">
@@ -12705,8 +12750,11 @@
       <c r="IS16" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IT16" t="n">
+      <c r="IT16" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IU16" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="1">
@@ -13471,8 +13519,11 @@
       <c r="IS17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IT17" t="n">
+      <c r="IT17" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="IU17" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="1">
@@ -14237,8 +14288,11 @@
       <c r="IS18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IT18" t="n">
+      <c r="IT18" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IU18" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="1">
@@ -15003,8 +15057,11 @@
       <c r="IS19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IT19" t="n">
+      <c r="IT19" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="IU19" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="1">
@@ -15769,8 +15826,11 @@
       <c r="IS20" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IT20" t="n">
+      <c r="IT20" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IU20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="1">
@@ -16535,8 +16595,11 @@
       <c r="IS21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IT21" t="n">
+      <c r="IT21" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IU21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="1">
@@ -17301,7 +17364,10 @@
       <c r="IS22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IT22" t="n">
+      <c r="IT22" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IU22" t="n">
         <v>8</v>
       </c>
     </row>
@@ -18067,8 +18133,11 @@
       <c r="IS23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IT23" t="n">
+      <c r="IT23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IU23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="1">
@@ -18833,8 +18902,11 @@
       <c r="IS24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="IT24" t="n">
+      <c r="IT24" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="IU24" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="1">
@@ -19599,8 +19671,11 @@
       <c r="IS25" s="2" t="n">
         <v>52.2</v>
       </c>
-      <c r="IT25" t="n">
+      <c r="IT25" s="2" t="n">
         <v>52.4</v>
+      </c>
+      <c r="IU25" t="n">
+        <v>55.2</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" s="1">
@@ -20365,8 +20440,11 @@
       <c r="IS26" s="2" t="n">
         <v>28.25</v>
       </c>
-      <c r="IT26" t="n">
+      <c r="IT26" s="2" t="n">
         <v>27.91</v>
+      </c>
+      <c r="IU26" t="n">
+        <v>21.19</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="1">
@@ -21131,8 +21209,11 @@
       <c r="IS27" s="2" t="n">
         <v>14.74</v>
       </c>
-      <c r="IT27" t="n">
+      <c r="IT27" s="2" t="n">
         <v>14.62</v>
+      </c>
+      <c r="IU27" t="n">
+        <v>11.69</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" s="1">
@@ -21897,8 +21978,11 @@
       <c r="IS28" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IT28" t="n">
+      <c r="IT28" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IU28" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" s="1">
@@ -22663,8 +22747,11 @@
       <c r="IS29" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IT29" t="n">
+      <c r="IT29" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="IU29" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" s="1">
@@ -23429,8 +23516,11 @@
       <c r="IS30" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IT30" t="n">
+      <c r="IT30" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IU30" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" s="1">
@@ -24195,8 +24285,11 @@
       <c r="IS31" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IT31" t="n">
+      <c r="IT31" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IU31" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" s="1">
@@ -24961,8 +25054,11 @@
       <c r="IS32" s="2" t="n">
         <v>2.3</v>
       </c>
-      <c r="IT32" t="n">
+      <c r="IT32" s="2" t="n">
         <v>1.9</v>
+      </c>
+      <c r="IU32" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" s="1">
@@ -25727,8 +25823,11 @@
       <c r="IS33" s="2" t="n">
         <v>4.42</v>
       </c>
-      <c r="IT33" t="n">
+      <c r="IT33" s="2" t="n">
         <v>3.64</v>
+      </c>
+      <c r="IU33" t="n">
+        <v>3.31</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" s="1">
@@ -26493,8 +26592,11 @@
       <c r="IS34" s="2" t="n">
         <v>39.6</v>
       </c>
-      <c r="IT34" t="n">
+      <c r="IT34" s="2" t="n">
         <v>47.5</v>
+      </c>
+      <c r="IU34" t="n">
+        <v>45.3</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" s="1">
@@ -27259,8 +27361,11 @@
       <c r="IS35" s="2" t="n">
         <v>22.6</v>
       </c>
-      <c r="IT35" t="n">
+      <c r="IT35" s="2" t="n">
         <v>27.5</v>
+      </c>
+      <c r="IU35" t="n">
+        <v>30.2</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" s="1">
@@ -28025,8 +28130,11 @@
       <c r="IS36" s="2" t="n">
         <v>186.6</v>
       </c>
-      <c r="IT36" t="n">
+      <c r="IT36" s="2" t="n">
         <v>187</v>
+      </c>
+      <c r="IU36" t="n">
+        <v>187.4</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" s="1">
@@ -28791,8 +28899,11 @@
       <c r="IS37" s="2" t="n">
         <v>84.09999999999999</v>
       </c>
-      <c r="IT37" t="n">
+      <c r="IT37" s="2" t="n">
         <v>86.59999999999999</v>
+      </c>
+      <c r="IU37" t="n">
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" s="1">
@@ -29557,8 +29668,11 @@
       <c r="IS38" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="IT38" t="n">
+      <c r="IT38" s="2" t="n">
         <v>27.8</v>
+      </c>
+      <c r="IU38" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" s="1">
@@ -30323,8 +30437,11 @@
       <c r="IS39" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="IT39" t="n">
+      <c r="IT39" s="2" t="n">
         <v>121.1</v>
+      </c>
+      <c r="IU39" t="n">
+        <v>88.3</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="1">
@@ -31089,8 +31206,11 @@
       <c r="IS40" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IT40" t="n">
+      <c r="IT40" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IU40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="1">
@@ -31855,8 +31975,11 @@
       <c r="IS41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IT41" t="n">
+      <c r="IT41" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IU41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" s="1">
@@ -32621,8 +32744,11 @@
       <c r="IS42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IT42" t="n">
+      <c r="IT42" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IU42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" s="1">
@@ -33387,8 +33513,11 @@
       <c r="IS43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IT43" t="n">
+      <c r="IT43" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IU43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" s="1">
@@ -34153,8 +34282,11 @@
       <c r="IS44" s="2" t="n">
         <v>126</v>
       </c>
-      <c r="IT44" t="n">
+      <c r="IT44" s="2" t="n">
         <v>114</v>
+      </c>
+      <c r="IU44" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" s="1">
@@ -34919,8 +35051,11 @@
       <c r="IS45" s="2" t="n">
         <v>213</v>
       </c>
-      <c r="IT45" t="n">
+      <c r="IT45" s="2" t="n">
         <v>188</v>
+      </c>
+      <c r="IU45" t="n">
+        <v>203</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" s="1">
@@ -35685,8 +35820,11 @@
       <c r="IS46" s="2" t="n">
         <v>252</v>
       </c>
-      <c r="IT46" t="n">
+      <c r="IT46" s="2" t="n">
         <v>227</v>
+      </c>
+      <c r="IU46" t="n">
+        <v>259</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" s="1">
@@ -36451,8 +36589,11 @@
       <c r="IS47" s="2" t="n">
         <v>74.3</v>
       </c>
-      <c r="IT47" t="n">
+      <c r="IT47" s="2" t="n">
         <v>73.90000000000001</v>
+      </c>
+      <c r="IU47" t="n">
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" s="1">
@@ -37217,8 +37358,11 @@
       <c r="IS48" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IT48" t="n">
+      <c r="IT48" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="IU48" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" s="1">
@@ -37983,8 +38127,11 @@
       <c r="IS49" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IT49" t="n">
+      <c r="IT49" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IU49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" s="1">
@@ -38749,7 +38896,10 @@
       <c r="IS50" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IT50" t="n">
+      <c r="IT50" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IU50" t="n">
         <v>10</v>
       </c>
     </row>
@@ -39515,8 +39665,11 @@
       <c r="IS51" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IT51" t="n">
+      <c r="IT51" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IU51" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" s="1">
@@ -40281,8 +40434,11 @@
       <c r="IS52" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IT52" t="n">
+      <c r="IT52" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IU52" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" s="1">
@@ -41047,8 +41203,11 @@
       <c r="IS53" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IT53" t="n">
+      <c r="IT53" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IU53" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" s="1">
@@ -41813,8 +41972,11 @@
       <c r="IS54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IT54" t="n">
+      <c r="IT54" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IU54" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" s="1">
@@ -42579,8 +42741,11 @@
       <c r="IS55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IT55" t="n">
+      <c r="IT55" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IU55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" s="1">
@@ -43345,8 +43510,11 @@
       <c r="IS56" s="2" t="n">
         <v>58.3</v>
       </c>
-      <c r="IT56" t="n">
+      <c r="IT56" s="2" t="n">
         <v>63.6</v>
+      </c>
+      <c r="IU56" t="n">
+        <v>56.2</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" s="1">
@@ -44111,8 +44279,11 @@
       <c r="IS57" s="2" t="n">
         <v>229</v>
       </c>
-      <c r="IT57" t="n">
+      <c r="IT57" s="2" t="n">
         <v>207</v>
+      </c>
+      <c r="IU57" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" s="1">
@@ -44877,8 +45048,11 @@
       <c r="IS58" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="IT58" t="n">
+      <c r="IT58" s="2" t="n">
         <v>157</v>
+      </c>
+      <c r="IU58" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" s="1">
@@ -45643,8 +45817,11 @@
       <c r="IS59" s="2" t="n">
         <v>423</v>
       </c>
-      <c r="IT59" t="n">
+      <c r="IT59" s="2" t="n">
         <v>364</v>
+      </c>
+      <c r="IU59" t="n">
+        <v>404</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" s="1">
@@ -46409,8 +46586,11 @@
       <c r="IS60" s="2" t="n">
         <v>1.18</v>
       </c>
-      <c r="IT60" t="n">
+      <c r="IT60" s="2" t="n">
         <v>1.32</v>
+      </c>
+      <c r="IU60" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" s="1">
@@ -47175,8 +47355,11 @@
       <c r="IS61" s="2" t="n">
         <v>112</v>
       </c>
-      <c r="IT61" t="n">
+      <c r="IT61" s="2" t="n">
         <v>84</v>
+      </c>
+      <c r="IU61" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" s="1">
@@ -47941,7 +48124,10 @@
       <c r="IS62" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IT62" t="n">
+      <c r="IT62" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="IU62" t="n">
         <v>42</v>
       </c>
     </row>
@@ -48707,8 +48893,11 @@
       <c r="IS63" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IT63" t="n">
+      <c r="IT63" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IU63" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" s="1">
@@ -49473,8 +49662,11 @@
       <c r="IS64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IT64" t="n">
+      <c r="IT64" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="IU64" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" s="1">
@@ -50239,8 +50431,11 @@
       <c r="IS65" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IT65" t="n">
+      <c r="IT65" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IU65" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" s="1">
@@ -51005,8 +51200,11 @@
       <c r="IS66" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IT66" t="n">
+      <c r="IT66" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IU66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" s="1">
@@ -51771,8 +51969,11 @@
       <c r="IS67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IT67" t="n">
+      <c r="IT67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IU67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" s="1">
@@ -52537,8 +52738,11 @@
       <c r="IS68" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IT68" t="n">
+      <c r="IT68" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IU68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" s="1">
@@ -53303,8 +53507,11 @@
       <c r="IS69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IT69" t="n">
+      <c r="IT69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IU69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" s="1">
@@ -54069,8 +54276,11 @@
       <c r="IS70" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="IT70" t="n">
+      <c r="IT70" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="IU70" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" s="1">
@@ -54835,8 +55045,11 @@
       <c r="IS71" s="2" t="n">
         <v>52.2</v>
       </c>
-      <c r="IT71" t="n">
+      <c r="IT71" s="2" t="n">
         <v>45.2</v>
+      </c>
+      <c r="IU71" t="n">
+        <v>43.5</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" s="1">
@@ -55601,8 +55814,11 @@
       <c r="IS72" s="2" t="n">
         <v>35.25</v>
       </c>
-      <c r="IT72" t="n">
+      <c r="IT72" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IU72" t="n">
+        <v>40.4</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" s="1">
@@ -56367,8 +56583,11 @@
       <c r="IS73" s="2" t="n">
         <v>18.39</v>
       </c>
-      <c r="IT73" t="n">
+      <c r="IT73" s="2" t="n">
         <v>11.74</v>
+      </c>
+      <c r="IU73" t="n">
+        <v>17.57</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" s="1">
@@ -57133,8 +57352,11 @@
       <c r="IS74" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IT74" t="n">
+      <c r="IT74" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IU74" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" s="1">
@@ -57899,8 +58121,11 @@
       <c r="IS75" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IT75" t="n">
+      <c r="IT75" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IU75" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" s="1">
@@ -58665,8 +58890,11 @@
       <c r="IS76" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IT76" t="n">
+      <c r="IT76" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="IU76" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" s="1">
@@ -59431,8 +59659,11 @@
       <c r="IS77" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IT77" t="n">
+      <c r="IT77" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="IU77" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1" s="1">
@@ -60197,8 +60428,11 @@
       <c r="IS78" s="2" t="n">
         <v>2.04</v>
       </c>
-      <c r="IT78" t="n">
+      <c r="IT78" s="2" t="n">
         <v>2.06</v>
+      </c>
+      <c r="IU78" t="n">
+        <v>2.39</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" s="1">
@@ -60963,8 +61197,11 @@
       <c r="IS79" s="2" t="n">
         <v>3.92</v>
       </c>
-      <c r="IT79" t="n">
+      <c r="IT79" s="2" t="n">
         <v>4.57</v>
+      </c>
+      <c r="IU79" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" s="1">
@@ -61729,8 +61966,11 @@
       <c r="IS80" s="2" t="n">
         <v>42.6</v>
       </c>
-      <c r="IT80" t="n">
+      <c r="IT80" s="2" t="n">
         <v>46.9</v>
+      </c>
+      <c r="IU80" t="n">
+        <v>36.4</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" s="1">
@@ -62495,8 +62735,11 @@
       <c r="IS81" s="2" t="n">
         <v>25.5</v>
       </c>
-      <c r="IT81" t="n">
+      <c r="IT81" s="2" t="n">
         <v>21.9</v>
+      </c>
+      <c r="IU81" t="n">
+        <v>18.2</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" s="1">
@@ -63261,8 +63504,11 @@
       <c r="IS82" s="2" t="n">
         <v>188.7</v>
       </c>
-      <c r="IT82" t="n">
+      <c r="IT82" s="2" t="n">
         <v>189.4</v>
+      </c>
+      <c r="IU82" t="n">
+        <v>189.2</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" s="1">
@@ -64027,8 +64273,11 @@
       <c r="IS83" s="2" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="IT83" t="n">
+      <c r="IT83" s="2" t="n">
         <v>88.59999999999999</v>
+      </c>
+      <c r="IU83" t="n">
+        <v>88.2</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" s="1">
@@ -64793,8 +65042,11 @@
       <c r="IS84" s="2" t="n">
         <v>25.91</v>
       </c>
-      <c r="IT84" t="n">
+      <c r="IT84" s="2" t="n">
         <v>25.24</v>
+      </c>
+      <c r="IU84" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" s="1">
@@ -65559,8 +65811,11 @@
       <c r="IS85" s="2" t="n">
         <v>105.4</v>
       </c>
-      <c r="IT85" t="n">
+      <c r="IT85" s="2" t="n">
         <v>77.3</v>
+      </c>
+      <c r="IU85" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" s="1">
@@ -66325,8 +66580,11 @@
       <c r="IS86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IT86" t="n">
+      <c r="IT86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IU86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1" s="1">
@@ -67091,8 +67349,11 @@
       <c r="IS87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IT87" t="n">
+      <c r="IT87" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IU87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" s="1">
@@ -67857,8 +68118,11 @@
       <c r="IS88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IT88" t="n">
+      <c r="IT88" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IU88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" s="1">
@@ -68623,8 +68887,11 @@
       <c r="IS89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IT89" t="n">
+      <c r="IT89" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IU89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1" s="1">
@@ -69389,8 +69656,11 @@
       <c r="IS90" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="IT90" t="n">
+      <c r="IT90" s="2" t="n">
         <v>135</v>
+      </c>
+      <c r="IU90" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" s="1">
@@ -70155,8 +70425,11 @@
       <c r="IS91" s="2" t="n">
         <v>292</v>
       </c>
-      <c r="IT91" t="n">
+      <c r="IT91" s="2" t="n">
         <v>225</v>
+      </c>
+      <c r="IU91" t="n">
+        <v>287</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" s="1">
@@ -70921,8 +71194,11 @@
       <c r="IS92" s="2" t="n">
         <v>330</v>
       </c>
-      <c r="IT92" t="n">
+      <c r="IT92" s="2" t="n">
         <v>268</v>
+      </c>
+      <c r="IU92" t="n">
+        <v>320</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1" s="1">
@@ -71687,8 +71963,11 @@
       <c r="IS93" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="IT93" t="n">
+      <c r="IT93" s="2" t="n">
         <v>73.59999999999999</v>
+      </c>
+      <c r="IU93" t="n">
+        <v>79.2</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" s="1">
@@ -72453,8 +72732,11 @@
       <c r="IS94" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IT94" t="n">
+      <c r="IT94" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IU94" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" s="1">
@@ -73219,8 +73501,11 @@
       <c r="IS95" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IT95" t="n">
+      <c r="IT95" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IU95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1" s="1">
@@ -73985,8 +74270,11 @@
       <c r="IS96" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IT96" t="n">
+      <c r="IT96" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IU96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" s="1">
@@ -74751,8 +75039,11 @@
       <c r="IS97" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IT97" t="n">
+      <c r="IT97" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IU97" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" s="1">
@@ -75517,8 +75808,11 @@
       <c r="IS98" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IT98" t="n">
+      <c r="IT98" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="IU98" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1" s="1">
@@ -76283,8 +76577,11 @@
       <c r="IS99" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IT99" t="n">
+      <c r="IT99" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IU99" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" s="1">
@@ -77049,8 +77346,11 @@
       <c r="IS100" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IT100" t="n">
+      <c r="IT100" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IU100" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" s="1">
@@ -77815,8 +78115,11 @@
       <c r="IS101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IT101" t="n">
+      <c r="IT101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IU101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1" s="1">
@@ -78581,8 +78884,11 @@
       <c r="IS102" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IT102" t="n">
+      <c r="IT102" s="2" t="n">
         <v>64.3</v>
+      </c>
+      <c r="IU102" t="n">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Richmond_stats.xlsx
+++ b/django_AFL_ML/Data/Richmond_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IU102"/>
+  <dimension ref="A1:IV102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HQ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HZ18" activeCellId="0" sqref="HZ18"/>
@@ -1218,8 +1218,11 @@
       <c r="IT1" s="2" t="n">
         <v>10545</v>
       </c>
-      <c r="IU1" t="n">
+      <c r="IU1" s="2" t="n">
         <v>10560</v>
+      </c>
+      <c r="IV1" t="n">
+        <v>10569</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="1">
@@ -1987,7 +1990,10 @@
       <c r="IT2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IU2" t="n">
+      <c r="IU2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IV2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2756,8 +2762,11 @@
       <c r="IT3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IU3" t="n">
+      <c r="IU3" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="1">
@@ -3525,8 +3534,11 @@
       <c r="IT4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IU4" t="n">
+      <c r="IU4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="1">
@@ -4294,7 +4306,10 @@
       <c r="IT5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IU5" t="n">
+      <c r="IU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5063,8 +5078,11 @@
       <c r="IT6" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="IU6" t="n">
+      <c r="IU6" s="2" t="n">
         <v>109</v>
+      </c>
+      <c r="IV6" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="1">
@@ -5832,8 +5850,11 @@
       <c r="IT7" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="IU7" t="n">
+      <c r="IU7" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="IV7" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="1">
@@ -6601,8 +6622,11 @@
       <c r="IT8" s="2" t="n">
         <v>-25</v>
       </c>
-      <c r="IU8" t="n">
+      <c r="IU8" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IV8" t="n">
+        <v>-33</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="1">
@@ -7370,8 +7394,11 @@
       <c r="IT9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IU9" t="n">
+      <c r="IU9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IV9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="1">
@@ -8139,8 +8166,11 @@
       <c r="IT10" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IU10" t="n">
+      <c r="IU10" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IV10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="1">
@@ -8908,8 +8938,11 @@
       <c r="IT11" s="2" t="n">
         <v>181</v>
       </c>
-      <c r="IU11" t="n">
+      <c r="IU11" s="2" t="n">
         <v>208</v>
+      </c>
+      <c r="IV11" t="n">
+        <v>196</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="1">
@@ -9677,8 +9710,11 @@
       <c r="IT12" s="2" t="n">
         <v>126</v>
       </c>
-      <c r="IU12" t="n">
+      <c r="IU12" s="2" t="n">
         <v>131</v>
+      </c>
+      <c r="IV12" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="1">
@@ -10446,8 +10482,11 @@
       <c r="IT13" s="2" t="n">
         <v>307</v>
       </c>
-      <c r="IU13" t="n">
+      <c r="IU13" s="2" t="n">
         <v>339</v>
+      </c>
+      <c r="IV13" t="n">
+        <v>340</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="1">
@@ -11215,8 +11254,11 @@
       <c r="IT14" s="2" t="n">
         <v>1.44</v>
       </c>
-      <c r="IU14" t="n">
+      <c r="IU14" s="2" t="n">
         <v>1.59</v>
+      </c>
+      <c r="IV14" t="n">
+        <v>1.36</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="1">
@@ -11984,8 +12026,11 @@
       <c r="IT15" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="IU15" t="n">
+      <c r="IU15" s="2" t="n">
         <v>91</v>
+      </c>
+      <c r="IV15" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="1">
@@ -12753,8 +12798,11 @@
       <c r="IT16" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IU16" t="n">
+      <c r="IU16" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IV16" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="1">
@@ -13522,8 +13570,11 @@
       <c r="IT17" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="IU17" t="n">
+      <c r="IU17" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IV17" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="1">
@@ -14291,8 +14342,11 @@
       <c r="IT18" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IU18" t="n">
+      <c r="IU18" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IV18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="1">
@@ -15060,8 +15114,11 @@
       <c r="IT19" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="IU19" t="n">
+      <c r="IU19" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IV19" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="1">
@@ -15829,8 +15886,11 @@
       <c r="IT20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IU20" t="n">
+      <c r="IU20" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IV20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="1">
@@ -16598,8 +16658,11 @@
       <c r="IT21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IU21" t="n">
+      <c r="IU21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IV21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="1">
@@ -17367,8 +17430,11 @@
       <c r="IT22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IU22" t="n">
+      <c r="IU22" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IV22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="1">
@@ -18136,8 +18202,11 @@
       <c r="IT23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IU23" t="n">
+      <c r="IU23" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IV23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="1">
@@ -18905,8 +18974,11 @@
       <c r="IT24" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="IU24" t="n">
+      <c r="IU24" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="IV24" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="1">
@@ -19674,8 +19746,11 @@
       <c r="IT25" s="2" t="n">
         <v>52.4</v>
       </c>
-      <c r="IU25" t="n">
+      <c r="IU25" s="2" t="n">
         <v>55.2</v>
+      </c>
+      <c r="IV25" t="n">
+        <v>68.40000000000001</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" s="1">
@@ -20443,8 +20518,11 @@
       <c r="IT26" s="2" t="n">
         <v>27.91</v>
       </c>
-      <c r="IU26" t="n">
+      <c r="IU26" s="2" t="n">
         <v>21.19</v>
+      </c>
+      <c r="IV26" t="n">
+        <v>26.15</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="1">
@@ -21212,8 +21290,11 @@
       <c r="IT27" s="2" t="n">
         <v>14.62</v>
       </c>
-      <c r="IU27" t="n">
+      <c r="IU27" s="2" t="n">
         <v>11.69</v>
+      </c>
+      <c r="IV27" t="n">
+        <v>17.89</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" s="1">
@@ -21981,8 +22062,11 @@
       <c r="IT28" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IU28" t="n">
+      <c r="IU28" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IV28" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" s="1">
@@ -22750,8 +22834,11 @@
       <c r="IT29" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="IU29" t="n">
+      <c r="IU29" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IV29" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" s="1">
@@ -23519,8 +23606,11 @@
       <c r="IT30" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IU30" t="n">
+      <c r="IU30" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IV30" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" s="1">
@@ -24288,8 +24378,11 @@
       <c r="IT31" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IU31" t="n">
+      <c r="IU31" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IV31" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" s="1">
@@ -25057,8 +25150,11 @@
       <c r="IT32" s="2" t="n">
         <v>1.9</v>
       </c>
-      <c r="IU32" t="n">
+      <c r="IU32" s="2" t="n">
         <v>1.83</v>
+      </c>
+      <c r="IV32" t="n">
+        <v>2.89</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" s="1">
@@ -25826,8 +25922,11 @@
       <c r="IT33" s="2" t="n">
         <v>3.64</v>
       </c>
-      <c r="IU33" t="n">
+      <c r="IU33" s="2" t="n">
         <v>3.31</v>
+      </c>
+      <c r="IV33" t="n">
+        <v>4.23</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" s="1">
@@ -26595,8 +26694,11 @@
       <c r="IT34" s="2" t="n">
         <v>47.5</v>
       </c>
-      <c r="IU34" t="n">
+      <c r="IU34" s="2" t="n">
         <v>45.3</v>
+      </c>
+      <c r="IV34" t="n">
+        <v>30.9</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" s="1">
@@ -27364,8 +27466,11 @@
       <c r="IT35" s="2" t="n">
         <v>27.5</v>
       </c>
-      <c r="IU35" t="n">
+      <c r="IU35" s="2" t="n">
         <v>30.2</v>
+      </c>
+      <c r="IV35" t="n">
+        <v>23.6</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" s="1">
@@ -28133,8 +28238,11 @@
       <c r="IT36" s="2" t="n">
         <v>187</v>
       </c>
-      <c r="IU36" t="n">
+      <c r="IU36" s="2" t="n">
         <v>187.4</v>
+      </c>
+      <c r="IV36" t="n">
+        <v>187.3</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" s="1">
@@ -28902,8 +29010,11 @@
       <c r="IT37" s="2" t="n">
         <v>86.59999999999999</v>
       </c>
-      <c r="IU37" t="n">
+      <c r="IU37" s="2" t="n">
         <v>86.09999999999999</v>
+      </c>
+      <c r="IV37" t="n">
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" s="1">
@@ -29671,8 +29782,11 @@
       <c r="IT38" s="2" t="n">
         <v>27.8</v>
       </c>
-      <c r="IU38" t="n">
+      <c r="IU38" s="2" t="n">
         <v>25.91</v>
+      </c>
+      <c r="IV38" t="n">
+        <v>26.33</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" s="1">
@@ -30440,8 +30554,11 @@
       <c r="IT39" s="2" t="n">
         <v>121.1</v>
       </c>
-      <c r="IU39" t="n">
+      <c r="IU39" s="2" t="n">
         <v>88.3</v>
+      </c>
+      <c r="IV39" t="n">
+        <v>97.7</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="1">
@@ -31209,8 +31326,11 @@
       <c r="IT40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IU40" t="n">
+      <c r="IU40" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IV40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="1">
@@ -31978,7 +32098,10 @@
       <c r="IT41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IU41" t="n">
+      <c r="IU41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IV41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32747,7 +32870,10 @@
       <c r="IT42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IU42" t="n">
+      <c r="IU42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IV42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -33516,8 +33642,11 @@
       <c r="IT43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IU43" t="n">
+      <c r="IU43" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IV43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" s="1">
@@ -34285,8 +34414,11 @@
       <c r="IT44" s="2" t="n">
         <v>114</v>
       </c>
-      <c r="IU44" t="n">
+      <c r="IU44" s="2" t="n">
         <v>133</v>
+      </c>
+      <c r="IV44" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" s="1">
@@ -35054,8 +35186,11 @@
       <c r="IT45" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="IU45" t="n">
+      <c r="IU45" s="2" t="n">
         <v>203</v>
+      </c>
+      <c r="IV45" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" s="1">
@@ -35823,8 +35958,11 @@
       <c r="IT46" s="2" t="n">
         <v>227</v>
       </c>
-      <c r="IU46" t="n">
+      <c r="IU46" s="2" t="n">
         <v>259</v>
+      </c>
+      <c r="IV46" t="n">
+        <v>270</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" s="1">
@@ -36592,8 +36730,11 @@
       <c r="IT47" s="2" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c r="IU47" t="n">
+      <c r="IU47" s="2" t="n">
         <v>76.40000000000001</v>
+      </c>
+      <c r="IV47" t="n">
+        <v>79.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" s="1">
@@ -37361,8 +37502,11 @@
       <c r="IT48" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="IU48" t="n">
+      <c r="IU48" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IV48" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" s="1">
@@ -38130,8 +38274,11 @@
       <c r="IT49" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IU49" t="n">
+      <c r="IU49" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IV49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" s="1">
@@ -38899,8 +39046,11 @@
       <c r="IT50" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IU50" t="n">
+      <c r="IU50" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IV50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" s="1">
@@ -39668,8 +39818,11 @@
       <c r="IT51" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IU51" t="n">
+      <c r="IU51" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IV51" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" s="1">
@@ -40437,8 +40590,11 @@
       <c r="IT52" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IU52" t="n">
+      <c r="IU52" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IV52" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" s="1">
@@ -41206,8 +41362,11 @@
       <c r="IT53" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IU53" t="n">
+      <c r="IU53" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IV53" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" s="1">
@@ -41975,8 +42134,11 @@
       <c r="IT54" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IU54" t="n">
+      <c r="IU54" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IV54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" s="1">
@@ -42744,8 +42906,11 @@
       <c r="IT55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IU55" t="n">
+      <c r="IU55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IV55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" s="1">
@@ -43513,8 +43678,11 @@
       <c r="IT56" s="2" t="n">
         <v>63.6</v>
       </c>
-      <c r="IU56" t="n">
+      <c r="IU56" s="2" t="n">
         <v>56.2</v>
+      </c>
+      <c r="IV56" t="n">
+        <v>61.5</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" s="1">
@@ -44282,8 +44450,11 @@
       <c r="IT57" s="2" t="n">
         <v>207</v>
       </c>
-      <c r="IU57" t="n">
+      <c r="IU57" s="2" t="n">
         <v>236</v>
+      </c>
+      <c r="IV57" t="n">
+        <v>214</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" s="1">
@@ -45051,8 +45222,11 @@
       <c r="IT58" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="IU58" t="n">
+      <c r="IU58" s="2" t="n">
         <v>168</v>
+      </c>
+      <c r="IV58" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" s="1">
@@ -45820,8 +45994,11 @@
       <c r="IT59" s="2" t="n">
         <v>364</v>
       </c>
-      <c r="IU59" t="n">
+      <c r="IU59" s="2" t="n">
         <v>404</v>
+      </c>
+      <c r="IV59" t="n">
+        <v>380</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" s="1">
@@ -46589,8 +46766,11 @@
       <c r="IT60" s="2" t="n">
         <v>1.32</v>
       </c>
-      <c r="IU60" t="n">
+      <c r="IU60" s="2" t="n">
         <v>1.4</v>
+      </c>
+      <c r="IV60" t="n">
+        <v>1.29</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" s="1">
@@ -47358,8 +47538,11 @@
       <c r="IT61" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="IU61" t="n">
+      <c r="IU61" s="2" t="n">
         <v>127</v>
+      </c>
+      <c r="IV61" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" s="1">
@@ -48127,8 +48310,11 @@
       <c r="IT62" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IU62" t="n">
+      <c r="IU62" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IV62" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" s="1">
@@ -48896,8 +49082,11 @@
       <c r="IT63" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IU63" t="n">
+      <c r="IU63" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IV63" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" s="1">
@@ -49665,8 +49854,11 @@
       <c r="IT64" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="IU64" t="n">
+      <c r="IU64" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IV64" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" s="1">
@@ -50434,8 +50626,11 @@
       <c r="IT65" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IU65" t="n">
+      <c r="IU65" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IV65" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" s="1">
@@ -51203,8 +51398,11 @@
       <c r="IT66" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IU66" t="n">
+      <c r="IU66" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IV66" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" s="1">
@@ -51972,8 +52170,11 @@
       <c r="IT67" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IU67" t="n">
+      <c r="IU67" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IV67" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" s="1">
@@ -52741,8 +52942,11 @@
       <c r="IT68" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IU68" t="n">
+      <c r="IU68" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IV68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" s="1">
@@ -53510,8 +53714,11 @@
       <c r="IT69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IU69" t="n">
+      <c r="IU69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IV69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" s="1">
@@ -54279,8 +54486,11 @@
       <c r="IT70" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="IU70" t="n">
+      <c r="IU70" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="IV70" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" s="1">
@@ -55048,8 +55258,11 @@
       <c r="IT71" s="2" t="n">
         <v>45.2</v>
       </c>
-      <c r="IU71" t="n">
+      <c r="IU71" s="2" t="n">
         <v>43.5</v>
+      </c>
+      <c r="IV71" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" s="1">
@@ -55817,8 +56030,11 @@
       <c r="IT72" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IU72" t="n">
+      <c r="IU72" s="2" t="n">
         <v>40.4</v>
+      </c>
+      <c r="IV72" t="n">
+        <v>21.11</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" s="1">
@@ -56586,8 +56802,11 @@
       <c r="IT73" s="2" t="n">
         <v>11.74</v>
       </c>
-      <c r="IU73" t="n">
+      <c r="IU73" s="2" t="n">
         <v>17.57</v>
+      </c>
+      <c r="IV73" t="n">
+        <v>14.07</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" s="1">
@@ -57355,8 +57574,11 @@
       <c r="IT74" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IU74" t="n">
+      <c r="IU74" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IV74" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" s="1">
@@ -58124,8 +58346,11 @@
       <c r="IT75" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IU75" t="n">
+      <c r="IU75" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="IV75" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" s="1">
@@ -58893,8 +59118,11 @@
       <c r="IT76" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="IU76" t="n">
+      <c r="IU76" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IV76" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" s="1">
@@ -59662,8 +59890,11 @@
       <c r="IT77" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="IU77" t="n">
+      <c r="IU77" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IV77" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1" s="1">
@@ -60431,8 +60662,11 @@
       <c r="IT78" s="2" t="n">
         <v>2.06</v>
       </c>
-      <c r="IU78" t="n">
+      <c r="IU78" s="2" t="n">
         <v>2.39</v>
+      </c>
+      <c r="IV78" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" s="1">
@@ -61200,8 +61434,11 @@
       <c r="IT79" s="2" t="n">
         <v>4.57</v>
       </c>
-      <c r="IU79" t="n">
+      <c r="IU79" s="2" t="n">
         <v>5.5</v>
+      </c>
+      <c r="IV79" t="n">
+        <v>2.72</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" s="1">
@@ -61969,8 +62206,11 @@
       <c r="IT80" s="2" t="n">
         <v>46.9</v>
       </c>
-      <c r="IU80" t="n">
+      <c r="IU80" s="2" t="n">
         <v>36.4</v>
+      </c>
+      <c r="IV80" t="n">
+        <v>53.1</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" s="1">
@@ -62738,8 +62978,11 @@
       <c r="IT81" s="2" t="n">
         <v>21.9</v>
       </c>
-      <c r="IU81" t="n">
+      <c r="IU81" s="2" t="n">
         <v>18.2</v>
+      </c>
+      <c r="IV81" t="n">
+        <v>36.7</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" s="1">
@@ -63507,8 +63750,11 @@
       <c r="IT82" s="2" t="n">
         <v>189.4</v>
       </c>
-      <c r="IU82" t="n">
+      <c r="IU82" s="2" t="n">
         <v>189.2</v>
+      </c>
+      <c r="IV82" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" s="1">
@@ -64276,8 +64522,11 @@
       <c r="IT83" s="2" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="IU83" t="n">
+      <c r="IU83" s="2" t="n">
         <v>88.2</v>
+      </c>
+      <c r="IV83" t="n">
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" s="1">
@@ -65045,8 +65294,11 @@
       <c r="IT84" s="2" t="n">
         <v>25.24</v>
       </c>
-      <c r="IU84" t="n">
+      <c r="IU84" s="2" t="n">
         <v>25.33</v>
+      </c>
+      <c r="IV84" t="n">
+        <v>26.16</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" s="1">
@@ -65814,8 +66066,11 @@
       <c r="IT85" s="2" t="n">
         <v>77.3</v>
       </c>
-      <c r="IU85" t="n">
+      <c r="IU85" s="2" t="n">
         <v>89</v>
+      </c>
+      <c r="IV85" t="n">
+        <v>90.3</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" s="1">
@@ -66583,8 +66838,11 @@
       <c r="IT86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IU86" t="n">
+      <c r="IU86" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IV86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1" s="1">
@@ -67352,8 +67610,11 @@
       <c r="IT87" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IU87" t="n">
+      <c r="IU87" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IV87" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" s="1">
@@ -68121,8 +68382,11 @@
       <c r="IT88" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IU88" t="n">
+      <c r="IU88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IV88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" s="1">
@@ -68890,8 +69154,11 @@
       <c r="IT89" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IU89" t="n">
+      <c r="IU89" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IV89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1" s="1">
@@ -69659,8 +69926,11 @@
       <c r="IT90" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="IU90" t="n">
+      <c r="IU90" s="2" t="n">
         <v>115</v>
+      </c>
+      <c r="IV90" t="n">
+        <v>153</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" s="1">
@@ -70428,8 +70698,11 @@
       <c r="IT91" s="2" t="n">
         <v>225</v>
       </c>
-      <c r="IU91" t="n">
+      <c r="IU91" s="2" t="n">
         <v>287</v>
+      </c>
+      <c r="IV91" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" s="1">
@@ -71197,8 +71470,11 @@
       <c r="IT92" s="2" t="n">
         <v>268</v>
       </c>
-      <c r="IU92" t="n">
+      <c r="IU92" s="2" t="n">
         <v>320</v>
+      </c>
+      <c r="IV92" t="n">
+        <v>275</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1" s="1">
@@ -71966,8 +72242,11 @@
       <c r="IT93" s="2" t="n">
         <v>73.59999999999999</v>
       </c>
-      <c r="IU93" t="n">
+      <c r="IU93" s="2" t="n">
         <v>79.2</v>
+      </c>
+      <c r="IV93" t="n">
+        <v>72.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" s="1">
@@ -72735,8 +73014,11 @@
       <c r="IT94" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IU94" t="n">
+      <c r="IU94" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="IV94" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" s="1">
@@ -73504,8 +73786,11 @@
       <c r="IT95" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IU95" t="n">
+      <c r="IU95" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IV95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1" s="1">
@@ -74273,7 +74558,10 @@
       <c r="IT96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IU96" t="n">
+      <c r="IU96" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IV96" t="n">
         <v>12</v>
       </c>
     </row>
@@ -75042,8 +75330,11 @@
       <c r="IT97" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IU97" t="n">
+      <c r="IU97" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IV97" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" s="1">
@@ -75811,8 +76102,11 @@
       <c r="IT98" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="IU98" t="n">
+      <c r="IU98" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IV98" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1" s="1">
@@ -76580,8 +76874,11 @@
       <c r="IT99" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IU99" t="n">
+      <c r="IU99" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IV99" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" s="1">
@@ -77349,8 +77646,11 @@
       <c r="IT100" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IU100" t="n">
+      <c r="IU100" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IV100" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" s="1">
@@ -78118,8 +78418,11 @@
       <c r="IT101" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IU101" t="n">
+      <c r="IU101" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IV101" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1" s="1">
@@ -78887,8 +79190,11 @@
       <c r="IT102" s="2" t="n">
         <v>64.3</v>
       </c>
-      <c r="IU102" t="n">
+      <c r="IU102" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="IV102" t="n">
+        <v>72.2</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Richmond_stats.xlsx
+++ b/django_AFL_ML/Data/Richmond_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IV102"/>
+  <dimension ref="A1:IW102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HQ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HZ18" activeCellId="0" sqref="HZ18"/>
@@ -1221,8 +1221,11 @@
       <c r="IU1" s="2" t="n">
         <v>10560</v>
       </c>
-      <c r="IV1" t="n">
+      <c r="IV1" s="2" t="n">
         <v>10569</v>
+      </c>
+      <c r="IW1" t="n">
+        <v>10575</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="1">
@@ -1993,7 +1996,10 @@
       <c r="IU2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IV2" t="n">
+      <c r="IV2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IW2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2765,8 +2771,11 @@
       <c r="IU3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IV3" t="n">
+      <c r="IV3" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="1">
@@ -3537,8 +3546,11 @@
       <c r="IU4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IV4" t="n">
+      <c r="IV4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="1">
@@ -4309,7 +4321,10 @@
       <c r="IU5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IV5" t="n">
+      <c r="IV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5081,8 +5096,11 @@
       <c r="IU6" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="IV6" t="n">
+      <c r="IV6" s="2" t="n">
         <v>84</v>
+      </c>
+      <c r="IW6" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="1">
@@ -5853,8 +5871,11 @@
       <c r="IU7" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="IV7" t="n">
+      <c r="IV7" s="2" t="n">
         <v>117</v>
+      </c>
+      <c r="IW7" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="1">
@@ -6625,8 +6646,11 @@
       <c r="IU8" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IV8" t="n">
+      <c r="IV8" s="2" t="n">
         <v>-33</v>
+      </c>
+      <c r="IW8" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="1">
@@ -7397,8 +7421,11 @@
       <c r="IU9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IV9" t="n">
+      <c r="IV9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IW9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="1">
@@ -8169,8 +8196,11 @@
       <c r="IU10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IV10" t="n">
+      <c r="IV10" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IW10" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="1">
@@ -8941,8 +8971,11 @@
       <c r="IU11" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="IV11" t="n">
+      <c r="IV11" s="2" t="n">
         <v>196</v>
+      </c>
+      <c r="IW11" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="1">
@@ -9713,8 +9746,11 @@
       <c r="IU12" s="2" t="n">
         <v>131</v>
       </c>
-      <c r="IV12" t="n">
+      <c r="IV12" s="2" t="n">
         <v>144</v>
+      </c>
+      <c r="IW12" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="1">
@@ -10485,8 +10521,11 @@
       <c r="IU13" s="2" t="n">
         <v>339</v>
       </c>
-      <c r="IV13" t="n">
+      <c r="IV13" s="2" t="n">
         <v>340</v>
+      </c>
+      <c r="IW13" t="n">
+        <v>367</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="1">
@@ -11257,8 +11296,11 @@
       <c r="IU14" s="2" t="n">
         <v>1.59</v>
       </c>
-      <c r="IV14" t="n">
+      <c r="IV14" s="2" t="n">
         <v>1.36</v>
+      </c>
+      <c r="IW14" t="n">
+        <v>1.68</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="1">
@@ -12029,8 +12071,11 @@
       <c r="IU15" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="IV15" t="n">
+      <c r="IV15" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="IW15" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="1">
@@ -12801,8 +12846,11 @@
       <c r="IU16" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IV16" t="n">
+      <c r="IV16" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IW16" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="1">
@@ -13573,8 +13621,11 @@
       <c r="IU17" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IV17" t="n">
+      <c r="IV17" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IW17" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="1">
@@ -14345,8 +14396,11 @@
       <c r="IU18" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IV18" t="n">
+      <c r="IV18" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IW18" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="1">
@@ -15117,8 +15171,11 @@
       <c r="IU19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IV19" t="n">
+      <c r="IV19" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IW19" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="1">
@@ -15889,8 +15946,11 @@
       <c r="IU20" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IV20" t="n">
+      <c r="IV20" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IW20" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="1">
@@ -16661,8 +16721,11 @@
       <c r="IU21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IV21" t="n">
+      <c r="IV21" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IW21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="1">
@@ -17433,8 +17496,11 @@
       <c r="IU22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IV22" t="n">
+      <c r="IV22" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IW22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="1">
@@ -18205,8 +18271,11 @@
       <c r="IU23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IV23" t="n">
+      <c r="IV23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IW23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="1">
@@ -18977,8 +19046,11 @@
       <c r="IU24" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="IV24" t="n">
+      <c r="IV24" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IW24" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="1">
@@ -19749,8 +19821,11 @@
       <c r="IU25" s="2" t="n">
         <v>55.2</v>
       </c>
-      <c r="IV25" t="n">
+      <c r="IV25" s="2" t="n">
         <v>68.40000000000001</v>
+      </c>
+      <c r="IW25" t="n">
+        <v>62.5</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" s="1">
@@ -20521,8 +20596,11 @@
       <c r="IU26" s="2" t="n">
         <v>21.19</v>
       </c>
-      <c r="IV26" t="n">
+      <c r="IV26" s="2" t="n">
         <v>26.15</v>
+      </c>
+      <c r="IW26" t="n">
+        <v>24.47</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="1">
@@ -21293,8 +21371,11 @@
       <c r="IU27" s="2" t="n">
         <v>11.69</v>
       </c>
-      <c r="IV27" t="n">
+      <c r="IV27" s="2" t="n">
         <v>17.89</v>
+      </c>
+      <c r="IW27" t="n">
+        <v>15.29</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" s="1">
@@ -22065,8 +22146,11 @@
       <c r="IU28" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IV28" t="n">
+      <c r="IV28" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IW28" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" s="1">
@@ -22837,8 +22921,11 @@
       <c r="IU29" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IV29" t="n">
+      <c r="IV29" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="IW29" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" s="1">
@@ -23609,8 +23696,11 @@
       <c r="IU30" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IV30" t="n">
+      <c r="IV30" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="IW30" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" s="1">
@@ -24381,8 +24471,11 @@
       <c r="IU31" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IV31" t="n">
+      <c r="IV31" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IW31" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" s="1">
@@ -25153,8 +25246,11 @@
       <c r="IU32" s="2" t="n">
         <v>1.83</v>
       </c>
-      <c r="IV32" t="n">
+      <c r="IV32" s="2" t="n">
         <v>2.89</v>
+      </c>
+      <c r="IW32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" s="1">
@@ -25925,8 +26021,11 @@
       <c r="IU33" s="2" t="n">
         <v>3.31</v>
       </c>
-      <c r="IV33" t="n">
+      <c r="IV33" s="2" t="n">
         <v>4.23</v>
+      </c>
+      <c r="IW33" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" s="1">
@@ -26697,8 +26796,11 @@
       <c r="IU34" s="2" t="n">
         <v>45.3</v>
       </c>
-      <c r="IV34" t="n">
+      <c r="IV34" s="2" t="n">
         <v>30.9</v>
+      </c>
+      <c r="IW34" t="n">
+        <v>47.9</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" s="1">
@@ -27469,8 +27571,11 @@
       <c r="IU35" s="2" t="n">
         <v>30.2</v>
       </c>
-      <c r="IV35" t="n">
+      <c r="IV35" s="2" t="n">
         <v>23.6</v>
+      </c>
+      <c r="IW35" t="n">
+        <v>31.2</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" s="1">
@@ -28241,8 +28346,11 @@
       <c r="IU36" s="2" t="n">
         <v>187.4</v>
       </c>
-      <c r="IV36" t="n">
+      <c r="IV36" s="2" t="n">
         <v>187.3</v>
+      </c>
+      <c r="IW36" t="n">
+        <v>186.9</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" s="1">
@@ -29013,8 +29121,11 @@
       <c r="IU37" s="2" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="IV37" t="n">
+      <c r="IV37" s="2" t="n">
         <v>85.90000000000001</v>
+      </c>
+      <c r="IW37" t="n">
+        <v>85.8</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" s="1">
@@ -29785,8 +29896,11 @@
       <c r="IU38" s="2" t="n">
         <v>25.91</v>
       </c>
-      <c r="IV38" t="n">
+      <c r="IV38" s="2" t="n">
         <v>26.33</v>
+      </c>
+      <c r="IW38" t="n">
+        <v>26.58</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" s="1">
@@ -30557,8 +30671,11 @@
       <c r="IU39" s="2" t="n">
         <v>88.3</v>
       </c>
-      <c r="IV39" t="n">
+      <c r="IV39" s="2" t="n">
         <v>97.7</v>
+      </c>
+      <c r="IW39" t="n">
+        <v>111.5</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="1">
@@ -31329,8 +31446,11 @@
       <c r="IU40" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IV40" t="n">
+      <c r="IV40" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IW40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="1">
@@ -32101,7 +32221,10 @@
       <c r="IU41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IV41" t="n">
+      <c r="IV41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IW41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32873,7 +32996,10 @@
       <c r="IU42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IV42" t="n">
+      <c r="IV42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IW42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -33645,8 +33771,11 @@
       <c r="IU43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IV43" t="n">
+      <c r="IV43" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IW43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" s="1">
@@ -34417,8 +34546,11 @@
       <c r="IU44" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="IV44" t="n">
+      <c r="IV44" s="2" t="n">
         <v>127</v>
+      </c>
+      <c r="IW44" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" s="1">
@@ -35189,8 +35321,11 @@
       <c r="IU45" s="2" t="n">
         <v>203</v>
       </c>
-      <c r="IV45" t="n">
+      <c r="IV45" s="2" t="n">
         <v>216</v>
+      </c>
+      <c r="IW45" t="n">
+        <v>226</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" s="1">
@@ -35961,8 +36096,11 @@
       <c r="IU46" s="2" t="n">
         <v>259</v>
       </c>
-      <c r="IV46" t="n">
+      <c r="IV46" s="2" t="n">
         <v>270</v>
+      </c>
+      <c r="IW46" t="n">
+        <v>274</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" s="1">
@@ -36733,8 +36871,11 @@
       <c r="IU47" s="2" t="n">
         <v>76.40000000000001</v>
       </c>
-      <c r="IV47" t="n">
+      <c r="IV47" s="2" t="n">
         <v>79.40000000000001</v>
+      </c>
+      <c r="IW47" t="n">
+        <v>74.7</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" s="1">
@@ -37505,8 +37646,11 @@
       <c r="IU48" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IV48" t="n">
+      <c r="IV48" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="IW48" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" s="1">
@@ -38277,8 +38421,11 @@
       <c r="IU49" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IV49" t="n">
+      <c r="IV49" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IW49" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" s="1">
@@ -39049,8 +39196,11 @@
       <c r="IU50" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IV50" t="n">
+      <c r="IV50" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IW50" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" s="1">
@@ -39821,8 +39971,11 @@
       <c r="IU51" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IV51" t="n">
+      <c r="IV51" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IW51" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" s="1">
@@ -40593,8 +40746,11 @@
       <c r="IU52" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IV52" t="n">
+      <c r="IV52" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="IW52" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" s="1">
@@ -41365,8 +41521,11 @@
       <c r="IU53" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IV53" t="n">
+      <c r="IV53" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IW53" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" s="1">
@@ -42137,8 +42296,11 @@
       <c r="IU54" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IV54" t="n">
+      <c r="IV54" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IW54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" s="1">
@@ -42909,8 +43071,11 @@
       <c r="IU55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IV55" t="n">
+      <c r="IV55" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IW55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" s="1">
@@ -43681,8 +43846,11 @@
       <c r="IU56" s="2" t="n">
         <v>56.2</v>
       </c>
-      <c r="IV56" t="n">
+      <c r="IV56" s="2" t="n">
         <v>61.5</v>
+      </c>
+      <c r="IW56" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" s="1">
@@ -44453,8 +44621,11 @@
       <c r="IU57" s="2" t="n">
         <v>236</v>
       </c>
-      <c r="IV57" t="n">
+      <c r="IV57" s="2" t="n">
         <v>214</v>
+      </c>
+      <c r="IW57" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" s="1">
@@ -45225,8 +45396,11 @@
       <c r="IU58" s="2" t="n">
         <v>168</v>
       </c>
-      <c r="IV58" t="n">
+      <c r="IV58" s="2" t="n">
         <v>166</v>
+      </c>
+      <c r="IW58" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" s="1">
@@ -45997,8 +46171,11 @@
       <c r="IU59" s="2" t="n">
         <v>404</v>
       </c>
-      <c r="IV59" t="n">
+      <c r="IV59" s="2" t="n">
         <v>380</v>
+      </c>
+      <c r="IW59" t="n">
+        <v>414</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" s="1">
@@ -46769,8 +46946,11 @@
       <c r="IU60" s="2" t="n">
         <v>1.4</v>
       </c>
-      <c r="IV60" t="n">
+      <c r="IV60" s="2" t="n">
         <v>1.29</v>
+      </c>
+      <c r="IW60" t="n">
+        <v>1.19</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" s="1">
@@ -47541,8 +47721,11 @@
       <c r="IU61" s="2" t="n">
         <v>127</v>
       </c>
-      <c r="IV61" t="n">
+      <c r="IV61" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="IW61" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" s="1">
@@ -48313,8 +48496,11 @@
       <c r="IU62" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IV62" t="n">
+      <c r="IV62" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IW62" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" s="1">
@@ -49085,8 +49271,11 @@
       <c r="IU63" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IV63" t="n">
+      <c r="IV63" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IW63" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" s="1">
@@ -49857,8 +50046,11 @@
       <c r="IU64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IV64" t="n">
+      <c r="IV64" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IW64" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" s="1">
@@ -50629,8 +50821,11 @@
       <c r="IU65" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IV65" t="n">
+      <c r="IV65" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IW65" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" s="1">
@@ -51401,8 +51596,11 @@
       <c r="IU66" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IV66" t="n">
+      <c r="IV66" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IW66" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" s="1">
@@ -52173,8 +52371,11 @@
       <c r="IU67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IV67" t="n">
+      <c r="IV67" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IW67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" s="1">
@@ -52945,8 +53146,11 @@
       <c r="IU68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IV68" t="n">
+      <c r="IV68" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IW68" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" s="1">
@@ -53717,8 +53921,11 @@
       <c r="IU69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IV69" t="n">
+      <c r="IV69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IW69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" s="1">
@@ -54489,8 +54696,11 @@
       <c r="IU70" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="IV70" t="n">
+      <c r="IV70" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IW70" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" s="1">
@@ -55261,8 +55471,11 @@
       <c r="IU71" s="2" t="n">
         <v>43.5</v>
       </c>
-      <c r="IV71" t="n">
+      <c r="IV71" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="IW71" t="n">
+        <v>26.9</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" s="1">
@@ -56033,8 +56246,11 @@
       <c r="IU72" s="2" t="n">
         <v>40.4</v>
       </c>
-      <c r="IV72" t="n">
+      <c r="IV72" s="2" t="n">
         <v>21.11</v>
+      </c>
+      <c r="IW72" t="n">
+        <v>59.14</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" s="1">
@@ -56805,8 +57021,11 @@
       <c r="IU73" s="2" t="n">
         <v>17.57</v>
       </c>
-      <c r="IV73" t="n">
+      <c r="IV73" s="2" t="n">
         <v>14.07</v>
+      </c>
+      <c r="IW73" t="n">
+        <v>15.92</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" s="1">
@@ -57577,8 +57796,11 @@
       <c r="IU74" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IV74" t="n">
+      <c r="IV74" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IW74" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" s="1">
@@ -58349,8 +58571,11 @@
       <c r="IU75" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IV75" t="n">
+      <c r="IV75" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="IW75" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" s="1">
@@ -59121,8 +59346,11 @@
       <c r="IU76" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IV76" t="n">
+      <c r="IV76" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IW76" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" s="1">
@@ -59893,8 +60121,11 @@
       <c r="IU77" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IV77" t="n">
+      <c r="IV77" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IW77" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1" s="1">
@@ -60665,8 +60896,11 @@
       <c r="IU78" s="2" t="n">
         <v>2.39</v>
       </c>
-      <c r="IV78" t="n">
+      <c r="IV78" s="2" t="n">
         <v>1.81</v>
+      </c>
+      <c r="IW78" t="n">
+        <v>2.19</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" s="1">
@@ -61437,8 +61671,11 @@
       <c r="IU79" s="2" t="n">
         <v>5.5</v>
       </c>
-      <c r="IV79" t="n">
+      <c r="IV79" s="2" t="n">
         <v>2.72</v>
+      </c>
+      <c r="IW79" t="n">
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" s="1">
@@ -62209,8 +62446,11 @@
       <c r="IU80" s="2" t="n">
         <v>36.4</v>
       </c>
-      <c r="IV80" t="n">
+      <c r="IV80" s="2" t="n">
         <v>53.1</v>
+      </c>
+      <c r="IW80" t="n">
+        <v>38.6</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" s="1">
@@ -62981,8 +63221,11 @@
       <c r="IU81" s="2" t="n">
         <v>18.2</v>
       </c>
-      <c r="IV81" t="n">
+      <c r="IV81" s="2" t="n">
         <v>36.7</v>
+      </c>
+      <c r="IW81" t="n">
+        <v>12.3</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" s="1">
@@ -63753,8 +63996,11 @@
       <c r="IU82" s="2" t="n">
         <v>189.2</v>
       </c>
-      <c r="IV82" t="n">
+      <c r="IV82" s="2" t="n">
         <v>188.7</v>
+      </c>
+      <c r="IW82" t="n">
+        <v>187.3</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" s="1">
@@ -64525,8 +64771,11 @@
       <c r="IU83" s="2" t="n">
         <v>88.2</v>
       </c>
-      <c r="IV83" t="n">
+      <c r="IV83" s="2" t="n">
         <v>86.59999999999999</v>
+      </c>
+      <c r="IW83" t="n">
+        <v>85.3</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" s="1">
@@ -65297,8 +65546,11 @@
       <c r="IU84" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="IV84" t="n">
+      <c r="IV84" s="2" t="n">
         <v>26.16</v>
+      </c>
+      <c r="IW84" t="n">
+        <v>25.16</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" s="1">
@@ -66069,8 +66321,11 @@
       <c r="IU85" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="IV85" t="n">
+      <c r="IV85" s="2" t="n">
         <v>90.3</v>
+      </c>
+      <c r="IW85" t="n">
+        <v>93.09999999999999</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" s="1">
@@ -66841,8 +67096,11 @@
       <c r="IU86" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IV86" t="n">
+      <c r="IV86" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IW86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1" s="1">
@@ -67613,8 +67871,11 @@
       <c r="IU87" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IV87" t="n">
+      <c r="IV87" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IW87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" s="1">
@@ -68385,8 +68646,11 @@
       <c r="IU88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IV88" t="n">
+      <c r="IV88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IW88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" s="1">
@@ -69157,8 +69421,11 @@
       <c r="IU89" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IV89" t="n">
+      <c r="IV89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IW89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1" s="1">
@@ -69929,8 +70196,11 @@
       <c r="IU90" s="2" t="n">
         <v>115</v>
       </c>
-      <c r="IV90" t="n">
+      <c r="IV90" s="2" t="n">
         <v>153</v>
+      </c>
+      <c r="IW90" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" s="1">
@@ -70701,8 +70971,11 @@
       <c r="IU91" s="2" t="n">
         <v>287</v>
       </c>
-      <c r="IV91" t="n">
+      <c r="IV91" s="2" t="n">
         <v>230</v>
+      </c>
+      <c r="IW91" t="n">
+        <v>283</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" s="1">
@@ -71473,8 +71746,11 @@
       <c r="IU92" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="IV92" t="n">
+      <c r="IV92" s="2" t="n">
         <v>275</v>
+      </c>
+      <c r="IW92" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1" s="1">
@@ -72245,8 +72521,11 @@
       <c r="IU93" s="2" t="n">
         <v>79.2</v>
       </c>
-      <c r="IV93" t="n">
+      <c r="IV93" s="2" t="n">
         <v>72.40000000000001</v>
+      </c>
+      <c r="IW93" t="n">
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" s="1">
@@ -73017,8 +73296,11 @@
       <c r="IU94" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IV94" t="n">
+      <c r="IV94" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="IW94" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" s="1">
@@ -73789,8 +74071,11 @@
       <c r="IU95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IV95" t="n">
+      <c r="IV95" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IW95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1" s="1">
@@ -74561,8 +74846,11 @@
       <c r="IU96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IV96" t="n">
+      <c r="IV96" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IW96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" s="1">
@@ -75333,8 +75621,11 @@
       <c r="IU97" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IV97" t="n">
+      <c r="IV97" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IW97" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" s="1">
@@ -76105,8 +76396,11 @@
       <c r="IU98" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IV98" t="n">
+      <c r="IV98" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IW98" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1" s="1">
@@ -76877,8 +77171,11 @@
       <c r="IU99" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="IV99" t="n">
+      <c r="IV99" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="IW99" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" s="1">
@@ -77649,8 +77946,11 @@
       <c r="IU100" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IV100" t="n">
+      <c r="IV100" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IW100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" s="1">
@@ -78421,8 +78721,11 @@
       <c r="IU101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IV101" t="n">
+      <c r="IV101" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IW101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1" s="1">
@@ -79193,8 +79496,11 @@
       <c r="IU102" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IV102" t="n">
+      <c r="IV102" s="2" t="n">
         <v>72.2</v>
+      </c>
+      <c r="IW102" t="n">
+        <v>85.7</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Richmond_stats.xlsx
+++ b/django_AFL_ML/Data/Richmond_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IX102"/>
+  <dimension ref="A1:IY102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HQ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HZ18" activeCellId="0" sqref="HZ18"/>
@@ -1227,8 +1227,11 @@
       <c r="IW1" s="2" t="n">
         <v>10575</v>
       </c>
-      <c r="IX1" t="n">
+      <c r="IX1" s="2" t="n">
         <v>10584</v>
+      </c>
+      <c r="IY1" t="n">
+        <v>10595</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="1">
@@ -2005,7 +2008,10 @@
       <c r="IW2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IX2" t="n">
+      <c r="IX2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IY2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2783,8 +2789,11 @@
       <c r="IW3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IX3" t="n">
+      <c r="IX3" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="1">
@@ -3561,8 +3570,11 @@
       <c r="IW4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IX4" t="n">
+      <c r="IX4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="1">
@@ -4339,8 +4351,11 @@
       <c r="IW5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IX5" t="n">
+      <c r="IX5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IY5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="1">
@@ -5117,8 +5132,11 @@
       <c r="IW6" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="IX6" t="n">
+      <c r="IX6" s="2" t="n">
         <v>82</v>
+      </c>
+      <c r="IY6" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="1">
@@ -5895,8 +5913,11 @@
       <c r="IW7" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="IX7" t="n">
+      <c r="IX7" s="2" t="n">
         <v>101</v>
+      </c>
+      <c r="IY7" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="1">
@@ -6673,8 +6694,11 @@
       <c r="IW8" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IX8" t="n">
+      <c r="IX8" s="2" t="n">
         <v>-19</v>
+      </c>
+      <c r="IY8" t="n">
+        <v>-22</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="1">
@@ -7451,7 +7475,10 @@
       <c r="IW9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IX9" t="n">
+      <c r="IX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8229,8 +8256,11 @@
       <c r="IW10" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IX10" t="n">
+      <c r="IX10" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IY10" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="1">
@@ -9007,8 +9037,11 @@
       <c r="IW11" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="IX11" t="n">
+      <c r="IX11" s="2" t="n">
         <v>191</v>
+      </c>
+      <c r="IY11" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="1">
@@ -9785,8 +9818,11 @@
       <c r="IW12" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="IX12" t="n">
+      <c r="IX12" s="2" t="n">
         <v>162</v>
+      </c>
+      <c r="IY12" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="1">
@@ -10563,8 +10599,11 @@
       <c r="IW13" s="2" t="n">
         <v>367</v>
       </c>
-      <c r="IX13" t="n">
+      <c r="IX13" s="2" t="n">
         <v>353</v>
+      </c>
+      <c r="IY13" t="n">
+        <v>346</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="1">
@@ -11341,8 +11380,11 @@
       <c r="IW14" s="2" t="n">
         <v>1.68</v>
       </c>
-      <c r="IX14" t="n">
+      <c r="IX14" s="2" t="n">
         <v>1.18</v>
+      </c>
+      <c r="IY14" t="n">
+        <v>2.06</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="1">
@@ -12119,8 +12161,11 @@
       <c r="IW15" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="IX15" t="n">
+      <c r="IX15" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="IY15" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="1">
@@ -12897,8 +12942,11 @@
       <c r="IW16" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IX16" t="n">
+      <c r="IX16" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IY16" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="1">
@@ -13675,8 +13723,11 @@
       <c r="IW17" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IX17" t="n">
+      <c r="IX17" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IY17" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="1">
@@ -14453,8 +14504,11 @@
       <c r="IW18" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IX18" t="n">
+      <c r="IX18" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IY18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="1">
@@ -15231,8 +15285,11 @@
       <c r="IW19" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IX19" t="n">
+      <c r="IX19" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IY19" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="1">
@@ -16009,8 +16066,11 @@
       <c r="IW20" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IX20" t="n">
+      <c r="IX20" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IY20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="1">
@@ -16787,8 +16847,11 @@
       <c r="IW21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IX21" t="n">
+      <c r="IX21" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IY21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="1">
@@ -17565,8 +17628,11 @@
       <c r="IW22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IX22" t="n">
+      <c r="IX22" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IY22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="1">
@@ -18343,8 +18409,11 @@
       <c r="IW23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IX23" t="n">
+      <c r="IX23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IY23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="1">
@@ -19121,8 +19190,11 @@
       <c r="IW24" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IX24" t="n">
+      <c r="IX24" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IY24" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="1">
@@ -19899,8 +19971,11 @@
       <c r="IW25" s="2" t="n">
         <v>62.5</v>
       </c>
-      <c r="IX25" t="n">
+      <c r="IX25" s="2" t="n">
         <v>54.5</v>
+      </c>
+      <c r="IY25" t="n">
+        <v>57.1</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" s="1">
@@ -20677,8 +20752,11 @@
       <c r="IW26" s="2" t="n">
         <v>24.47</v>
       </c>
-      <c r="IX26" t="n">
+      <c r="IX26" s="2" t="n">
         <v>29.42</v>
+      </c>
+      <c r="IY26" t="n">
+        <v>43.25</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="1">
@@ -21455,8 +21533,11 @@
       <c r="IW27" s="2" t="n">
         <v>15.29</v>
       </c>
-      <c r="IX27" t="n">
+      <c r="IX27" s="2" t="n">
         <v>16.05</v>
+      </c>
+      <c r="IY27" t="n">
+        <v>24.71</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" s="1">
@@ -22233,8 +22314,11 @@
       <c r="IW28" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IX28" t="n">
+      <c r="IX28" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IY28" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" s="1">
@@ -23011,8 +23095,11 @@
       <c r="IW29" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="IX29" t="n">
+      <c r="IX29" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="IY29" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" s="1">
@@ -23789,8 +23876,11 @@
       <c r="IW30" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IX30" t="n">
+      <c r="IX30" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IY30" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" s="1">
@@ -24567,8 +24657,11 @@
       <c r="IW31" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IX31" t="n">
+      <c r="IX31" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="IY31" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" s="1">
@@ -25345,8 +25438,11 @@
       <c r="IW32" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IX32" t="n">
+      <c r="IX32" s="2" t="n">
         <v>2.77</v>
+      </c>
+      <c r="IY32" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" s="1">
@@ -26123,8 +26219,11 @@
       <c r="IW33" s="2" t="n">
         <v>3.2</v>
       </c>
-      <c r="IX33" t="n">
+      <c r="IX33" s="2" t="n">
         <v>5.08</v>
+      </c>
+      <c r="IY33" t="n">
+        <v>5.25</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" s="1">
@@ -26901,8 +27000,11 @@
       <c r="IW34" s="2" t="n">
         <v>47.9</v>
       </c>
-      <c r="IX34" t="n">
+      <c r="IX34" s="2" t="n">
         <v>31.1</v>
+      </c>
+      <c r="IY34" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" s="1">
@@ -27679,8 +27781,11 @@
       <c r="IW35" s="2" t="n">
         <v>31.2</v>
       </c>
-      <c r="IX35" t="n">
+      <c r="IX35" s="2" t="n">
         <v>19.7</v>
+      </c>
+      <c r="IY35" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" s="1">
@@ -28457,8 +28562,11 @@
       <c r="IW36" s="2" t="n">
         <v>186.9</v>
       </c>
-      <c r="IX36" t="n">
+      <c r="IX36" s="2" t="n">
         <v>185.9</v>
+      </c>
+      <c r="IY36" t="n">
+        <v>186.3</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" s="1">
@@ -29235,8 +29343,11 @@
       <c r="IW37" s="2" t="n">
         <v>85.8</v>
       </c>
-      <c r="IX37" t="n">
+      <c r="IX37" s="2" t="n">
         <v>85.09999999999999</v>
+      </c>
+      <c r="IY37" t="n">
+        <v>85.3</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" s="1">
@@ -30013,8 +30124,11 @@
       <c r="IW38" s="2" t="n">
         <v>26.58</v>
       </c>
-      <c r="IX38" t="n">
+      <c r="IX38" s="2" t="n">
         <v>26.74</v>
+      </c>
+      <c r="IY38" t="n">
+        <v>26.41</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" s="1">
@@ -30791,8 +30905,11 @@
       <c r="IW39" s="2" t="n">
         <v>111.5</v>
       </c>
-      <c r="IX39" t="n">
+      <c r="IX39" s="2" t="n">
         <v>112.2</v>
+      </c>
+      <c r="IY39" t="n">
+        <v>115.8</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="1">
@@ -31569,8 +31686,11 @@
       <c r="IW40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IX40" t="n">
+      <c r="IX40" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IY40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="1">
@@ -32347,8 +32467,11 @@
       <c r="IW41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IX41" t="n">
+      <c r="IX41" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IY41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" s="1">
@@ -33125,8 +33248,11 @@
       <c r="IW42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IX42" t="n">
+      <c r="IX42" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IY42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" s="1">
@@ -33903,7 +34029,10 @@
       <c r="IW43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IX43" t="n">
+      <c r="IX43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IY43" t="n">
         <v>7</v>
       </c>
     </row>
@@ -34681,8 +34810,11 @@
       <c r="IW44" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="IX44" t="n">
+      <c r="IX44" s="2" t="n">
         <v>131</v>
+      </c>
+      <c r="IY44" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" s="1">
@@ -35459,8 +35591,11 @@
       <c r="IW45" s="2" t="n">
         <v>226</v>
       </c>
-      <c r="IX45" t="n">
+      <c r="IX45" s="2" t="n">
         <v>223</v>
+      </c>
+      <c r="IY45" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" s="1">
@@ -36237,8 +36372,11 @@
       <c r="IW46" s="2" t="n">
         <v>274</v>
       </c>
-      <c r="IX46" t="n">
+      <c r="IX46" s="2" t="n">
         <v>269</v>
+      </c>
+      <c r="IY46" t="n">
+        <v>241</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" s="1">
@@ -37015,8 +37153,11 @@
       <c r="IW47" s="2" t="n">
         <v>74.7</v>
       </c>
-      <c r="IX47" t="n">
+      <c r="IX47" s="2" t="n">
         <v>76.2</v>
+      </c>
+      <c r="IY47" t="n">
+        <v>69.7</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" s="1">
@@ -37793,8 +37934,11 @@
       <c r="IW48" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="IX48" t="n">
+      <c r="IX48" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="IY48" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" s="1">
@@ -38571,8 +38715,11 @@
       <c r="IW49" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IX49" t="n">
+      <c r="IX49" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IY49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" s="1">
@@ -39349,8 +39496,11 @@
       <c r="IW50" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IX50" t="n">
+      <c r="IX50" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IY50" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" s="1">
@@ -40127,8 +40277,11 @@
       <c r="IW51" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IX51" t="n">
+      <c r="IX51" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IY51" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" s="1">
@@ -40905,8 +41058,11 @@
       <c r="IW52" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IX52" t="n">
+      <c r="IX52" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IY52" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" s="1">
@@ -41683,8 +41839,11 @@
       <c r="IW53" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IX53" t="n">
+      <c r="IX53" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IY53" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" s="1">
@@ -42461,8 +42620,11 @@
       <c r="IW54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IX54" t="n">
+      <c r="IX54" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IY54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" s="1">
@@ -43239,8 +43401,11 @@
       <c r="IW55" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IX55" t="n">
+      <c r="IX55" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IY55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" s="1">
@@ -44017,8 +44182,11 @@
       <c r="IW56" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="IX56" t="n">
+      <c r="IX56" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="IY56" t="n">
+        <v>62.5</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" s="1">
@@ -44795,8 +44963,11 @@
       <c r="IW57" s="2" t="n">
         <v>225</v>
       </c>
-      <c r="IX57" t="n">
+      <c r="IX57" s="2" t="n">
         <v>212</v>
+      </c>
+      <c r="IY57" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" s="1">
@@ -45573,8 +45744,11 @@
       <c r="IW58" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="IX58" t="n">
+      <c r="IX58" s="2" t="n">
         <v>161</v>
+      </c>
+      <c r="IY58" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" s="1">
@@ -46351,8 +46525,11 @@
       <c r="IW59" s="2" t="n">
         <v>414</v>
       </c>
-      <c r="IX59" t="n">
+      <c r="IX59" s="2" t="n">
         <v>373</v>
+      </c>
+      <c r="IY59" t="n">
+        <v>411</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" s="1">
@@ -47129,8 +47306,11 @@
       <c r="IW60" s="2" t="n">
         <v>1.19</v>
       </c>
-      <c r="IX60" t="n">
+      <c r="IX60" s="2" t="n">
         <v>1.32</v>
+      </c>
+      <c r="IY60" t="n">
+        <v>1.15</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" s="1">
@@ -47907,8 +48087,11 @@
       <c r="IW61" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="IX61" t="n">
+      <c r="IX61" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="IY61" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" s="1">
@@ -48685,8 +48868,11 @@
       <c r="IW62" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IX62" t="n">
+      <c r="IX62" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="IY62" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" s="1">
@@ -49463,8 +49649,11 @@
       <c r="IW63" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IX63" t="n">
+      <c r="IX63" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="IY63" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" s="1">
@@ -50241,8 +50430,11 @@
       <c r="IW64" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IX64" t="n">
+      <c r="IX64" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IY64" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" s="1">
@@ -51019,8 +51211,11 @@
       <c r="IW65" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IX65" t="n">
+      <c r="IX65" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IY65" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" s="1">
@@ -51797,8 +51992,11 @@
       <c r="IW66" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IX66" t="n">
+      <c r="IX66" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IY66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" s="1">
@@ -52575,8 +52773,11 @@
       <c r="IW67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IX67" t="n">
+      <c r="IX67" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IY67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" s="1">
@@ -53353,8 +53554,11 @@
       <c r="IW68" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IX68" t="n">
+      <c r="IX68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IY68" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" s="1">
@@ -54131,8 +54335,11 @@
       <c r="IW69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IX69" t="n">
+      <c r="IX69" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IY69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" s="1">
@@ -54909,8 +55116,11 @@
       <c r="IW70" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IX70" t="n">
+      <c r="IX70" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IY70" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" s="1">
@@ -55687,8 +55897,11 @@
       <c r="IW71" s="2" t="n">
         <v>26.9</v>
       </c>
-      <c r="IX71" t="n">
+      <c r="IX71" s="2" t="n">
         <v>57.7</v>
+      </c>
+      <c r="IY71" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" s="1">
@@ -56465,8 +56678,11 @@
       <c r="IW72" s="2" t="n">
         <v>59.14</v>
       </c>
-      <c r="IX72" t="n">
+      <c r="IX72" s="2" t="n">
         <v>24.87</v>
+      </c>
+      <c r="IY72" t="n">
+        <v>45.67</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" s="1">
@@ -57243,8 +57459,11 @@
       <c r="IW73" s="2" t="n">
         <v>15.92</v>
       </c>
-      <c r="IX73" t="n">
+      <c r="IX73" s="2" t="n">
         <v>14.35</v>
+      </c>
+      <c r="IY73" t="n">
+        <v>13.26</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" s="1">
@@ -58021,8 +58240,11 @@
       <c r="IW74" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IX74" t="n">
+      <c r="IX74" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IY74" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" s="1">
@@ -58799,8 +59021,11 @@
       <c r="IW75" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IX75" t="n">
+      <c r="IX75" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IY75" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" s="1">
@@ -59577,8 +59802,11 @@
       <c r="IW76" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IX76" t="n">
+      <c r="IX76" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IY76" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" s="1">
@@ -60355,8 +60583,11 @@
       <c r="IW77" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IX77" t="n">
+      <c r="IX77" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IY77" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1" s="1">
@@ -61133,8 +61364,11 @@
       <c r="IW78" s="2" t="n">
         <v>2.19</v>
       </c>
-      <c r="IX78" t="n">
+      <c r="IX78" s="2" t="n">
         <v>1.96</v>
+      </c>
+      <c r="IY78" t="n">
+        <v>2.06</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" s="1">
@@ -61911,8 +62145,11 @@
       <c r="IW79" s="2" t="n">
         <v>8.140000000000001</v>
       </c>
-      <c r="IX79" t="n">
+      <c r="IX79" s="2" t="n">
         <v>3.4</v>
+      </c>
+      <c r="IY79" t="n">
+        <v>7.11</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" s="1">
@@ -62689,8 +62926,11 @@
       <c r="IW80" s="2" t="n">
         <v>38.6</v>
       </c>
-      <c r="IX80" t="n">
+      <c r="IX80" s="2" t="n">
         <v>43.1</v>
+      </c>
+      <c r="IY80" t="n">
+        <v>43.8</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" s="1">
@@ -63467,8 +63707,11 @@
       <c r="IW81" s="2" t="n">
         <v>12.3</v>
       </c>
-      <c r="IX81" t="n">
+      <c r="IX81" s="2" t="n">
         <v>29.4</v>
+      </c>
+      <c r="IY81" t="n">
+        <v>14.1</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" s="1">
@@ -64245,8 +64488,11 @@
       <c r="IW82" s="2" t="n">
         <v>187.3</v>
       </c>
-      <c r="IX82" t="n">
+      <c r="IX82" s="2" t="n">
         <v>186.5</v>
+      </c>
+      <c r="IY82" t="n">
+        <v>187.8</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" s="1">
@@ -65023,8 +65269,11 @@
       <c r="IW83" s="2" t="n">
         <v>85.3</v>
       </c>
-      <c r="IX83" t="n">
+      <c r="IX83" s="2" t="n">
         <v>85.5</v>
+      </c>
+      <c r="IY83" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" s="1">
@@ -65801,7 +66050,10 @@
       <c r="IW84" s="2" t="n">
         <v>25.16</v>
       </c>
-      <c r="IX84" t="n">
+      <c r="IX84" s="2" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="IY84" t="n">
         <v>24.8</v>
       </c>
     </row>
@@ -66579,8 +66831,11 @@
       <c r="IW85" s="2" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="IX85" t="n">
+      <c r="IX85" s="2" t="n">
         <v>76.5</v>
+      </c>
+      <c r="IY85" t="n">
+        <v>86.5</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" s="1">
@@ -67357,8 +67612,11 @@
       <c r="IW86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IX86" t="n">
+      <c r="IX86" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IY86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1" s="1">
@@ -68135,8 +68393,11 @@
       <c r="IW87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IX87" t="n">
+      <c r="IX87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IY87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" s="1">
@@ -68913,8 +69174,11 @@
       <c r="IW88" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IX88" t="n">
+      <c r="IX88" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IY88" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" s="1">
@@ -69691,8 +69955,11 @@
       <c r="IW89" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IX89" t="n">
+      <c r="IX89" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IY89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1" s="1">
@@ -70469,8 +70736,11 @@
       <c r="IW90" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="IX90" t="n">
+      <c r="IX90" s="2" t="n">
         <v>146</v>
+      </c>
+      <c r="IY90" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" s="1">
@@ -71247,8 +71517,11 @@
       <c r="IW91" s="2" t="n">
         <v>283</v>
       </c>
-      <c r="IX91" t="n">
+      <c r="IX91" s="2" t="n">
         <v>217</v>
+      </c>
+      <c r="IY91" t="n">
+        <v>262</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" s="1">
@@ -72025,8 +72298,11 @@
       <c r="IW92" s="2" t="n">
         <v>312</v>
       </c>
-      <c r="IX92" t="n">
+      <c r="IX92" s="2" t="n">
         <v>285</v>
+      </c>
+      <c r="IY92" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1" s="1">
@@ -72803,8 +73079,11 @@
       <c r="IW93" s="2" t="n">
         <v>75.40000000000001</v>
       </c>
-      <c r="IX93" t="n">
+      <c r="IX93" s="2" t="n">
         <v>76.40000000000001</v>
+      </c>
+      <c r="IY93" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" s="1">
@@ -73581,8 +73860,11 @@
       <c r="IW94" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IX94" t="n">
+      <c r="IX94" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IY94" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" s="1">
@@ -74359,8 +74641,11 @@
       <c r="IW95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IX95" t="n">
+      <c r="IX95" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IY95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1" s="1">
@@ -75137,8 +75422,11 @@
       <c r="IW96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IX96" t="n">
+      <c r="IX96" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IY96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" s="1">
@@ -75915,8 +76203,11 @@
       <c r="IW97" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IX97" t="n">
+      <c r="IX97" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IY97" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" s="1">
@@ -76693,8 +76984,11 @@
       <c r="IW98" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IX98" t="n">
+      <c r="IX98" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IY98" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1" s="1">
@@ -77471,8 +77765,11 @@
       <c r="IW99" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IX99" t="n">
+      <c r="IX99" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IY99" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" s="1">
@@ -78249,8 +78546,11 @@
       <c r="IW100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IX100" t="n">
+      <c r="IX100" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IY100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" s="1">
@@ -79027,8 +79327,11 @@
       <c r="IW101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IX101" t="n">
+      <c r="IX101" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IY101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1" s="1">
@@ -79805,8 +80108,11 @@
       <c r="IW102" s="2" t="n">
         <v>85.7</v>
       </c>
-      <c r="IX102" t="n">
+      <c r="IX102" s="2" t="n">
         <v>73.3</v>
+      </c>
+      <c r="IY102" t="n">
+        <v>66.7</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Richmond_stats.xlsx
+++ b/django_AFL_ML/Data/Richmond_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JC102"/>
+  <dimension ref="A1:JI102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HQ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HZ18" activeCellId="0" sqref="HZ18"/>
@@ -1242,8 +1242,26 @@
       <c r="JB1" s="2" t="n">
         <v>10617</v>
       </c>
-      <c r="JC1" t="n">
+      <c r="JC1" s="2" t="n">
         <v>10630</v>
+      </c>
+      <c r="JD1" s="2" t="n">
+        <v>10639</v>
+      </c>
+      <c r="JE1" s="2" t="n">
+        <v>10653</v>
+      </c>
+      <c r="JF1" s="2" t="n">
+        <v>10657</v>
+      </c>
+      <c r="JG1" s="2" t="n">
+        <v>10663</v>
+      </c>
+      <c r="JH1" s="2" t="n">
+        <v>10676</v>
+      </c>
+      <c r="JI1" t="n">
+        <v>10682</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="1">
@@ -2035,7 +2053,25 @@
       <c r="JB2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JC2" t="n">
+      <c r="JC2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JD2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JE2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JF2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JG2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JH2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JI2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2828,8 +2864,26 @@
       <c r="JB3" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JC3" t="n">
+      <c r="JC3" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JD3" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JE3" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JF3" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JG3" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JH3" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="1">
@@ -3621,8 +3675,26 @@
       <c r="JB4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JC4" t="n">
+      <c r="JC4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JD4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="1">
@@ -4414,7 +4486,25 @@
       <c r="JB5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JC5" t="n">
+      <c r="JC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5207,8 +5297,26 @@
       <c r="JB6" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="JC6" t="n">
+      <c r="JC6" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="JD6" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="JE6" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="JF6" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="JG6" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="JH6" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="JI6" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="1">
@@ -6000,8 +6108,26 @@
       <c r="JB7" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="JC7" t="n">
+      <c r="JC7" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="JD7" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="JE7" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="JF7" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="JG7" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="JH7" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="JI7" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="1">
@@ -6793,8 +6919,26 @@
       <c r="JB8" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="JC8" t="n">
+      <c r="JC8" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="JD8" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="JE8" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JF8" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JG8" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="JH8" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JI8" t="n">
+        <v>-2</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="1">
@@ -7586,8 +7730,26 @@
       <c r="JB9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JC9" t="n">
+      <c r="JC9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JF9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JI9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="1">
@@ -8379,8 +8541,26 @@
       <c r="JB10" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JC10" t="n">
+      <c r="JC10" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JD10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JE10" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JF10" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JG10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JH10" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JI10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="1">
@@ -9172,8 +9352,26 @@
       <c r="JB11" s="2" t="n">
         <v>218</v>
       </c>
-      <c r="JC11" t="n">
+      <c r="JC11" s="2" t="n">
         <v>227</v>
+      </c>
+      <c r="JD11" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="JE11" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="JF11" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="JG11" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="JH11" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="JI11" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="1">
@@ -9965,8 +10163,26 @@
       <c r="JB12" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="JC12" t="n">
+      <c r="JC12" s="2" t="n">
         <v>168</v>
+      </c>
+      <c r="JD12" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="JE12" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="JF12" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="JG12" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="JH12" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="JI12" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="1">
@@ -10758,8 +10974,26 @@
       <c r="JB13" s="2" t="n">
         <v>378</v>
       </c>
-      <c r="JC13" t="n">
+      <c r="JC13" s="2" t="n">
         <v>395</v>
+      </c>
+      <c r="JD13" s="2" t="n">
+        <v>335</v>
+      </c>
+      <c r="JE13" s="2" t="n">
+        <v>345</v>
+      </c>
+      <c r="JF13" s="2" t="n">
+        <v>372</v>
+      </c>
+      <c r="JG13" s="2" t="n">
+        <v>341</v>
+      </c>
+      <c r="JH13" s="2" t="n">
+        <v>348</v>
+      </c>
+      <c r="JI13" t="n">
+        <v>334</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="1">
@@ -11551,8 +11785,26 @@
       <c r="JB14" s="2" t="n">
         <v>1.36</v>
       </c>
-      <c r="JC14" t="n">
+      <c r="JC14" s="2" t="n">
         <v>1.35</v>
+      </c>
+      <c r="JD14" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="JE14" s="2" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="JF14" s="2" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="JG14" s="2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="JH14" s="2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="JI14" t="n">
+        <v>1.59</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="1">
@@ -12344,8 +12596,26 @@
       <c r="JB15" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="JC15" t="n">
+      <c r="JC15" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="JD15" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JE15" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="JF15" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="JG15" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="JH15" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="JI15" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="1">
@@ -13137,8 +13407,26 @@
       <c r="JB16" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="JC16" t="n">
+      <c r="JC16" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JD16" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="JE16" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JF16" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JG16" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JH16" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JI16" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="1">
@@ -13930,8 +14218,26 @@
       <c r="JB17" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="JC17" t="n">
+      <c r="JC17" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JD17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JE17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JF17" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JG17" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JH17" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JI17" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="1">
@@ -14723,8 +15029,26 @@
       <c r="JB18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JC18" t="n">
+      <c r="JC18" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JD18" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JE18" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JF18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JG18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JH18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JI18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="1">
@@ -15516,8 +15840,26 @@
       <c r="JB19" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="JC19" t="n">
+      <c r="JC19" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="JD19" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JE19" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JF19" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JG19" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JH19" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JI19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="1">
@@ -16309,8 +16651,26 @@
       <c r="JB20" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JC20" t="n">
+      <c r="JC20" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JD20" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JE20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JF20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JG20" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JH20" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JI20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="1">
@@ -17102,8 +17462,26 @@
       <c r="JB21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JC21" t="n">
+      <c r="JC21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JD21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JE21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JF21" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JG21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JH21" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JI21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="1">
@@ -17895,8 +18273,26 @@
       <c r="JB22" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JC22" t="n">
+      <c r="JC22" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JD22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JE22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JF22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JG22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JH22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JI22" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="1">
@@ -18688,8 +19084,26 @@
       <c r="JB23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JC23" t="n">
+      <c r="JC23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JD23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JE23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JF23" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JG23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JH23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JI23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="1">
@@ -19481,8 +19895,26 @@
       <c r="JB24" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JC24" t="n">
+      <c r="JC24" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="JD24" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JE24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JF24" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JG24" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JH24" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="JI24" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="1">
@@ -20274,8 +20706,26 @@
       <c r="JB25" s="2" t="n">
         <v>53.1</v>
       </c>
-      <c r="JC25" t="n">
+      <c r="JC25" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JD25" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JE25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JF25" s="2" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="JG25" s="2" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="JH25" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="JI25" t="n">
+        <v>48.1</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" s="1">
@@ -21067,8 +21517,26 @@
       <c r="JB26" s="2" t="n">
         <v>22.24</v>
       </c>
-      <c r="JC26" t="n">
+      <c r="JC26" s="2" t="n">
         <v>35.91</v>
+      </c>
+      <c r="JD26" s="2" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="JE26" s="2" t="n">
+        <v>31.36</v>
+      </c>
+      <c r="JF26" s="2" t="n">
+        <v>33.82</v>
+      </c>
+      <c r="JG26" s="2" t="n">
+        <v>26.23</v>
+      </c>
+      <c r="JH26" s="2" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="JI26" t="n">
+        <v>25.69</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="1">
@@ -21860,8 +22328,26 @@
       <c r="JB27" s="2" t="n">
         <v>11.81</v>
       </c>
-      <c r="JC27" t="n">
+      <c r="JC27" s="2" t="n">
         <v>15.8</v>
+      </c>
+      <c r="JD27" s="2" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="JE27" s="2" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="JF27" s="2" t="n">
+        <v>14.31</v>
+      </c>
+      <c r="JG27" s="2" t="n">
+        <v>16.24</v>
+      </c>
+      <c r="JH27" s="2" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="JI27" t="n">
+        <v>12.37</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" s="1">
@@ -22653,8 +23139,26 @@
       <c r="JB28" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JC28" t="n">
+      <c r="JC28" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="JD28" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JE28" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JF28" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JG28" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JH28" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JI28" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" s="1">
@@ -23446,8 +23950,26 @@
       <c r="JB29" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="JC29" t="n">
+      <c r="JC29" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="JD29" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="JE29" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="JF29" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JG29" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="JH29" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JI29" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" s="1">
@@ -24239,8 +24761,26 @@
       <c r="JB30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="JC30" t="n">
+      <c r="JC30" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JD30" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JE30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JF30" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JG30" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JH30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JI30" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" s="1">
@@ -25032,8 +25572,26 @@
       <c r="JB31" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="JC31" t="n">
+      <c r="JC31" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JD31" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="JE31" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="JF31" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JG31" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JH31" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JI31" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" s="1">
@@ -25825,8 +26383,26 @@
       <c r="JB32" s="2" t="n">
         <v>2.06</v>
       </c>
-      <c r="JC32" t="n">
+      <c r="JC32" s="2" t="n">
         <v>2.2</v>
+      </c>
+      <c r="JD32" s="2" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="JE32" s="2" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="JF32" s="2" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="JG32" s="2" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="JH32" s="2" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="JI32" t="n">
+        <v>2.33</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" s="1">
@@ -26618,8 +27194,26 @@
       <c r="JB33" s="2" t="n">
         <v>3.88</v>
       </c>
-      <c r="JC33" t="n">
+      <c r="JC33" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JD33" s="2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="JE33" s="2" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="JF33" s="2" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="JG33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JH33" s="2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="JI33" t="n">
+        <v>4.85</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" s="1">
@@ -27411,8 +28005,26 @@
       <c r="JB34" s="2" t="n">
         <v>45.5</v>
       </c>
-      <c r="JC34" t="n">
+      <c r="JC34" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JD34" s="2" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="JE34" s="2" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="JF34" s="2" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="JG34" s="2" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="JH34" s="2" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="JI34" t="n">
+        <v>41.3</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" s="1">
@@ -28204,8 +28816,26 @@
       <c r="JB35" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="JC35" t="n">
+      <c r="JC35" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JD35" s="2" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="JE35" s="2" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="JF35" s="2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="JG35" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JH35" s="2" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="JI35" t="n">
+        <v>20.6</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" s="1">
@@ -28997,8 +29627,26 @@
       <c r="JB36" s="2" t="n">
         <v>186.4</v>
       </c>
-      <c r="JC36" t="n">
+      <c r="JC36" s="2" t="n">
         <v>186.4</v>
+      </c>
+      <c r="JD36" s="2" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="JE36" s="2" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="JF36" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="JG36" s="2" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="JH36" s="2" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="JI36" t="n">
+        <v>186.3</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" s="1">
@@ -29790,8 +30438,26 @@
       <c r="JB37" s="2" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="JC37" t="n">
+      <c r="JC37" s="2" t="n">
         <v>85.90000000000001</v>
+      </c>
+      <c r="JD37" s="2" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="JE37" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="JF37" s="2" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="JG37" s="2" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="JH37" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="JI37" t="n">
+        <v>85.3</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" s="1">
@@ -30583,8 +31249,26 @@
       <c r="JB38" s="2" t="n">
         <v>27.49</v>
       </c>
-      <c r="JC38" t="n">
+      <c r="JC38" s="2" t="n">
         <v>27.66</v>
+      </c>
+      <c r="JD38" s="2" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="JE38" s="2" t="n">
+        <v>27.33</v>
+      </c>
+      <c r="JF38" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JG38" s="2" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="JH38" s="2" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="JI38" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" s="1">
@@ -31376,8 +32060,26 @@
       <c r="JB39" s="2" t="n">
         <v>135.3</v>
       </c>
-      <c r="JC39" t="n">
+      <c r="JC39" s="2" t="n">
         <v>139.4</v>
+      </c>
+      <c r="JD39" s="2" t="n">
+        <v>128.3</v>
+      </c>
+      <c r="JE39" s="2" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="JF39" s="2" t="n">
+        <v>128.6</v>
+      </c>
+      <c r="JG39" s="2" t="n">
+        <v>124.4</v>
+      </c>
+      <c r="JH39" s="2" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="JI39" t="n">
+        <v>112.4</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="1">
@@ -32169,8 +32871,26 @@
       <c r="JB40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JC40" t="n">
+      <c r="JC40" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JD40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JE40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JF40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JG40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JH40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JI40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="1">
@@ -32962,8 +33682,26 @@
       <c r="JB41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JC41" t="n">
+      <c r="JC41" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JD41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JE41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JF41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JG41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JH41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JI41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" s="1">
@@ -33755,7 +34493,25 @@
       <c r="JB42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JC42" t="n">
+      <c r="JC42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JD42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JE42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JF42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JG42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JH42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JI42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -34548,8 +35304,26 @@
       <c r="JB43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JC43" t="n">
+      <c r="JC43" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JD43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JE43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JF43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JG43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JH43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JI43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" s="1">
@@ -35341,8 +36115,26 @@
       <c r="JB44" s="2" t="n">
         <v>141</v>
       </c>
-      <c r="JC44" t="n">
+      <c r="JC44" s="2" t="n">
         <v>153</v>
+      </c>
+      <c r="JD44" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="JE44" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="JF44" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="JG44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="JH44" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="JI44" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" s="1">
@@ -36134,8 +36926,26 @@
       <c r="JB45" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="JC45" t="n">
+      <c r="JC45" s="2" t="n">
         <v>240</v>
+      </c>
+      <c r="JD45" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="JE45" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="JF45" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="JG45" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="JH45" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="JI45" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" s="1">
@@ -36927,8 +37737,26 @@
       <c r="JB46" s="2" t="n">
         <v>270</v>
       </c>
-      <c r="JC46" t="n">
+      <c r="JC46" s="2" t="n">
         <v>286</v>
+      </c>
+      <c r="JD46" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="JE46" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="JF46" s="2" t="n">
+        <v>253</v>
+      </c>
+      <c r="JG46" s="2" t="n">
+        <v>251</v>
+      </c>
+      <c r="JH46" s="2" t="n">
+        <v>271</v>
+      </c>
+      <c r="JI46" t="n">
+        <v>237</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" s="1">
@@ -37720,8 +38548,26 @@
       <c r="JB47" s="2" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="JC47" t="n">
+      <c r="JC47" s="2" t="n">
         <v>72.40000000000001</v>
+      </c>
+      <c r="JD47" s="2" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="JE47" s="2" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="JF47" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="JG47" s="2" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="JH47" s="2" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="JI47" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" s="1">
@@ -38513,8 +39359,26 @@
       <c r="JB48" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="JC48" t="n">
+      <c r="JC48" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="JD48" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="JE48" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="JF48" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JG48" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="JH48" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JI48" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" s="1">
@@ -39306,8 +40170,26 @@
       <c r="JB49" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JC49" t="n">
+      <c r="JC49" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JD49" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JE49" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JF49" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JG49" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JH49" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JI49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" s="1">
@@ -40099,8 +40981,26 @@
       <c r="JB50" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JC50" t="n">
+      <c r="JC50" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JD50" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JE50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JF50" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JG50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JH50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JI50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" s="1">
@@ -40892,8 +41792,26 @@
       <c r="JB51" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JC51" t="n">
+      <c r="JC51" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="JD51" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JE51" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JF51" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JG51" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JH51" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JI51" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" s="1">
@@ -41685,8 +42603,26 @@
       <c r="JB52" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="JC52" t="n">
+      <c r="JC52" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JD52" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JE52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JF52" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JG52" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JH52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JI52" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" s="1">
@@ -42478,8 +43414,26 @@
       <c r="JB53" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JC53" t="n">
+      <c r="JC53" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JD53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JE53" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="JF53" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="JG53" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JH53" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JI53" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" s="1">
@@ -43271,8 +44225,26 @@
       <c r="JB54" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JC54" t="n">
+      <c r="JC54" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JD54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JE54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JF54" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JG54" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JH54" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JI54" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" s="1">
@@ -44064,8 +45036,26 @@
       <c r="JB55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JC55" t="n">
+      <c r="JC55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JD55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JE55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JF55" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JG55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JH55" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JI55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" s="1">
@@ -44857,8 +45847,26 @@
       <c r="JB56" s="2" t="n">
         <v>52.9</v>
       </c>
-      <c r="JC56" t="n">
+      <c r="JC56" s="2" t="n">
         <v>81.8</v>
+      </c>
+      <c r="JD56" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JE56" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="JF56" s="2" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="JG56" s="2" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="JH56" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JI56" t="n">
+        <v>46.2</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" s="1">
@@ -45650,8 +46658,26 @@
       <c r="JB57" s="2" t="n">
         <v>203</v>
       </c>
-      <c r="JC57" t="n">
+      <c r="JC57" s="2" t="n">
         <v>202</v>
+      </c>
+      <c r="JD57" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="JE57" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="JF57" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="JG57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="JH57" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="JI57" t="n">
+        <v>237</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" s="1">
@@ -46443,8 +47469,26 @@
       <c r="JB58" s="2" t="n">
         <v>134</v>
       </c>
-      <c r="JC58" t="n">
+      <c r="JC58" s="2" t="n">
         <v>154</v>
+      </c>
+      <c r="JD58" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="JE58" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="JF58" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="JG58" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="JH58" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="JI58" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" s="1">
@@ -47236,8 +48280,26 @@
       <c r="JB59" s="2" t="n">
         <v>337</v>
       </c>
-      <c r="JC59" t="n">
+      <c r="JC59" s="2" t="n">
         <v>356</v>
+      </c>
+      <c r="JD59" s="2" t="n">
+        <v>309</v>
+      </c>
+      <c r="JE59" s="2" t="n">
+        <v>378</v>
+      </c>
+      <c r="JF59" s="2" t="n">
+        <v>388</v>
+      </c>
+      <c r="JG59" s="2" t="n">
+        <v>348</v>
+      </c>
+      <c r="JH59" s="2" t="n">
+        <v>378</v>
+      </c>
+      <c r="JI59" t="n">
+        <v>345</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" s="1">
@@ -48029,8 +49091,26 @@
       <c r="JB60" s="2" t="n">
         <v>1.51</v>
       </c>
-      <c r="JC60" t="n">
+      <c r="JC60" s="2" t="n">
         <v>1.31</v>
+      </c>
+      <c r="JD60" s="2" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="JE60" s="2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="JF60" s="2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="JG60" s="2" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="JH60" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="JI60" t="n">
+        <v>2.19</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" s="1">
@@ -48822,8 +49902,26 @@
       <c r="JB61" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="JC61" t="n">
+      <c r="JC61" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="JD61" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JE61" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="JF61" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="JG61" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="JH61" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="JI61" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" s="1">
@@ -49615,8 +50713,26 @@
       <c r="JB62" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JC62" t="n">
+      <c r="JC62" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="JD62" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JE62" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JF62" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JG62" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JH62" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JI62" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" s="1">
@@ -50408,8 +51524,26 @@
       <c r="JB63" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JC63" t="n">
+      <c r="JC63" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JD63" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JE63" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JF63" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="JG63" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="JH63" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JI63" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" s="1">
@@ -51201,8 +52335,26 @@
       <c r="JB64" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="JC64" t="n">
+      <c r="JC64" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="JD64" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JE64" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JF64" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JG64" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JH64" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JI64" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" s="1">
@@ -51994,8 +53146,26 @@
       <c r="JB65" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JC65" t="n">
+      <c r="JC65" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JD65" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JE65" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JF65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JG65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JH65" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JI65" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" s="1">
@@ -52787,8 +53957,26 @@
       <c r="JB66" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JC66" t="n">
+      <c r="JC66" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JD66" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JE66" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JF66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JG66" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JH66" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JI66" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" s="1">
@@ -53580,8 +54768,26 @@
       <c r="JB67" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JC67" t="n">
+      <c r="JC67" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JD67" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JE67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JF67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JG67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JH67" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JI67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" s="1">
@@ -54373,8 +55579,26 @@
       <c r="JB68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JC68" t="n">
+      <c r="JC68" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JD68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JE68" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JF68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JG68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JH68" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JI68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" s="1">
@@ -55166,8 +56390,26 @@
       <c r="JB69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JC69" t="n">
+      <c r="JC69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JD69" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JE69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JF69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JG69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JH69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JI69" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" s="1">
@@ -55959,8 +57201,26 @@
       <c r="JB70" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JC70" t="n">
+      <c r="JC70" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JD70" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JE70" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JF70" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JG70" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JH70" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="JI70" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" s="1">
@@ -56752,8 +58012,26 @@
       <c r="JB71" s="2" t="n">
         <v>58.3</v>
       </c>
-      <c r="JC71" t="n">
+      <c r="JC71" s="2" t="n">
         <v>53.8</v>
+      </c>
+      <c r="JD71" s="2" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="JE71" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JF71" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="JG71" s="2" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="JH71" s="2" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="JI71" t="n">
+        <v>58.3</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" s="1">
@@ -57545,8 +58823,26 @@
       <c r="JB72" s="2" t="n">
         <v>24.07</v>
       </c>
-      <c r="JC72" t="n">
+      <c r="JC72" s="2" t="n">
         <v>50.86</v>
+      </c>
+      <c r="JD72" s="2" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="JE72" s="2" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="JF72" s="2" t="n">
+        <v>43.11</v>
+      </c>
+      <c r="JG72" s="2" t="n">
+        <v>26.77</v>
+      </c>
+      <c r="JH72" s="2" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="JI72" t="n">
+        <v>24.64</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" s="1">
@@ -58338,8 +59634,26 @@
       <c r="JB73" s="2" t="n">
         <v>14.04</v>
       </c>
-      <c r="JC73" t="n">
+      <c r="JC73" s="2" t="n">
         <v>27.38</v>
+      </c>
+      <c r="JD73" s="2" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="JE73" s="2" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="JF73" s="2" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="JG73" s="2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="JH73" s="2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="JI73" t="n">
+        <v>14.38</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" s="1">
@@ -59131,8 +60445,26 @@
       <c r="JB74" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JC74" t="n">
+      <c r="JC74" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="JD74" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JE74" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JF74" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="JG74" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JH74" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JI74" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" s="1">
@@ -59924,8 +61256,26 @@
       <c r="JB75" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JC75" t="n">
+      <c r="JC75" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="JD75" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="JE75" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="JF75" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="JG75" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="JH75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JI75" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" s="1">
@@ -60717,8 +62067,26 @@
       <c r="JB76" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JC76" t="n">
+      <c r="JC76" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="JD76" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JE76" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JF76" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="JG76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JH76" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JI76" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" s="1">
@@ -61510,8 +62878,26 @@
       <c r="JB77" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JC77" t="n">
+      <c r="JC77" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JD77" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JE77" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JF77" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JG77" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="JH77" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="JI77" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1" s="1">
@@ -62303,8 +63689,26 @@
       <c r="JB78" s="2" t="n">
         <v>1.88</v>
       </c>
-      <c r="JC78" t="n">
+      <c r="JC78" s="2" t="n">
         <v>3.77</v>
+      </c>
+      <c r="JD78" s="2" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="JE78" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="JF78" s="2" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="JG78" s="2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="JH78" s="2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="JI78" t="n">
+        <v>2.38</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" s="1">
@@ -63096,8 +64500,26 @@
       <c r="JB79" s="2" t="n">
         <v>3.21</v>
       </c>
-      <c r="JC79" t="n">
+      <c r="JC79" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JD79" s="2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="JE79" s="2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="JF79" s="2" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="JG79" s="2" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="JH79" s="2" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="JI79" t="n">
+        <v>4.07</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" s="1">
@@ -63889,8 +65311,26 @@
       <c r="JB80" s="2" t="n">
         <v>46.7</v>
       </c>
-      <c r="JC80" t="n">
+      <c r="JC80" s="2" t="n">
         <v>22.4</v>
+      </c>
+      <c r="JD80" s="2" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="JE80" s="2" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="JF80" s="2" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="JG80" s="2" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="JH80" s="2" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="JI80" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" s="1">
@@ -64682,8 +66122,26 @@
       <c r="JB81" s="2" t="n">
         <v>31.1</v>
       </c>
-      <c r="JC81" t="n">
+      <c r="JC81" s="2" t="n">
         <v>14.3</v>
+      </c>
+      <c r="JD81" s="2" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="JE81" s="2" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="JF81" s="2" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="JG81" s="2" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="JH81" s="2" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="JI81" t="n">
+        <v>24.6</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" s="1">
@@ -65475,8 +66933,26 @@
       <c r="JB82" s="2" t="n">
         <v>187.6</v>
       </c>
-      <c r="JC82" t="n">
+      <c r="JC82" s="2" t="n">
         <v>187.9</v>
+      </c>
+      <c r="JD82" s="2" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="JE82" s="2" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="JF82" s="2" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="JG82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JH82" s="2" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="JI82" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" s="1">
@@ -66268,8 +67744,26 @@
       <c r="JB83" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="JC83" t="n">
+      <c r="JC83" s="2" t="n">
         <v>85.5</v>
+      </c>
+      <c r="JD83" s="2" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="JE83" s="2" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="JF83" s="2" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="JG83" s="2" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="JH83" s="2" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="JI83" t="n">
+        <v>87.2</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" s="1">
@@ -67061,8 +68555,26 @@
       <c r="JB84" s="2" t="n">
         <v>24.33</v>
       </c>
-      <c r="JC84" t="n">
+      <c r="JC84" s="2" t="n">
         <v>24.41</v>
+      </c>
+      <c r="JD84" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JE84" s="2" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="JF84" s="2" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="JG84" s="2" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="JH84" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="JI84" t="n">
+        <v>25.16</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" s="1">
@@ -67854,8 +69366,26 @@
       <c r="JB85" s="2" t="n">
         <v>74.7</v>
       </c>
-      <c r="JC85" t="n">
+      <c r="JC85" s="2" t="n">
         <v>75.2</v>
+      </c>
+      <c r="JD85" s="2" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="JE85" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="JF85" s="2" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="JG85" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="JH85" s="2" t="n">
+        <v>117.8</v>
+      </c>
+      <c r="JI85" t="n">
+        <v>89.2</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" s="1">
@@ -68647,8 +70177,26 @@
       <c r="JB86" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JC86" t="n">
+      <c r="JC86" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JD86" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JE86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JF86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JG86" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JH86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JI86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1" s="1">
@@ -69440,8 +70988,26 @@
       <c r="JB87" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JC87" t="n">
+      <c r="JC87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JD87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JE87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JF87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JG87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JH87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JI87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" s="1">
@@ -70233,8 +71799,26 @@
       <c r="JB88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JC88" t="n">
+      <c r="JC88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JD88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JE88" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JF88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JG88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JH88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JI88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" s="1">
@@ -71026,7 +72610,25 @@
       <c r="JB89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JC89" t="n">
+      <c r="JC89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JD89" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JE89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JF89" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JG89" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JH89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JI89" t="n">
         <v>4</v>
       </c>
     </row>
@@ -71819,8 +73421,26 @@
       <c r="JB90" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="JC90" t="n">
+      <c r="JC90" s="2" t="n">
         <v>143</v>
+      </c>
+      <c r="JD90" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="JE90" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="JF90" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="JG90" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="JH90" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="JI90" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" s="1">
@@ -72612,8 +74232,26 @@
       <c r="JB91" s="2" t="n">
         <v>184</v>
       </c>
-      <c r="JC91" t="n">
+      <c r="JC91" s="2" t="n">
         <v>205</v>
+      </c>
+      <c r="JD91" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="JE91" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="JF91" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="JG91" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="JH91" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="JI91" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" s="1">
@@ -73405,8 +75043,26 @@
       <c r="JB92" s="2" t="n">
         <v>235</v>
       </c>
-      <c r="JC92" t="n">
+      <c r="JC92" s="2" t="n">
         <v>261</v>
+      </c>
+      <c r="JD92" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="JE92" s="2" t="n">
+        <v>283</v>
+      </c>
+      <c r="JF92" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="JG92" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="JH92" s="2" t="n">
+        <v>282</v>
+      </c>
+      <c r="JI92" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1" s="1">
@@ -74198,8 +75854,26 @@
       <c r="JB93" s="2" t="n">
         <v>69.7</v>
       </c>
-      <c r="JC93" t="n">
+      <c r="JC93" s="2" t="n">
         <v>73.3</v>
+      </c>
+      <c r="JD93" s="2" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="JE93" s="2" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="JF93" s="2" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="JG93" s="2" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="JH93" s="2" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="JI93" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" s="1">
@@ -74991,8 +76665,26 @@
       <c r="JB94" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JC94" t="n">
+      <c r="JC94" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="JD94" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="JE94" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="JF94" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="JG94" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="JH94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JI94" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" s="1">
@@ -75784,8 +77476,26 @@
       <c r="JB95" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JC95" t="n">
+      <c r="JC95" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JD95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JE95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JF95" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JG95" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JH95" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JI95" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1" s="1">
@@ -76577,8 +78287,26 @@
       <c r="JB96" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JC96" t="n">
+      <c r="JC96" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JD96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JE96" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JF96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JG96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JH96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JI96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" s="1">
@@ -77370,8 +79098,26 @@
       <c r="JB97" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JC97" t="n">
+      <c r="JC97" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="JD97" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JE97" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JF97" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="JG97" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JH97" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JI97" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" s="1">
@@ -78163,8 +79909,26 @@
       <c r="JB98" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JC98" t="n">
+      <c r="JC98" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="JD98" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JE98" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JF98" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="JG98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JH98" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JI98" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1" s="1">
@@ -78956,8 +80720,26 @@
       <c r="JB99" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JC99" t="n">
+      <c r="JC99" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JD99" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JE99" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JF99" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JG99" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JH99" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JI99" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" s="1">
@@ -79749,8 +81531,26 @@
       <c r="JB100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JC100" t="n">
+      <c r="JC100" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JD100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JE100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JF100" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JG100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JH100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JI100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" s="1">
@@ -80542,8 +82342,26 @@
       <c r="JB101" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JC101" t="n">
+      <c r="JC101" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JD101" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JE101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JF101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JG101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JH101" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JI101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1" s="1">
@@ -81335,8 +83153,26 @@
       <c r="JB102" s="2" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="JC102" t="n">
+      <c r="JC102" s="2" t="n">
         <v>85.7</v>
+      </c>
+      <c r="JD102" s="2" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="JE102" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JF102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="JG102" s="2" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="JH102" s="2" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="JI102" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Richmond_stats.xlsx
+++ b/django_AFL_ML/Data/Richmond_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JI102"/>
+  <dimension ref="A1:JQ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HQ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HZ18" activeCellId="0" sqref="HZ18"/>
@@ -1260,8 +1260,32 @@
       <c r="JH1" s="2" t="n">
         <v>10676</v>
       </c>
-      <c r="JI1" t="n">
+      <c r="JI1" s="2" t="n">
         <v>10682</v>
+      </c>
+      <c r="JJ1" s="2" t="n">
+        <v>10692</v>
+      </c>
+      <c r="JK1" s="2" t="n">
+        <v>10692</v>
+      </c>
+      <c r="JL1" s="2" t="n">
+        <v>10692</v>
+      </c>
+      <c r="JM1" s="2" t="n">
+        <v>10701</v>
+      </c>
+      <c r="JN1" s="2" t="n">
+        <v>10710</v>
+      </c>
+      <c r="JO1" s="2" t="n">
+        <v>10722</v>
+      </c>
+      <c r="JP1" s="2" t="n">
+        <v>10727</v>
+      </c>
+      <c r="JQ1" t="n">
+        <v>10735</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="1">
@@ -2071,7 +2095,31 @@
       <c r="JH2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JI2" t="n">
+      <c r="JI2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JJ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JK2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JL2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JM2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JN2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JO2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JP2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JQ2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2882,8 +2930,32 @@
       <c r="JH3" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JI3" t="n">
+      <c r="JI3" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JJ3" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JK3" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JL3" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JM3" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JN3" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JO3" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JP3" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="1">
@@ -3693,7 +3765,31 @@
       <c r="JH4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JI4" t="n">
+      <c r="JI4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JJ4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,8 +4600,32 @@
       <c r="JH5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JI5" t="n">
+      <c r="JI5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM5" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="JN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="1">
@@ -5315,8 +5435,32 @@
       <c r="JH6" s="2" t="n">
         <v>128</v>
       </c>
-      <c r="JI6" t="n">
+      <c r="JI6" s="2" t="n">
         <v>92</v>
+      </c>
+      <c r="JJ6" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="JK6" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="JL6" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="JM6" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JN6" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="JO6" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="JP6" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="JQ6" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="1">
@@ -6126,8 +6270,32 @@
       <c r="JH7" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="JI7" t="n">
+      <c r="JI7" s="2" t="n">
         <v>94</v>
+      </c>
+      <c r="JJ7" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="JK7" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="JL7" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="JM7" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JN7" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="JO7" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="JP7" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="JQ7" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="1">
@@ -6937,8 +7105,32 @@
       <c r="JH8" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JI8" t="n">
+      <c r="JI8" s="2" t="n">
         <v>-2</v>
+      </c>
+      <c r="JJ8" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="JK8" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="JL8" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="JM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JO8" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JP8" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JQ8" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="1">
@@ -7748,8 +7940,32 @@
       <c r="JH9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JI9" t="n">
+      <c r="JI9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM9" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="JN9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="1">
@@ -8559,8 +8775,32 @@
       <c r="JH10" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JI10" t="n">
+      <c r="JI10" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JJ10" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JK10" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JL10" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JM10" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JN10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO10" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JP10" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JQ10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="1">
@@ -9370,8 +9610,32 @@
       <c r="JH11" s="2" t="n">
         <v>204</v>
       </c>
-      <c r="JI11" t="n">
+      <c r="JI11" s="2" t="n">
         <v>205</v>
+      </c>
+      <c r="JJ11" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="JK11" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="JL11" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="JM11" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="JN11" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="JO11" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="JP11" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="JQ11" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="1">
@@ -10181,8 +10445,32 @@
       <c r="JH12" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="JI12" t="n">
+      <c r="JI12" s="2" t="n">
         <v>129</v>
+      </c>
+      <c r="JJ12" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="JK12" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="JL12" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="JM12" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="JN12" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="JO12" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="JP12" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="JQ12" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="1">
@@ -10992,8 +11280,32 @@
       <c r="JH13" s="2" t="n">
         <v>348</v>
       </c>
-      <c r="JI13" t="n">
+      <c r="JI13" s="2" t="n">
         <v>334</v>
+      </c>
+      <c r="JJ13" s="2" t="n">
+        <v>337</v>
+      </c>
+      <c r="JK13" s="2" t="n">
+        <v>337</v>
+      </c>
+      <c r="JL13" s="2" t="n">
+        <v>337</v>
+      </c>
+      <c r="JM13" s="2" t="n">
+        <v>342</v>
+      </c>
+      <c r="JN13" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="JO13" s="2" t="n">
+        <v>386</v>
+      </c>
+      <c r="JP13" s="2" t="n">
+        <v>363</v>
+      </c>
+      <c r="JQ13" t="n">
+        <v>367</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="1">
@@ -11803,8 +12115,32 @@
       <c r="JH14" s="2" t="n">
         <v>1.42</v>
       </c>
-      <c r="JI14" t="n">
+      <c r="JI14" s="2" t="n">
         <v>1.59</v>
+      </c>
+      <c r="JJ14" s="2" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="JK14" s="2" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="JL14" s="2" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="JM14" s="2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="JN14" s="2" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="JO14" s="2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="JP14" s="2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="JQ14" t="n">
+        <v>1.43</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="1">
@@ -12614,8 +12950,32 @@
       <c r="JH15" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="JI15" t="n">
+      <c r="JI15" s="2" t="n">
         <v>82</v>
+      </c>
+      <c r="JJ15" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="JK15" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="JL15" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="JM15" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="JN15" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JO15" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="JP15" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="JQ15" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="1">
@@ -13425,8 +13785,32 @@
       <c r="JH16" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JI16" t="n">
+      <c r="JI16" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JJ16" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JK16" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JL16" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JM16" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="JN16" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JO16" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JP16" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JQ16" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="1">
@@ -14236,8 +14620,32 @@
       <c r="JH17" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="JI17" t="n">
+      <c r="JI17" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="JJ17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JK17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JL17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JM17" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JN17" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JO17" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JP17" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JQ17" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="1">
@@ -15047,8 +15455,32 @@
       <c r="JH18" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JI18" t="n">
+      <c r="JI18" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JJ18" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JK18" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JL18" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JM18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JN18" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JO18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JP18" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JQ18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="1">
@@ -15858,8 +16290,32 @@
       <c r="JH19" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JI19" t="n">
+      <c r="JI19" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JJ19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JK19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JL19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JM19" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JN19" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JO19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JP19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JQ19" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="1">
@@ -16669,8 +17125,32 @@
       <c r="JH20" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JI20" t="n">
+      <c r="JI20" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JJ20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JK20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JL20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JM20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JN20" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JO20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JP20" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JQ20" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="1">
@@ -17480,8 +17960,32 @@
       <c r="JH21" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JI21" t="n">
+      <c r="JI21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JJ21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JK21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JL21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JM21" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JN21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JO21" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JP21" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JQ21" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="1">
@@ -18291,8 +18795,32 @@
       <c r="JH22" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JI22" t="n">
+      <c r="JI22" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JJ22" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JK22" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JL22" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JM22" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JN22" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JO22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JP22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JQ22" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="1">
@@ -19102,8 +19630,32 @@
       <c r="JH23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JI23" t="n">
+      <c r="JI23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JJ23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JK23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JL23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JM23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JN23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JP23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JQ23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="1">
@@ -19913,8 +20465,32 @@
       <c r="JH24" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="JI24" t="n">
+      <c r="JI24" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="JJ24" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JK24" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JL24" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JM24" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JN24" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JO24" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JP24" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="JQ24" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="1">
@@ -20724,8 +21300,32 @@
       <c r="JH25" s="2" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="JI25" t="n">
+      <c r="JI25" s="2" t="n">
         <v>48.1</v>
+      </c>
+      <c r="JJ25" s="2" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="JK25" s="2" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="JL25" s="2" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="JM25" s="2" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="JN25" s="2" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="JO25" s="2" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="JP25" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="JQ25" t="n">
+        <v>58.3</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" s="1">
@@ -21535,8 +22135,32 @@
       <c r="JH26" s="2" t="n">
         <v>17.4</v>
       </c>
-      <c r="JI26" t="n">
+      <c r="JI26" s="2" t="n">
         <v>25.69</v>
+      </c>
+      <c r="JJ26" s="2" t="n">
+        <v>30.64</v>
+      </c>
+      <c r="JK26" s="2" t="n">
+        <v>30.64</v>
+      </c>
+      <c r="JL26" s="2" t="n">
+        <v>30.64</v>
+      </c>
+      <c r="JM26" s="2" t="n">
+        <v>48.86</v>
+      </c>
+      <c r="JN26" s="2" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="JO26" s="2" t="n">
+        <v>24.12</v>
+      </c>
+      <c r="JP26" s="2" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="JQ26" t="n">
+        <v>17.48</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="1">
@@ -22346,8 +22970,32 @@
       <c r="JH27" s="2" t="n">
         <v>12.43</v>
       </c>
-      <c r="JI27" t="n">
+      <c r="JI27" s="2" t="n">
         <v>12.37</v>
+      </c>
+      <c r="JJ27" s="2" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="JK27" s="2" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="JL27" s="2" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="JM27" s="2" t="n">
+        <v>20.12</v>
+      </c>
+      <c r="JN27" s="2" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="JO27" s="2" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="JP27" s="2" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="JQ27" t="n">
+        <v>10.19</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" s="1">
@@ -23157,8 +23805,32 @@
       <c r="JH28" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JI28" t="n">
+      <c r="JI28" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JJ28" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JK28" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JL28" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JM28" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="JN28" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JO28" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JP28" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JQ28" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" s="1">
@@ -23968,8 +24640,32 @@
       <c r="JH29" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JI29" t="n">
+      <c r="JI29" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="JJ29" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JK29" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JL29" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JM29" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JN29" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JO29" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="JP29" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JQ29" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" s="1">
@@ -24779,8 +25475,32 @@
       <c r="JH30" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JI30" t="n">
+      <c r="JI30" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JJ30" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JK30" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JL30" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JM30" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JN30" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JO30" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JP30" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JQ30" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" s="1">
@@ -25590,8 +26310,32 @@
       <c r="JH31" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="JI31" t="n">
+      <c r="JI31" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="JJ31" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="JK31" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="JL31" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="JM31" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JN31" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JO31" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="JP31" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JQ31" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" s="1">
@@ -26401,8 +27145,32 @@
       <c r="JH32" s="2" t="n">
         <v>1.89</v>
       </c>
-      <c r="JI32" t="n">
+      <c r="JI32" s="2" t="n">
         <v>2.33</v>
+      </c>
+      <c r="JJ32" s="2" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="JK32" s="2" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="JL32" s="2" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="JM32" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JN32" s="2" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="JO32" s="2" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="JP32" s="2" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="JQ32" t="n">
+        <v>1.61</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" s="1">
@@ -27212,8 +27980,32 @@
       <c r="JH33" s="2" t="n">
         <v>2.65</v>
       </c>
-      <c r="JI33" t="n">
+      <c r="JI33" s="2" t="n">
         <v>4.85</v>
+      </c>
+      <c r="JJ33" s="2" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="JK33" s="2" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="JL33" s="2" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="JM33" s="2" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="JN33" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="JO33" s="2" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="JP33" s="2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="JQ33" t="n">
+        <v>2.76</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" s="1">
@@ -28023,8 +28815,32 @@
       <c r="JH34" s="2" t="n">
         <v>47.2</v>
       </c>
-      <c r="JI34" t="n">
+      <c r="JI34" s="2" t="n">
         <v>41.3</v>
+      </c>
+      <c r="JJ34" s="2" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="JK34" s="2" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="JL34" s="2" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="JM34" s="2" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="JN34" s="2" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="JO34" s="2" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="JP34" s="2" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="JQ34" t="n">
+        <v>56.9</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" s="1">
@@ -28834,8 +29650,32 @@
       <c r="JH35" s="2" t="n">
         <v>37.7</v>
       </c>
-      <c r="JI35" t="n">
+      <c r="JI35" s="2" t="n">
         <v>20.6</v>
+      </c>
+      <c r="JJ35" s="2" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="JK35" s="2" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="JL35" s="2" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="JM35" s="2" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="JN35" s="2" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="JO35" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JP35" s="2" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="JQ35" t="n">
+        <v>36.2</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" s="1">
@@ -29645,8 +30485,32 @@
       <c r="JH36" s="2" t="n">
         <v>187.1</v>
       </c>
-      <c r="JI36" t="n">
+      <c r="JI36" s="2" t="n">
         <v>186.3</v>
+      </c>
+      <c r="JJ36" s="2" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="JK36" s="2" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="JL36" s="2" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="JM36" s="2" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="JN36" s="2" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="JO36" s="2" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="JP36" s="2" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="JQ36" t="n">
+        <v>186.4</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" s="1">
@@ -30456,8 +31320,32 @@
       <c r="JH37" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="JI37" t="n">
+      <c r="JI37" s="2" t="n">
         <v>85.3</v>
+      </c>
+      <c r="JJ37" s="2" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="JK37" s="2" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="JL37" s="2" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="JM37" s="2" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="JN37" s="2" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="JO37" s="2" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="JP37" s="2" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="JQ37" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" s="1">
@@ -31267,8 +32155,32 @@
       <c r="JH38" s="2" t="n">
         <v>27.16</v>
       </c>
-      <c r="JI38" t="n">
+      <c r="JI38" s="2" t="n">
         <v>26.8</v>
+      </c>
+      <c r="JJ38" s="2" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="JK38" s="2" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="JL38" s="2" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="JM38" s="2" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="JN38" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JO38" s="2" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="JP38" s="2" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="JQ38" t="n">
+        <v>26.58</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" s="1">
@@ -32078,8 +32990,32 @@
       <c r="JH39" s="2" t="n">
         <v>128.7</v>
       </c>
-      <c r="JI39" t="n">
+      <c r="JI39" s="2" t="n">
         <v>112.4</v>
+      </c>
+      <c r="JJ39" s="2" t="n">
+        <v>118.7</v>
+      </c>
+      <c r="JK39" s="2" t="n">
+        <v>118.7</v>
+      </c>
+      <c r="JL39" s="2" t="n">
+        <v>118.7</v>
+      </c>
+      <c r="JM39" s="2" t="n">
+        <v>119.8</v>
+      </c>
+      <c r="JN39" s="2" t="n">
+        <v>128.6</v>
+      </c>
+      <c r="JO39" s="2" t="n">
+        <v>113.8</v>
+      </c>
+      <c r="JP39" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="JQ39" t="n">
+        <v>124.7</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="1">
@@ -32889,8 +33825,32 @@
       <c r="JH40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JI40" t="n">
+      <c r="JI40" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JJ40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JK40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JL40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JM40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JN40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JO40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JP40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JQ40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="1">
@@ -33700,7 +34660,31 @@
       <c r="JH41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JI41" t="n">
+      <c r="JI41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JJ41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JK41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JL41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JM41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JN41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JO41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JP41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JQ41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34511,7 +35495,31 @@
       <c r="JH42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JI42" t="n">
+      <c r="JI42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JJ42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JK42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JL42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JM42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JN42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JO42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JP42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JQ42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -35322,8 +36330,32 @@
       <c r="JH43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JI43" t="n">
+      <c r="JI43" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JJ43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JK43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JL43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JN43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JO43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JP43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ43" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" s="1">
@@ -36133,8 +37165,32 @@
       <c r="JH44" s="2" t="n">
         <v>112</v>
       </c>
-      <c r="JI44" t="n">
+      <c r="JI44" s="2" t="n">
         <v>135</v>
+      </c>
+      <c r="JJ44" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="JK44" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="JL44" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="JM44" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="JN44" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="JO44" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="JP44" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="JQ44" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" s="1">
@@ -36944,8 +38000,32 @@
       <c r="JH45" s="2" t="n">
         <v>232</v>
       </c>
-      <c r="JI45" t="n">
+      <c r="JI45" s="2" t="n">
         <v>194</v>
+      </c>
+      <c r="JJ45" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="JK45" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="JL45" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="JM45" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="JN45" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="JO45" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="JP45" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="JQ45" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" s="1">
@@ -37755,8 +38835,32 @@
       <c r="JH46" s="2" t="n">
         <v>271</v>
       </c>
-      <c r="JI46" t="n">
+      <c r="JI46" s="2" t="n">
         <v>237</v>
+      </c>
+      <c r="JJ46" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="JK46" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="JL46" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="JM46" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="JN46" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="JO46" s="2" t="n">
+        <v>252</v>
+      </c>
+      <c r="JP46" s="2" t="n">
+        <v>262</v>
+      </c>
+      <c r="JQ46" t="n">
+        <v>289</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" s="1">
@@ -38566,8 +39670,32 @@
       <c r="JH47" s="2" t="n">
         <v>77.90000000000001</v>
       </c>
-      <c r="JI47" t="n">
+      <c r="JI47" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="JJ47" s="2" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="JK47" s="2" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="JL47" s="2" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="JM47" s="2" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="JN47" s="2" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="JO47" s="2" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="JP47" s="2" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="JQ47" t="n">
+        <v>78.7</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" s="1">
@@ -39377,8 +40505,32 @@
       <c r="JH48" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JI48" t="n">
+      <c r="JI48" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="JJ48" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JK48" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JL48" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JM48" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JN48" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JO48" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="JP48" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JQ48" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" s="1">
@@ -40188,8 +41340,32 @@
       <c r="JH49" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JI49" t="n">
+      <c r="JI49" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JJ49" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JK49" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JL49" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JM49" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JN49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JO49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JP49" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JQ49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" s="1">
@@ -40999,8 +42175,32 @@
       <c r="JH50" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JI50" t="n">
+      <c r="JI50" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JJ50" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JK50" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JL50" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JM50" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JN50" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JO50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JP50" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JQ50" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" s="1">
@@ -41810,8 +43010,32 @@
       <c r="JH51" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JI51" t="n">
+      <c r="JI51" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JJ51" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JK51" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JL51" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JM51" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="JN51" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JO51" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JP51" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JQ51" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" s="1">
@@ -42621,8 +43845,32 @@
       <c r="JH52" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JI52" t="n">
+      <c r="JI52" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JJ52" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JK52" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JL52" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JM52" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JN52" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JO52" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JP52" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JQ52" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" s="1">
@@ -43432,8 +44680,32 @@
       <c r="JH53" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JI53" t="n">
+      <c r="JI53" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JJ53" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JK53" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JL53" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JM53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JN53" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="JO53" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="JP53" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="JQ53" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" s="1">
@@ -44243,8 +45515,32 @@
       <c r="JH54" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JI54" t="n">
+      <c r="JI54" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JJ54" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JK54" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JL54" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JN54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JO54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JP54" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JQ54" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" s="1">
@@ -45054,8 +46350,32 @@
       <c r="JH55" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JI55" t="n">
+      <c r="JI55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JJ55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JK55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JL55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JM55" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JN55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JO55" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JP55" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JQ55" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" s="1">
@@ -45865,8 +47185,32 @@
       <c r="JH56" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JI56" t="n">
+      <c r="JI56" s="2" t="n">
         <v>46.2</v>
+      </c>
+      <c r="JJ56" s="2" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="JK56" s="2" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="JL56" s="2" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="JM56" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="JN56" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JO56" s="2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="JP56" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="JQ56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" s="1">
@@ -46676,8 +48020,32 @@
       <c r="JH57" s="2" t="n">
         <v>214</v>
       </c>
-      <c r="JI57" t="n">
+      <c r="JI57" s="2" t="n">
         <v>237</v>
+      </c>
+      <c r="JJ57" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="JK57" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="JL57" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="JM57" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="JN57" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="JO57" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="JP57" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="JQ57" t="n">
+        <v>195</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" s="1">
@@ -47487,8 +48855,32 @@
       <c r="JH58" s="2" t="n">
         <v>164</v>
       </c>
-      <c r="JI58" t="n">
+      <c r="JI58" s="2" t="n">
         <v>108</v>
+      </c>
+      <c r="JJ58" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="JK58" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="JL58" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="JM58" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="JN58" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="JO58" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="JP58" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="JQ58" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" s="1">
@@ -48298,8 +49690,32 @@
       <c r="JH59" s="2" t="n">
         <v>378</v>
       </c>
-      <c r="JI59" t="n">
+      <c r="JI59" s="2" t="n">
         <v>345</v>
+      </c>
+      <c r="JJ59" s="2" t="n">
+        <v>374</v>
+      </c>
+      <c r="JK59" s="2" t="n">
+        <v>374</v>
+      </c>
+      <c r="JL59" s="2" t="n">
+        <v>374</v>
+      </c>
+      <c r="JM59" s="2" t="n">
+        <v>398</v>
+      </c>
+      <c r="JN59" s="2" t="n">
+        <v>343</v>
+      </c>
+      <c r="JO59" s="2" t="n">
+        <v>373</v>
+      </c>
+      <c r="JP59" s="2" t="n">
+        <v>330</v>
+      </c>
+      <c r="JQ59" t="n">
+        <v>329</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" s="1">
@@ -49109,8 +50525,32 @@
       <c r="JH60" s="2" t="n">
         <v>1.3</v>
       </c>
-      <c r="JI60" t="n">
+      <c r="JI60" s="2" t="n">
         <v>2.19</v>
+      </c>
+      <c r="JJ60" s="2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="JK60" s="2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="JL60" s="2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="JM60" s="2" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="JN60" s="2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="JO60" s="2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="JP60" s="2" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="JQ60" t="n">
+        <v>1.46</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" s="1">
@@ -49920,8 +51360,32 @@
       <c r="JH61" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="JI61" t="n">
+      <c r="JI61" s="2" t="n">
         <v>98</v>
+      </c>
+      <c r="JJ61" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="JK61" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="JL61" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="JM61" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="JN61" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="JO61" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="JP61" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JQ61" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" s="1">
@@ -50731,8 +52195,32 @@
       <c r="JH62" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JI62" t="n">
+      <c r="JI62" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="JJ62" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="JK62" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="JL62" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="JM62" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JN62" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JO62" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="JP62" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JQ62" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" s="1">
@@ -51542,8 +53030,32 @@
       <c r="JH63" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JI63" t="n">
+      <c r="JI63" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JJ63" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JK63" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JL63" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JM63" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JN63" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JO63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JP63" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JQ63" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" s="1">
@@ -52353,8 +53865,32 @@
       <c r="JH64" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JI64" t="n">
+      <c r="JI64" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JJ64" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JK64" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JL64" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JM64" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JN64" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JO64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JP64" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JQ64" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" s="1">
@@ -53164,8 +54700,32 @@
       <c r="JH65" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JI65" t="n">
+      <c r="JI65" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JJ65" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JK65" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JL65" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JM65" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JN65" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JO65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JP65" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JQ65" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" s="1">
@@ -53975,8 +55535,32 @@
       <c r="JH66" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JI66" t="n">
+      <c r="JI66" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JJ66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JK66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JL66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JM66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JN66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JO66" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JP66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JQ66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" s="1">
@@ -54786,8 +56370,32 @@
       <c r="JH67" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JI67" t="n">
+      <c r="JI67" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JJ67" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JK67" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JL67" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JM67" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JN67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JO67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JP67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" s="1">
@@ -55597,8 +57205,32 @@
       <c r="JH68" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JI68" t="n">
+      <c r="JI68" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JJ68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JK68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JL68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JM68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JN68" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JO68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JP68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JQ68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" s="1">
@@ -56408,8 +58040,32 @@
       <c r="JH69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JI69" t="n">
+      <c r="JI69" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JJ69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JN69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO69" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JP69" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JQ69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" s="1">
@@ -57219,8 +58875,32 @@
       <c r="JH70" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="JI70" t="n">
+      <c r="JI70" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="JJ70" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JK70" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JL70" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JM70" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JN70" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JO70" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JP70" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JQ70" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" s="1">
@@ -58030,8 +59710,32 @@
       <c r="JH71" s="2" t="n">
         <v>46.4</v>
       </c>
-      <c r="JI71" t="n">
+      <c r="JI71" s="2" t="n">
         <v>58.3</v>
+      </c>
+      <c r="JJ71" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="JK71" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="JL71" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="JM71" s="2" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="JN71" s="2" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="JO71" s="2" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="JP71" s="2" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="JQ71" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" s="1">
@@ -58841,8 +60545,32 @@
       <c r="JH72" s="2" t="n">
         <v>29.08</v>
       </c>
-      <c r="JI72" t="n">
+      <c r="JI72" s="2" t="n">
         <v>24.64</v>
+      </c>
+      <c r="JJ72" s="2" t="n">
+        <v>26.71</v>
+      </c>
+      <c r="JK72" s="2" t="n">
+        <v>26.71</v>
+      </c>
+      <c r="JL72" s="2" t="n">
+        <v>26.71</v>
+      </c>
+      <c r="JM72" s="2" t="n">
+        <v>56.86</v>
+      </c>
+      <c r="JN72" s="2" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="JO72" s="2" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="JP72" s="2" t="n">
+        <v>36.67</v>
+      </c>
+      <c r="JQ72" t="n">
+        <v>29.91</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" s="1">
@@ -59652,8 +61380,32 @@
       <c r="JH73" s="2" t="n">
         <v>13.5</v>
       </c>
-      <c r="JI73" t="n">
+      <c r="JI73" s="2" t="n">
         <v>14.38</v>
+      </c>
+      <c r="JJ73" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JK73" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JL73" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JM73" s="2" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="JN73" s="2" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="JO73" s="2" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="JP73" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JQ73" t="n">
+        <v>16.45</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" s="1">
@@ -60463,8 +62215,32 @@
       <c r="JH74" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JI74" t="n">
+      <c r="JI74" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JJ74" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JK74" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JL74" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JM74" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JN74" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JO74" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JP74" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JQ74" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" s="1">
@@ -61274,8 +63050,32 @@
       <c r="JH75" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JI75" t="n">
+      <c r="JI75" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="JJ75" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JK75" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JL75" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JM75" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="JN75" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="JO75" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="JP75" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JQ75" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" s="1">
@@ -62085,8 +63885,32 @@
       <c r="JH76" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JI76" t="n">
+      <c r="JI76" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JJ76" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JK76" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JL76" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JM76" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JN76" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JO76" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JP76" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JQ76" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" s="1">
@@ -62896,8 +64720,32 @@
       <c r="JH77" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JI77" t="n">
+      <c r="JI77" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="JJ77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JK77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JL77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JM77" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JN77" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="JO77" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JP77" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JQ77" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1" s="1">
@@ -63707,8 +65555,32 @@
       <c r="JH78" s="2" t="n">
         <v>2.04</v>
       </c>
-      <c r="JI78" t="n">
+      <c r="JI78" s="2" t="n">
         <v>2.38</v>
+      </c>
+      <c r="JJ78" s="2" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="JK78" s="2" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="JL78" s="2" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="JM78" s="2" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="JN78" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO78" s="2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="JP78" s="2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="JQ78" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" s="1">
@@ -64518,8 +66390,32 @@
       <c r="JH79" s="2" t="n">
         <v>4.38</v>
       </c>
-      <c r="JI79" t="n">
+      <c r="JI79" s="2" t="n">
         <v>4.07</v>
+      </c>
+      <c r="JJ79" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="JK79" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="JL79" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="JM79" s="2" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="JN79" s="2" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="JO79" s="2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="JP79" s="2" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="JQ79" t="n">
+        <v>3.82</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" s="1">
@@ -65329,8 +67225,32 @@
       <c r="JH80" s="2" t="n">
         <v>43.9</v>
       </c>
-      <c r="JI80" t="n">
+      <c r="JI80" s="2" t="n">
         <v>33.3</v>
+      </c>
+      <c r="JJ80" s="2" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="JK80" s="2" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="JL80" s="2" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="JM80" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="JN80" s="2" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="JO80" s="2" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="JP80" s="2" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="JQ80" t="n">
+        <v>40.5</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" s="1">
@@ -66140,8 +68060,32 @@
       <c r="JH81" s="2" t="n">
         <v>22.8</v>
       </c>
-      <c r="JI81" t="n">
+      <c r="JI81" s="2" t="n">
         <v>24.6</v>
+      </c>
+      <c r="JJ81" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="JK81" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="JL81" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="JM81" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JN81" s="2" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="JO81" s="2" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="JP81" s="2" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="JQ81" t="n">
+        <v>26.2</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" s="1">
@@ -66951,7 +68895,31 @@
       <c r="JH82" s="2" t="n">
         <v>187.2</v>
       </c>
-      <c r="JI82" t="n">
+      <c r="JI82" s="2" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="JJ82" s="2" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="JK82" s="2" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="JL82" s="2" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="JM82" s="2" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="JN82" s="2" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="JO82" s="2" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="JP82" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="JQ82" t="n">
         <v>188.4</v>
       </c>
     </row>
@@ -67762,8 +69730,32 @@
       <c r="JH83" s="2" t="n">
         <v>85.3</v>
       </c>
-      <c r="JI83" t="n">
+      <c r="JI83" s="2" t="n">
         <v>87.2</v>
+      </c>
+      <c r="JJ83" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="JK83" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="JL83" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="JM83" s="2" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="JN83" s="2" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="JO83" s="2" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="JP83" s="2" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="JQ83" t="n">
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" s="1">
@@ -68573,8 +70565,32 @@
       <c r="JH84" s="2" t="n">
         <v>26.33</v>
       </c>
-      <c r="JI84" t="n">
+      <c r="JI84" s="2" t="n">
         <v>25.16</v>
+      </c>
+      <c r="JJ84" s="2" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="JK84" s="2" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="JL84" s="2" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="JM84" s="2" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="JN84" s="2" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="JO84" s="2" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="JP84" s="2" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="JQ84" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" s="1">
@@ -69384,8 +71400,32 @@
       <c r="JH85" s="2" t="n">
         <v>117.8</v>
       </c>
-      <c r="JI85" t="n">
+      <c r="JI85" s="2" t="n">
         <v>89.2</v>
+      </c>
+      <c r="JJ85" s="2" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="JK85" s="2" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="JL85" s="2" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="JM85" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="JN85" s="2" t="n">
+        <v>119.7</v>
+      </c>
+      <c r="JO85" s="2" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="JP85" s="2" t="n">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="JQ85" t="n">
+        <v>88.8</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" s="1">
@@ -70195,8 +72235,32 @@
       <c r="JH86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JI86" t="n">
+      <c r="JI86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JJ86" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JK86" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JL86" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JM86" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JN86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JO86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JP86" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JQ86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1" s="1">
@@ -71006,8 +73070,32 @@
       <c r="JH87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JI87" t="n">
+      <c r="JI87" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JJ87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JK87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JL87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM87" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JN87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JO87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JP87" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JQ87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" s="1">
@@ -71817,7 +73905,31 @@
       <c r="JH88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JI88" t="n">
+      <c r="JI88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JJ88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JK88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JL88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JM88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JN88" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JO88" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JP88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JQ88" t="n">
         <v>4</v>
       </c>
     </row>
@@ -72628,8 +74740,32 @@
       <c r="JH89" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JI89" t="n">
+      <c r="JI89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JJ89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JK89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JL89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JM89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JN89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JO89" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JP89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JQ89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1" s="1">
@@ -73439,8 +75575,32 @@
       <c r="JH90" s="2" t="n">
         <v>131</v>
       </c>
-      <c r="JI90" t="n">
+      <c r="JI90" s="2" t="n">
         <v>146</v>
+      </c>
+      <c r="JJ90" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="JK90" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="JL90" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="JM90" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="JN90" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="JO90" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="JP90" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="JQ90" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" s="1">
@@ -74250,8 +76410,32 @@
       <c r="JH91" s="2" t="n">
         <v>237</v>
       </c>
-      <c r="JI91" t="n">
+      <c r="JI91" s="2" t="n">
         <v>187</v>
+      </c>
+      <c r="JJ91" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="JK91" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="JL91" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="JM91" s="2" t="n">
+        <v>264</v>
+      </c>
+      <c r="JN91" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="JO91" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="JP91" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="JQ91" t="n">
+        <v>195</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" s="1">
@@ -75061,8 +77245,32 @@
       <c r="JH92" s="2" t="n">
         <v>282</v>
       </c>
-      <c r="JI92" t="n">
+      <c r="JI92" s="2" t="n">
         <v>238</v>
+      </c>
+      <c r="JJ92" s="2" t="n">
+        <v>283</v>
+      </c>
+      <c r="JK92" s="2" t="n">
+        <v>283</v>
+      </c>
+      <c r="JL92" s="2" t="n">
+        <v>283</v>
+      </c>
+      <c r="JM92" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="JN92" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="JO92" s="2" t="n">
+        <v>277</v>
+      </c>
+      <c r="JP92" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="JQ92" t="n">
+        <v>246</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1" s="1">
@@ -75872,8 +78080,32 @@
       <c r="JH93" s="2" t="n">
         <v>74.59999999999999</v>
       </c>
-      <c r="JI93" t="n">
+      <c r="JI93" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="JJ93" s="2" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="JK93" s="2" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="JL93" s="2" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="JM93" s="2" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="JN93" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="JO93" s="2" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="JP93" s="2" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="JQ93" t="n">
+        <v>74.8</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" s="1">
@@ -76683,8 +78915,32 @@
       <c r="JH94" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JI94" t="n">
+      <c r="JI94" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="JJ94" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JK94" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JL94" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JM94" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="JN94" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="JO94" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="JP94" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JQ94" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" s="1">
@@ -77494,8 +79750,32 @@
       <c r="JH95" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JI95" t="n">
+      <c r="JI95" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JJ95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JK95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JL95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JM95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JN95" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JO95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JP95" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JQ95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1" s="1">
@@ -78305,8 +80585,32 @@
       <c r="JH96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JI96" t="n">
+      <c r="JI96" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JJ96" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JK96" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JL96" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM96" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JN96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JO96" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JP96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JQ96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" s="1">
@@ -79116,8 +81420,32 @@
       <c r="JH97" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JI97" t="n">
+      <c r="JI97" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JJ97" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JK97" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JL97" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JM97" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JN97" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JO97" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JP97" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JQ97" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" s="1">
@@ -79927,8 +82255,32 @@
       <c r="JH98" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JI98" t="n">
+      <c r="JI98" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JJ98" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JK98" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JL98" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JM98" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JN98" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JO98" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JP98" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JQ98" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1" s="1">
@@ -80738,8 +83090,32 @@
       <c r="JH99" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JI99" t="n">
+      <c r="JI99" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="JJ99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JK99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JL99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JM99" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JN99" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JO99" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JP99" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JQ99" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" s="1">
@@ -81549,8 +83925,32 @@
       <c r="JH100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JI100" t="n">
+      <c r="JI100" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JJ100" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JK100" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JL100" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JM100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JN100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JP100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JQ100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" s="1">
@@ -82360,8 +84760,32 @@
       <c r="JH101" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JI101" t="n">
+      <c r="JI101" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JJ101" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JK101" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JL101" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JM101" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JN101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JO101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JP101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1" s="1">
@@ -83171,8 +85595,32 @@
       <c r="JH102" s="2" t="n">
         <v>61.5</v>
       </c>
-      <c r="JI102" t="n">
+      <c r="JI102" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JJ102" s="2" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="JK102" s="2" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="JL102" s="2" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="JM102" s="2" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="JN102" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="JO102" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JP102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="JQ102" t="n">
+        <v>54.5</v>
       </c>
     </row>
   </sheetData>
